--- a/alpha_package_costs/alpha_package_costs_inputs/alpha_package_costs_module_inputs.xlsx
+++ b/alpha_package_costs/alpha_package_costs_inputs/alpha_package_costs_module_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSHERWOO\Documents\GitHub\EPA_OMEGA_Model\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSHERWOO\Documents\GitHub\EPA_OMEGA_Model\alpha_package_costs\alpha_package_costs_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C170D0-4E83-445F-90EE-6C2487EE4297}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DB6E17-5E9F-448A-94BF-655E41BE26BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="719" activeTab="11" xr2:uid="{31AE0ECC-ADD6-46A3-9F50-4BA6582DDF8B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="719" xr2:uid="{31AE0ECC-ADD6-46A3-9F50-4BA6582DDF8B}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs_code" sheetId="15" r:id="rId1"/>
@@ -53,7 +53,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1916,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF58B9CD-C45C-4464-97D6-845ECC18E560}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1946,7 +1948,7 @@
         <v>317</v>
       </c>
       <c r="B3" s="1">
-        <v>2035</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4300,7 +4302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B69F5C-798B-4A10-94D8-33D9607CBCCB}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>

--- a/alpha_package_costs/alpha_package_costs_inputs/alpha_package_costs_module_inputs.xlsx
+++ b/alpha_package_costs/alpha_package_costs_inputs/alpha_package_costs_module_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSHERWOO\Documents\GitHub\EPA_OMEGA_Model\alpha_package_costs\alpha_package_costs_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DB6E17-5E9F-448A-94BF-655E41BE26BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1CC8AE-5FDE-4873-8D88-1E0F666649BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="719" xr2:uid="{31AE0ECC-ADD6-46A3-9F50-4BA6582DDF8B}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="338">
   <si>
     <t>SOHC</t>
   </si>
@@ -1105,6 +1105,15 @@
   </si>
   <si>
     <t>dollar/kWh_20WR</t>
+  </si>
+  <si>
+    <t>ghg_standards</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>NO LONGER USED</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1127,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1261,6 +1270,14 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1399,7 +1416,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1472,6 +1489,7 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Accent1 2" xfId="20" xr:uid="{D9FD632B-EF7F-49B6-8440-0774D2DADADB}"/>
@@ -1916,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF58B9CD-C45C-4464-97D6-845ECC18E560}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1989,6 +2007,14 @@
       </c>
       <c r="B8" s="1">
         <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -6919,9 +6945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E34BFD-9265-45F1-BE2F-2D62A03D848B}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6929,6 +6953,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>337</v>
+      </c>
       <c r="B1" s="37" t="s">
         <v>307</v>
       </c>
@@ -8239,6 +8266,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/alpha_package_costs/alpha_package_costs_inputs/alpha_package_costs_module_inputs.xlsx
+++ b/alpha_package_costs/alpha_package_costs_inputs/alpha_package_costs_module_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSHERWOO\Documents\GitHub\EPA_OMEGA_Model\alpha_package_costs\alpha_package_costs_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1CC8AE-5FDE-4873-8D88-1E0F666649BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C06F8A-0001-4A88-803A-2E38AB256BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="719" xr2:uid="{31AE0ECC-ADD6-46A3-9F50-4BA6582DDF8B}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <sheet name="coefficients" sheetId="14" r:id="rId15"/>
     <sheet name="gdp_deflators" sheetId="16" r:id="rId16"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId17"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">aero!$A$1:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">engine!$A$1:$AI$34</definedName>
@@ -42,7 +39,6 @@
     <definedName name="Null_6cyl_DMC">inputs_workbook!$B$3</definedName>
     <definedName name="Null_8cyl_DMC">inputs_workbook!$B$2</definedName>
     <definedName name="TRX10_">inputs_workbook!$B$5</definedName>
-    <definedName name="USD_2006">[1]Inputs!$B$17</definedName>
     <definedName name="workbook_dollar_basis">inputs_workbook!$B$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1098,9 +1094,6 @@
     <t>bev_cost_intercept</t>
   </si>
   <si>
-    <t>analysis_year_dollars</t>
-  </si>
-  <si>
     <t>dollar/kWh_0WR</t>
   </si>
   <si>
@@ -1114,6 +1107,9 @@
   </si>
   <si>
     <t>NO LONGER USED</t>
+  </si>
+  <si>
+    <t>NOTE: these deflators are still used within this workbook even though the costs calculated within the workbook are subsequently adjusted using the Implicit Price Deflators (done in code) so there is a slight disconnect in the adjustments...but it's small.</t>
   </si>
 </sst>
 </file>
@@ -1540,69 +1536,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ChangeLog"/>
-      <sheetName val="Inputs"/>
-      <sheetName val="CWC_VehType"/>
-      <sheetName val="TechList"/>
-      <sheetName val="LFs"/>
-      <sheetName val="ICMs"/>
-      <sheetName val="ICM_inputs"/>
-      <sheetName val="lfTable"/>
-      <sheetName val="ICM_o"/>
-      <sheetName val="ICM_w"/>
-      <sheetName val="et_dmc"/>
-      <sheetName val="wr_DMCcurves_FRM"/>
-      <sheetName val="wr_dmc"/>
-      <sheetName val="wr_DMCcurve_TAR"/>
-      <sheetName val="wr_dmc_TAR"/>
-      <sheetName val="wr_ICcurves"/>
-      <sheetName val="wr_ic_TAR"/>
-      <sheetName val="ev1_dmc_curves"/>
-      <sheetName val="ev1_dmc"/>
-      <sheetName val="ev2_dmc"/>
-      <sheetName val="T3"/>
-      <sheetName val="PriceDeflators"/>
-      <sheetName val="PU_Inputs"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="17">
-          <cell r="B17">
-            <v>1.175</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{046D2098-7ED5-4FD1-9252-DA736D36E254}" name="et_dmc" displayName="et_dmc" ref="A1:L62" totalsRowShown="0">
   <autoFilter ref="A1:L62" xr:uid="{FC23E305-CC0C-448F-8C6F-468416C8658D}">
@@ -1934,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF58B9CD-C45C-4464-97D6-845ECC18E560}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2003,18 +1936,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -4408,10 +4333,10 @@
         <v>286</v>
       </c>
       <c r="R1" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="S1" s="29" t="s">
         <v>333</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -6954,7 +6879,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>307</v>
@@ -8272,10 +8197,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B101427-E0F5-4F9E-AF35-E5B072DEE02C}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8398,6 +8323,11 @@
       </c>
       <c r="B15" s="1">
         <v>112.348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -8411,7 +8341,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8491,8 +8421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6B2318-32F9-4ECB-8F5A-79536977FADD}">
   <dimension ref="A1:AI31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11859,7 +11789,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/alpha_package_costs/alpha_package_costs_inputs/alpha_package_costs_module_inputs.xlsx
+++ b/alpha_package_costs/alpha_package_costs_inputs/alpha_package_costs_module_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSHERWOO\Documents\GitHub\EPA_OMEGA_Model\alpha_package_costs\alpha_package_costs_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C06F8A-0001-4A88-803A-2E38AB256BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6169C90A-4F60-4F25-9A82-6D58239630F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="719" xr2:uid="{31AE0ECC-ADD6-46A3-9F50-4BA6582DDF8B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="719" firstSheet="1" activeTab="11" xr2:uid="{31AE0ECC-ADD6-46A3-9F50-4BA6582DDF8B}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs_code" sheetId="15" r:id="rId1"/>
@@ -95,8 +95,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="342">
   <si>
     <t>SOHC</t>
   </si>
@@ -1110,6 +1132,18 @@
   </si>
   <si>
     <t>NOTE: these deflators are still used within this workbook even though the costs calculated within the workbook are subsequently adjusted using the Implicit Price Deflators (done in code) so there is a slight disconnect in the adjustments...but it's small.</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Pack cost; BATTERY_SUMMARY_BP4_NMC622_BEV250-350_v1.xlsx; BEV300, 450k</t>
+  </si>
+  <si>
+    <t>kWh; BATTERY_SUMMARY_BP4_NMC622_BEV250-350_v1.xlsx; BEV300, 450k</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1157,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1274,6 +1308,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1412,7 +1452,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1431,20 +1471,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1486,6 +1521,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="3" xfId="33" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Accent1 2" xfId="20" xr:uid="{D9FD632B-EF7F-49B6-8440-0774D2DADADB}"/>
@@ -1869,7 +1910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF58B9CD-C45C-4464-97D6-845ECC18E560}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -1886,7 +1927,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>316</v>
       </c>
@@ -1894,7 +1935,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>317</v>
       </c>
@@ -2714,7 +2755,7 @@
       <c r="F18">
         <v>2006</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="34" t="s">
         <v>63</v>
       </c>
       <c r="H18">
@@ -2895,7 +2936,7 @@
       <c r="F23">
         <v>2006</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="34" t="s">
         <v>63</v>
       </c>
       <c r="H23">
@@ -4253,24 +4294,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B69F5C-798B-4A10-94D8-33D9607CBCCB}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="37" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" style="34" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
@@ -4281,70 +4322,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="26" t="s">
         <v>331</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="26" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="str">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="str">
         <f>CONCATENATE("bev_",C2,"_",B2)</f>
         <v>bev_300_LPW_LRL</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>287</v>
       </c>
       <c r="C2" s="11">
@@ -4354,616 +4395,617 @@
       <c r="D2" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="39" t="s">
         <v>305</v>
       </c>
       <c r="F2" s="10">
         <v>48</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>3281</v>
       </c>
-      <c r="H2" s="12">
-        <f>INDEX(bev_curves_data!$Q$14:$V$14,,MATCH($D2,bev_curves_data!$Q$1:$V$1,0))</f>
-        <v>-24.268554136897372</v>
-      </c>
-      <c r="I2" s="12">
-        <f>INDEX(bev_curves_data!$Q$15:$V$15,,MATCH($D2,bev_curves_data!$Q$1:$V$1,0))</f>
-        <v>60.808301226195006</v>
-      </c>
-      <c r="J2" s="25">
-        <f>bev_curves_data!D20*Markup</f>
-        <v>-5673.0305598007189</v>
-      </c>
-      <c r="K2" s="25">
-        <f>bev_curves_data!E20*Markup</f>
-        <v>10871.187804030276</v>
+      <c r="H2" s="45" cm="1">
+        <f t="array" ref="H2">INDEX(bev_curves_data!$M$37:$R$37,,MATCH($D2,bev_curves_data!$M$31:$R$31,0))</f>
+        <v>-12.125242548355066</v>
+      </c>
+      <c r="I2" s="45" cm="1">
+        <f t="array" ref="I2">INDEX(bev_curves_data!$M$38:$R$38,,MATCH($D2,bev_curves_data!$M$31:$R$31,0))</f>
+        <v>60.602629028559839</v>
+      </c>
+      <c r="J2" s="45" cm="1">
+        <f t="array" ref="J2">INDEX(bev_curves_data!$D$37:$I$37,,MATCH($D2,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>-1245.8248078720785</v>
+      </c>
+      <c r="K2" s="45" cm="1">
+        <f t="array" ref="K2">INDEX(bev_curves_data!$D$38:$I$38,,MATCH($D2,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>6885.1698170583295</v>
       </c>
       <c r="L2" s="9">
-        <v>2015</v>
-      </c>
-      <c r="M2" s="43">
+        <v>2019</v>
+      </c>
+      <c r="M2" s="40">
         <v>0.9</v>
       </c>
-      <c r="N2" s="43">
+      <c r="N2" s="40">
         <v>0.25</v>
       </c>
-      <c r="O2" s="43">
+      <c r="O2" s="40">
         <v>0.1</v>
       </c>
-      <c r="P2" s="43">
+      <c r="P2" s="40">
         <v>1</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="23">
         <f t="shared" ref="Q2:Q7" si="0">(H2*0+I2)*M2*(1-N2)*P2/(C2*(1-O2))</f>
-        <v>0.15202075306548751</v>
-      </c>
-      <c r="R2" s="25">
+        <v>0.1515065725713996</v>
+      </c>
+      <c r="R2" s="22">
         <f>K2/I2</f>
-        <v>178.77802182947983</v>
-      </c>
-      <c r="S2" s="25">
+        <v>113.61173479476602</v>
+      </c>
+      <c r="S2" s="22">
         <f>(J2*0.2+K2)/(H2*0.2+I2)</f>
-        <v>174.00863133252852</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="str">
+        <v>114.06464133257255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="str">
         <f t="shared" ref="A3:A7" si="1">CONCATENATE("bev_",C3,"_",B3)</f>
         <v>bev_300_MPW_LRL</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <f>bev_curves_data!C21</f>
         <v>300</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="39" t="s">
         <v>305</v>
       </c>
       <c r="F3" s="10">
         <v>50</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>3510</v>
       </c>
-      <c r="H3" s="12">
-        <f>INDEX(bev_curves_data!$Q$14:$V$14,,MATCH($D3,bev_curves_data!$Q$1:$V$1,0))</f>
-        <v>-30.252876361395565</v>
-      </c>
-      <c r="I3" s="12">
-        <f>INDEX(bev_curves_data!$Q$15:$V$15,,MATCH($D3,bev_curves_data!$Q$1:$V$1,0))</f>
-        <v>67.043292045087483</v>
-      </c>
-      <c r="J3" s="25">
-        <f>bev_curves_data!D21*Markup</f>
-        <v>-3918.6026668254008</v>
-      </c>
-      <c r="K3" s="25">
-        <f>bev_curves_data!E21*Markup</f>
-        <v>12032.6025767176</v>
+      <c r="H3" s="45" cm="1">
+        <f t="array" ref="H3">INDEX(bev_curves_data!$M$37:$R$37,,MATCH($D3,bev_curves_data!$M$31:$R$31,0))</f>
+        <v>-16.97957801938189</v>
+      </c>
+      <c r="I3" s="45" cm="1">
+        <f t="array" ref="I3">INDEX(bev_curves_data!$M$38:$R$38,,MATCH($D3,bev_curves_data!$M$31:$R$31,0))</f>
+        <v>66.831081073163773</v>
+      </c>
+      <c r="J3" s="45" cm="1">
+        <f t="array" ref="J3">INDEX(bev_curves_data!$D$37:$I$37,,MATCH($D3,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>-1525.0172230698106</v>
+      </c>
+      <c r="K3" s="45" cm="1">
+        <f t="array" ref="K3">INDEX(bev_curves_data!$D$38:$I$38,,MATCH($D3,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>7484.7761906287496</v>
       </c>
       <c r="L3" s="9">
-        <v>2015</v>
-      </c>
-      <c r="M3" s="43">
+        <v>2019</v>
+      </c>
+      <c r="M3" s="40">
         <v>0.9</v>
       </c>
-      <c r="N3" s="43">
+      <c r="N3" s="40">
         <v>0.25</v>
       </c>
-      <c r="O3" s="43">
+      <c r="O3" s="40">
         <v>0.1</v>
       </c>
-      <c r="P3" s="43">
+      <c r="P3" s="40">
         <v>1</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="23">
         <f t="shared" si="0"/>
-        <v>0.16760823011271872</v>
-      </c>
-      <c r="R3" s="25">
+        <v>0.16707770268290942</v>
+      </c>
+      <c r="R3" s="22">
         <f t="shared" ref="R3:R7" si="2">K3/I3</f>
-        <v>179.47511540193341</v>
-      </c>
-      <c r="S3" s="25">
+        <v>111.99543790762176</v>
+      </c>
+      <c r="S3" s="22">
         <f t="shared" ref="S3:S7" si="3">(J3*0.2+K3)/(H3*0.2+I3)</f>
-        <v>184.42992276034292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="str">
+        <v>113.18284886465578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="str">
         <f t="shared" si="1"/>
         <v>bev_300_LPW_HRL</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <f>bev_curves_data!C22</f>
         <v>300</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="39" t="s">
         <v>306</v>
       </c>
       <c r="F4" s="10">
         <v>53</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>3838</v>
       </c>
-      <c r="H4" s="12">
-        <f>INDEX(bev_curves_data!$Q$14:$V$14,,MATCH($D4,bev_curves_data!$Q$1:$V$1,0))</f>
-        <v>-35.865409336352315</v>
-      </c>
-      <c r="I4" s="12">
-        <f>INDEX(bev_curves_data!$Q$15:$V$15,,MATCH($D4,bev_curves_data!$Q$1:$V$1,0))</f>
-        <v>71.130580893617847</v>
-      </c>
-      <c r="J4" s="25">
-        <f>bev_curves_data!D22*Markup</f>
-        <v>-4612.4939008040619</v>
-      </c>
-      <c r="K4" s="25">
-        <f>bev_curves_data!E22*Markup</f>
-        <v>13041.635316641255</v>
+      <c r="H4" s="45" cm="1">
+        <f t="array" ref="H4">INDEX(bev_curves_data!$M$37:$R$37,,MATCH($D4,bev_curves_data!$M$31:$R$31,0))</f>
+        <v>-20.472123941098509</v>
+      </c>
+      <c r="I4" s="45" cm="1">
+        <f t="array" ref="I4">INDEX(bev_curves_data!$M$38:$R$38,,MATCH($D4,bev_curves_data!$M$31:$R$31,0))</f>
+        <v>70.839108273020074</v>
+      </c>
+      <c r="J4" s="45" cm="1">
+        <f t="array" ref="J4">INDEX(bev_curves_data!$D$37:$I$37,,MATCH($D4,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>-1973.0040011117987</v>
+      </c>
+      <c r="K4" s="45" cm="1">
+        <f t="array" ref="K4">INDEX(bev_curves_data!$D$38:$I$38,,MATCH($D4,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>7862.9862953498514</v>
       </c>
       <c r="L4" s="9">
-        <v>2015</v>
-      </c>
-      <c r="M4" s="43">
+        <v>2019</v>
+      </c>
+      <c r="M4" s="40">
         <v>0.9</v>
       </c>
-      <c r="N4" s="43">
+      <c r="N4" s="40">
         <v>0.25</v>
       </c>
-      <c r="O4" s="43">
+      <c r="O4" s="40">
         <v>0.1</v>
       </c>
-      <c r="P4" s="43">
+      <c r="P4" s="40">
         <v>1</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="23">
         <f t="shared" si="0"/>
-        <v>0.17782645223404461</v>
-      </c>
-      <c r="R4" s="25">
+        <v>0.1770977706825502</v>
+      </c>
+      <c r="R4" s="22">
         <f t="shared" si="2"/>
-        <v>183.34779714713969</v>
-      </c>
-      <c r="S4" s="25">
+        <v>110.99781585399437</v>
+      </c>
+      <c r="S4" s="22">
         <f t="shared" si="3"/>
-        <v>189.48734270375311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="str">
+        <v>111.89483723940725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="str">
         <f t="shared" si="1"/>
         <v>bev_300_HPW</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <f>bev_curves_data!C23</f>
         <v>300</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>55</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>4294</v>
       </c>
-      <c r="H5" s="12">
-        <f>INDEX(bev_curves_data!$Q$14:$V$14,,MATCH($D5,bev_curves_data!$Q$1:$V$1,0))</f>
-        <v>-43.801034322475424</v>
-      </c>
-      <c r="I5" s="12">
-        <f>INDEX(bev_curves_data!$Q$15:$V$15,,MATCH($D5,bev_curves_data!$Q$1:$V$1,0))</f>
-        <v>76.944032888824438</v>
-      </c>
-      <c r="J5" s="25">
-        <f>bev_curves_data!D23*Markup</f>
-        <v>-5608.7848653736301</v>
-      </c>
-      <c r="K5" s="25">
-        <f>bev_curves_data!E23*Markup</f>
-        <v>14243.393856449989</v>
+      <c r="H5" s="45" cm="1">
+        <f t="array" ref="H5">INDEX(bev_curves_data!$M$37:$R$37,,MATCH($D5,bev_curves_data!$M$31:$R$31,0))</f>
+        <v>-25.594561016888299</v>
+      </c>
+      <c r="I5" s="45" cm="1">
+        <f t="array" ref="I5">INDEX(bev_curves_data!$M$38:$R$38,,MATCH($D5,bev_curves_data!$M$31:$R$31,0))</f>
+        <v>76.618087250037277</v>
+      </c>
+      <c r="J5" s="45" cm="1">
+        <f t="array" ref="J5">INDEX(bev_curves_data!$D$37:$I$37,,MATCH($D5,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>-3766.3207185782558</v>
+      </c>
+      <c r="K5" s="45" cm="1">
+        <f t="array" ref="K5">INDEX(bev_curves_data!$D$38:$I$38,,MATCH($D5,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>8548.1465381185244</v>
       </c>
       <c r="L5" s="9">
-        <v>2015</v>
-      </c>
-      <c r="M5" s="43">
+        <v>2019</v>
+      </c>
+      <c r="M5" s="40">
         <v>0.9</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="40">
         <v>0.25</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="40">
         <v>0.1</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="40">
         <v>1</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="23">
         <f t="shared" si="0"/>
-        <v>0.19236008222206108</v>
-      </c>
-      <c r="R5" s="25">
+        <v>0.1915452181250932</v>
+      </c>
+      <c r="R5" s="22">
         <f t="shared" si="2"/>
-        <v>185.11369006392098</v>
-      </c>
-      <c r="S5" s="25">
+        <v>111.56825816105668</v>
+      </c>
+      <c r="S5" s="22">
         <f t="shared" si="3"/>
-        <v>192.44500710026455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="str">
+        <v>109.02059204621612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="str">
         <f t="shared" si="1"/>
         <v>bev_300_MPW_HRL</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <f>bev_curves_data!C24</f>
         <v>300</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>58</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>4454</v>
       </c>
-      <c r="H6" s="12">
-        <f>INDEX(bev_curves_data!$Q$14:$V$14,,MATCH($D6,bev_curves_data!$Q$1:$V$1,0))</f>
-        <v>-65.685676475795191</v>
-      </c>
-      <c r="I6" s="12">
-        <f>INDEX(bev_curves_data!$Q$15:$V$15,,MATCH($D6,bev_curves_data!$Q$1:$V$1,0))</f>
-        <v>92.526292490725154</v>
-      </c>
-      <c r="J6" s="25">
-        <f>bev_curves_data!D24*Markup</f>
-        <v>-9467.2734917450307</v>
-      </c>
-      <c r="K6" s="25">
-        <f>bev_curves_data!E24*Markup</f>
-        <v>17367.566241216802</v>
+      <c r="H6" s="45" cm="1">
+        <f t="array" ref="H6">INDEX(bev_curves_data!$M$37:$R$37,,MATCH($D6,bev_curves_data!$M$31:$R$31,0))</f>
+        <v>-30.741258993748659</v>
+      </c>
+      <c r="I6" s="45" cm="1">
+        <f t="array" ref="I6">INDEX(bev_curves_data!$M$38:$R$38,,MATCH($D6,bev_curves_data!$M$31:$R$31,0))</f>
+        <v>92.23566087802449</v>
+      </c>
+      <c r="J6" s="45" cm="1">
+        <f t="array" ref="J6">INDEX(bev_curves_data!$D$37:$I$37,,MATCH($D6,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>-2437.9820613806437</v>
+      </c>
+      <c r="K6" s="45" cm="1">
+        <f t="array" ref="K6">INDEX(bev_curves_data!$D$38:$I$38,,MATCH($D6,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>9817.8288936903355</v>
       </c>
       <c r="L6" s="9">
-        <v>2015</v>
-      </c>
-      <c r="M6" s="43">
+        <v>2019</v>
+      </c>
+      <c r="M6" s="40">
         <v>0.9</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="40">
         <v>0.25</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="40">
         <v>0.1</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="40">
         <v>1</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="23">
         <f t="shared" si="0"/>
-        <v>0.2313157312268129</v>
-      </c>
-      <c r="R6" s="25">
+        <v>0.23058915219506124</v>
+      </c>
+      <c r="R6" s="22">
         <f t="shared" si="2"/>
-        <v>187.70411926920912</v>
-      </c>
-      <c r="S6" s="25">
+        <v>106.44287469977321</v>
+      </c>
+      <c r="S6" s="22">
         <f t="shared" si="3"/>
-        <v>194.91467209746401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="str">
+        <v>108.38091866398645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="str">
         <f t="shared" si="1"/>
         <v>bev_300_Truck</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <f>bev_curves_data!C25</f>
         <v>300</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>60</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>5310</v>
       </c>
-      <c r="H7" s="12">
-        <f>INDEX(bev_curves_data!$Q$14:$V$14,,MATCH($D7,bev_curves_data!$Q$1:$V$1,0))</f>
-        <v>-80.220422822679083</v>
-      </c>
-      <c r="I7" s="12">
-        <f>INDEX(bev_curves_data!$Q$15:$V$15,,MATCH($D7,bev_curves_data!$Q$1:$V$1,0))</f>
-        <v>101.35899844109895</v>
-      </c>
-      <c r="J7" s="25">
-        <f>bev_curves_data!D25*Markup</f>
-        <v>-10853.979113246165</v>
-      </c>
-      <c r="K7" s="25">
-        <f>bev_curves_data!E25*Markup</f>
-        <v>18961.499140978616</v>
+      <c r="H7" s="45" cm="1">
+        <f t="array" ref="H7">INDEX(bev_curves_data!$M$37:$R$37,,MATCH($D7,bev_curves_data!$M$31:$R$31,0))</f>
+        <v>-34.041987144201435</v>
+      </c>
+      <c r="I7" s="45" cm="1">
+        <f t="array" ref="I7">INDEX(bev_curves_data!$M$38:$R$38,,MATCH($D7,bev_curves_data!$M$31:$R$31,0))</f>
+        <v>100.81700213237262</v>
+      </c>
+      <c r="J7" s="45" cm="1">
+        <f t="array" ref="J7">INDEX(bev_curves_data!$D$37:$I$37,,MATCH($D7,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>-4418.2971385683086</v>
+      </c>
+      <c r="K7" s="45" cm="1">
+        <f t="array" ref="K7">INDEX(bev_curves_data!$D$38:$I$38,,MATCH($D7,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>10756.237698411596</v>
       </c>
       <c r="L7" s="9">
-        <v>2015</v>
-      </c>
-      <c r="M7" s="43">
+        <v>2019</v>
+      </c>
+      <c r="M7" s="40">
         <v>0.9</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="40">
         <v>0.25</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="40">
         <v>0.1</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="40">
         <v>1</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="23">
         <f t="shared" si="0"/>
-        <v>0.25339749610274737</v>
-      </c>
-      <c r="R7" s="25">
+        <v>0.25204250533093153</v>
+      </c>
+      <c r="R7" s="22">
         <f t="shared" si="2"/>
-        <v>187.07267665038535</v>
-      </c>
-      <c r="S7" s="25">
+        <v>106.69071159533853</v>
+      </c>
+      <c r="S7" s="22">
         <f t="shared" si="3"/>
-        <v>196.80853622641891</v>
-      </c>
-    </row>
+        <v>105.01781514396816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C9" s="23"/>
-      <c r="D9" s="14"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="13"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="24"/>
-      <c r="E10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="38"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="21"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="24"/>
-      <c r="E11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="38"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="21"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="24"/>
-      <c r="E12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="38"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="21"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="24"/>
-      <c r="E13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="38"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="21"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="38"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="38"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="38"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="38"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="38"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="24"/>
-      <c r="E20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="38"/>
-    </row>
-    <row r="21" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="24"/>
-      <c r="E21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="38"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="35"/>
+    </row>
+    <row r="20" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="21"/>
+      <c r="E20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="35"/>
+    </row>
+    <row r="21" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="21"/>
+      <c r="E21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="35"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="38"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="35"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="38"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="38"/>
+      <c r="C24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="35"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="38"/>
+      <c r="C25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="35"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="38"/>
+      <c r="C26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="35"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="38"/>
+      <c r="C27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="35"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="38"/>
+      <c r="C28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4973,1266 +5015,1645 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F787BE-7CDC-4D53-B66A-224AC26D0702}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37:R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="19" customWidth="1"/>
+    <col min="3" max="3" width="6" style="17" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="19" t="s">
+    <row r="1" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F1" s="17">
         <v>0.05</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="17">
         <v>0.1</v>
       </c>
-      <c r="H1" s="19">
+      <c r="H1" s="17">
         <v>0.15</v>
       </c>
-      <c r="I1" s="19">
+      <c r="I1" s="17">
         <v>0.2</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="13" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16">
+      <c r="C2" s="15"/>
+      <c r="D2" s="14">
         <v>-2576.7620840996824</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>5602.377214821332</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="19">
         <v>200</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="P2" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="24">
+      <c r="P2" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="21">
         <v>40.868388760951277</v>
       </c>
-      <c r="R2" s="24">
+      <c r="R2" s="21">
         <v>45.183587655869438</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="21">
         <v>47.980695220024501</v>
       </c>
-      <c r="T2" s="24">
+      <c r="T2" s="21">
         <v>51.979221655924036</v>
       </c>
-      <c r="U2" s="24">
+      <c r="U2" s="21">
         <v>62.779386923784088</v>
       </c>
-      <c r="V2" s="24">
+      <c r="V2" s="21">
         <v>69.219987721658612</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="16">
+      <c r="C3" s="15"/>
+      <c r="D3" s="14">
         <v>-1805.4969687178307</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>5931.3861999282308</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="N3" s="22">
+      <c r="F3" s="17"/>
+      <c r="N3" s="19">
         <v>200</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="19">
         <v>0.02</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="21">
         <v>40.358260247890946</v>
       </c>
-      <c r="R3" s="24">
+      <c r="R3" s="21">
         <v>44.502332512123068</v>
       </c>
-      <c r="S3" s="24">
+      <c r="S3" s="21">
         <v>47.18050977735745</v>
       </c>
-      <c r="T3" s="24">
+      <c r="T3" s="21">
         <v>50.99829954512586</v>
       </c>
-      <c r="U3" s="24">
+      <c r="U3" s="21">
         <v>61.2540277926933</v>
       </c>
-      <c r="V3" s="24">
+      <c r="V3" s="21">
         <v>66.858403643459866</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16">
+      <c r="C4" s="15"/>
+      <c r="D4" s="14">
         <v>-2128.2305061722441</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>6173.2915385164506</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="N4" s="22">
+      <c r="F4" s="17"/>
+      <c r="N4" s="19">
         <v>200</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="19">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="21">
         <v>39.002539681025908</v>
       </c>
-      <c r="R4" s="24">
+      <c r="R4" s="21">
         <v>42.704531417461624</v>
       </c>
-      <c r="S4" s="24">
+      <c r="S4" s="21">
         <v>45.077650760577015</v>
       </c>
-      <c r="T4" s="24">
+      <c r="T4" s="21">
         <v>48.435605952301401</v>
       </c>
-      <c r="U4" s="24">
+      <c r="U4" s="21">
         <v>57.324202987544808</v>
       </c>
-      <c r="V4" s="24">
+      <c r="V4" s="21">
         <v>62.107868498937762</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16">
+      <c r="C5" s="15"/>
+      <c r="D5" s="14">
         <v>-2584.0465853396113</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>6515.8796928176971</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="N5" s="22">
+      <c r="F5" s="17"/>
+      <c r="N5" s="19">
         <v>200</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="19">
         <v>0.1</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="21">
         <v>38.408194167629759</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="21">
         <v>41.922174247111649</v>
       </c>
-      <c r="S5" s="24">
+      <c r="S5" s="21">
         <v>44.166586250893694</v>
       </c>
-      <c r="T5" s="24">
+      <c r="T5" s="21">
         <v>47.332184294414724</v>
       </c>
-      <c r="U5" s="24">
+      <c r="U5" s="21">
         <v>55.65724599020178</v>
       </c>
-      <c r="V5" s="24">
+      <c r="V5" s="21">
         <v>60.107594658208214</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16">
+      <c r="C6" s="15"/>
+      <c r="D6" s="14">
         <v>-4322.4925016248253</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>7516.1160803168368</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="N6" s="22">
+      <c r="F6" s="17"/>
+      <c r="N6" s="19">
         <v>200</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="19">
         <v>0.2</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="21">
         <v>37.666235307102482</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="21">
         <v>41.198423542558317</v>
       </c>
-      <c r="S6" s="24">
+      <c r="S6" s="21">
         <v>43.251936511300734</v>
       </c>
-      <c r="T6" s="24">
+      <c r="T6" s="21">
         <v>46.200525810063588</v>
       </c>
-      <c r="U6" s="24">
+      <c r="U6" s="21">
         <v>54.108883136233871</v>
       </c>
-      <c r="V6" s="24">
+      <c r="V6" s="21">
         <v>58.444762271426534</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16">
+      <c r="C7" s="15"/>
+      <c r="D7" s="14">
         <v>-4993.8876682975106</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>8052.2784345309319</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="N7" s="22">
+      <c r="F7" s="17"/>
+      <c r="N7" s="19">
         <v>300</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="P7" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="24">
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="21">
         <f>$N7/$N2*Q2</f>
         <v>61.302583141426915</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="21">
         <f t="shared" ref="R7:V7" si="0">$N7/$N2*R2</f>
         <v>67.775381483804154</v>
       </c>
-      <c r="S7" s="24">
+      <c r="S7" s="21">
         <f t="shared" si="0"/>
         <v>71.971042830036751</v>
       </c>
-      <c r="T7" s="24">
+      <c r="T7" s="21">
         <f t="shared" si="0"/>
         <v>77.968832483886047</v>
       </c>
-      <c r="U7" s="24">
+      <c r="U7" s="21">
         <f t="shared" si="0"/>
         <v>94.169080385676125</v>
       </c>
-      <c r="V7" s="24">
+      <c r="V7" s="21">
         <f t="shared" si="0"/>
         <v>103.82998158248792</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16">
+      <c r="C8" s="15"/>
+      <c r="D8" s="14">
         <v>55.415168632696194</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>-770.73819080787621</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="N8" s="22">
+      <c r="F8" s="17"/>
+      <c r="N8" s="19">
         <v>300</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="19">
         <v>0.02</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="21">
         <f t="shared" ref="Q8:V11" si="1">$N8/$N3*Q3</f>
         <v>60.537390371836423</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="21">
         <f t="shared" si="1"/>
         <v>66.753498768184599</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="21">
         <f t="shared" si="1"/>
         <v>70.770764666036172</v>
       </c>
-      <c r="T8" s="24">
+      <c r="T8" s="21">
         <f t="shared" si="1"/>
         <v>76.49744931768879</v>
       </c>
-      <c r="U8" s="24">
+      <c r="U8" s="21">
         <f t="shared" si="1"/>
         <v>91.881041689039947</v>
       </c>
-      <c r="V8" s="24">
+      <c r="V8" s="21">
         <f t="shared" si="1"/>
         <v>100.2876054651898</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16">
+      <c r="C9" s="15"/>
+      <c r="D9" s="14">
         <v>63.895783462096851</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>-583.56283249818694</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="N9" s="22">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="N9" s="19">
         <v>300</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="19">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="21">
         <f t="shared" si="1"/>
         <v>58.503809521538862</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="21">
         <f t="shared" si="1"/>
         <v>64.056797126192436</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="21">
         <f t="shared" si="1"/>
         <v>67.616476140865529</v>
       </c>
-      <c r="T9" s="24">
+      <c r="T9" s="21">
         <f t="shared" si="1"/>
         <v>72.653408928452109</v>
       </c>
-      <c r="U9" s="24">
+      <c r="U9" s="21">
         <f t="shared" si="1"/>
         <v>85.986304481317205</v>
       </c>
-      <c r="V9" s="24">
+      <c r="V9" s="21">
         <f t="shared" si="1"/>
         <v>93.161802748406643</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16">
+      <c r="C10" s="15"/>
+      <c r="D10" s="14">
         <v>78.233216925994299</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>-377.00917556478117</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="N10" s="22">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="N10" s="19">
         <v>300</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="19">
         <v>0.1</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="21">
         <f t="shared" si="1"/>
         <v>57.612291251444638</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="21">
         <f t="shared" si="1"/>
         <v>62.883261370667469</v>
       </c>
-      <c r="S10" s="24">
+      <c r="S10" s="21">
         <f t="shared" si="1"/>
         <v>66.249879376340544</v>
       </c>
-      <c r="T10" s="24">
+      <c r="T10" s="21">
         <f t="shared" si="1"/>
         <v>70.998276441622082</v>
       </c>
-      <c r="U10" s="24">
+      <c r="U10" s="21">
         <f t="shared" si="1"/>
         <v>83.485868985302673</v>
       </c>
-      <c r="V10" s="24">
+      <c r="V10" s="21">
         <f t="shared" si="1"/>
         <v>90.161391987312328</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16">
+      <c r="C11" s="15"/>
+      <c r="D11" s="14">
         <v>91.253311840220164</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>-185.48242328436888</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="N11" s="22">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="N11" s="19">
         <v>300</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P11" s="19">
         <v>0.2</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="21">
         <f t="shared" si="1"/>
         <v>56.499352960653724</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="21">
         <f t="shared" si="1"/>
         <v>61.797635313837475</v>
       </c>
-      <c r="S11" s="24">
+      <c r="S11" s="21">
         <f t="shared" si="1"/>
         <v>64.877904766951104</v>
       </c>
-      <c r="T11" s="24">
+      <c r="T11" s="21">
         <f t="shared" si="1"/>
         <v>69.300788715095379</v>
       </c>
-      <c r="U11" s="24">
+      <c r="U11" s="21">
         <f t="shared" si="1"/>
         <v>81.163324704350799</v>
       </c>
-      <c r="V11" s="24">
+      <c r="V11" s="21">
         <f t="shared" si="1"/>
         <v>87.667143407139804</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="16">
+      <c r="C12" s="15"/>
+      <c r="D12" s="14">
         <v>114.81539418258987</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>202.80224911285262</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="N12" s="22">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="N12" s="19">
         <v>200</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="P12" s="22" t="s">
+      <c r="P12" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="21">
         <f>SLOPE(Q$2:Q$6,$P2:$P6)</f>
         <v>-16.179036091264908</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="21">
         <f t="shared" ref="R12:V12" si="2">SLOPE(R$2:R$6,$P2:$P6)</f>
         <v>-20.168584240930389</v>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="21">
         <f t="shared" si="2"/>
         <v>-23.91027289090156</v>
       </c>
-      <c r="T12" s="24">
+      <c r="T12" s="21">
         <f t="shared" si="2"/>
         <v>-29.200689548316952</v>
       </c>
-      <c r="U12" s="24">
+      <c r="U12" s="21">
         <f t="shared" si="2"/>
         <v>-43.790450983863458</v>
       </c>
-      <c r="V12" s="24">
+      <c r="V12" s="21">
         <f t="shared" si="2"/>
         <v>-53.480281881786084</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16">
+      <c r="C13" s="15"/>
+      <c r="D13" s="14">
         <v>169.89695129921509</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>375.05451701512038</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="N13" s="22">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="N13" s="19">
         <v>200</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="P13" s="22" t="s">
+      <c r="P13" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="21">
         <f>INTERCEPT(Q$2:Q$6,$P2:$P6)</f>
         <v>40.538867484130002</v>
       </c>
-      <c r="R13" s="24">
+      <c r="R13" s="21">
         <f t="shared" ref="R13:V13" si="3">INTERCEPT(R$2:R$6,$P2:$P6)</f>
         <v>44.69552803005832</v>
       </c>
-      <c r="S13" s="24">
+      <c r="S13" s="21">
         <f t="shared" si="3"/>
         <v>47.4203872624119</v>
       </c>
-      <c r="T13" s="24">
+      <c r="T13" s="21">
         <f t="shared" si="3"/>
         <v>51.296021925882968</v>
       </c>
-      <c r="U13" s="24">
+      <c r="U13" s="21">
         <f t="shared" si="3"/>
         <v>61.684194993816782</v>
       </c>
-      <c r="V13" s="24">
+      <c r="V13" s="21">
         <f t="shared" si="3"/>
         <v>67.572665627399303</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>281</v>
       </c>
       <c r="B14" t="str">
         <f>B2</f>
         <v>CWC1</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="17">
         <v>200</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="18">
         <f>D2+D8</f>
         <v>-2521.346915466986</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="18">
         <f>E2+E8</f>
         <v>4831.639024013456</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="16">
         <f>$D14*F$1+$E14</f>
         <v>4705.5716782401068</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="16">
         <f t="shared" ref="G14:I14" si="4">$D14*G$1+$E14</f>
         <v>4579.5043324667577</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="16">
         <f t="shared" si="4"/>
         <v>4453.4369866934085</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="16">
         <f t="shared" si="4"/>
         <v>4327.3696409200584</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="19">
         <v>300</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="P14" s="22" t="s">
+      <c r="P14" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="43">
         <f>SLOPE(Q$7:Q$11,$P7:$P11)</f>
         <v>-24.268554136897372</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="43">
         <f t="shared" ref="R14:V14" si="5">SLOPE(R$7:R$11,$P7:$P11)</f>
         <v>-30.252876361395565</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="43">
         <f t="shared" si="5"/>
         <v>-35.865409336352315</v>
       </c>
-      <c r="T14" s="21">
+      <c r="T14" s="43">
         <f t="shared" si="5"/>
         <v>-43.801034322475424</v>
       </c>
-      <c r="U14" s="21">
+      <c r="U14" s="43">
         <f t="shared" si="5"/>
         <v>-65.685676475795191</v>
       </c>
-      <c r="V14" s="21">
+      <c r="V14" s="43">
         <f t="shared" si="5"/>
         <v>-80.220422822679083</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B15" s="19" t="str">
+      <c r="B15" s="17" t="str">
         <f t="shared" ref="B15:B25" si="6">B3</f>
         <v>CWC2</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="17">
         <v>200</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="18">
         <f t="shared" ref="D15:E15" si="7">D3+D9</f>
         <v>-1741.6011852557338</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="18">
         <f t="shared" si="7"/>
         <v>5347.8233674300436</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="16">
         <f t="shared" ref="F15:I25" si="8">$D15*F$1+$E15</f>
         <v>5260.7433081672571</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="16">
         <f t="shared" si="8"/>
         <v>5173.6632489044705</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="16">
         <f t="shared" si="8"/>
         <v>5086.5831896416839</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="16">
         <f t="shared" si="8"/>
         <v>4999.5031303788965</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="19">
         <v>300</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="P15" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="43">
         <f>INTERCEPT(Q$7:Q$11,$P7:$P11)</f>
         <v>60.808301226195006</v>
       </c>
-      <c r="R15" s="21">
+      <c r="R15" s="43">
         <f t="shared" ref="R15:V15" si="9">INTERCEPT(R$7:R$11,$P7:$P11)</f>
         <v>67.043292045087483</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="43">
         <f t="shared" si="9"/>
         <v>71.130580893617847</v>
       </c>
-      <c r="T15" s="21">
+      <c r="T15" s="43">
         <f t="shared" si="9"/>
         <v>76.944032888824438</v>
       </c>
-      <c r="U15" s="21">
+      <c r="U15" s="43">
         <f t="shared" si="9"/>
         <v>92.526292490725154</v>
       </c>
-      <c r="V15" s="21">
+      <c r="V15" s="43">
         <f t="shared" si="9"/>
         <v>101.35899844109895</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B16" s="19" t="str">
+      <c r="B16" s="17" t="str">
         <f t="shared" si="6"/>
         <v>CWC3</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>200</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="18">
         <f t="shared" ref="D16:E16" si="10">D4+D10</f>
         <v>-2049.9972892462497</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="18">
         <f t="shared" si="10"/>
         <v>5796.2823629516697</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="16">
         <f t="shared" si="8"/>
         <v>5693.7824984893568</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="16">
         <f t="shared" si="8"/>
         <v>5591.2826340270449</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="16">
         <f t="shared" si="8"/>
         <v>5488.782769564732</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="16">
         <f t="shared" si="8"/>
         <v>5386.28290510242</v>
       </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="24">
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="21">
         <f>Q$14*$P7+Q$15</f>
         <v>60.808301226195006</v>
       </c>
-      <c r="R16" s="38">
+      <c r="R16" s="35">
         <f t="shared" ref="R16:V16" si="11">R$14*$P7+R$15</f>
         <v>67.043292045087483</v>
       </c>
-      <c r="S16" s="38">
+      <c r="S16" s="35">
         <f t="shared" si="11"/>
         <v>71.130580893617847</v>
       </c>
-      <c r="T16" s="38">
+      <c r="T16" s="35">
         <f t="shared" si="11"/>
         <v>76.944032888824438</v>
       </c>
-      <c r="U16" s="38">
+      <c r="U16" s="35">
         <f t="shared" si="11"/>
         <v>92.526292490725154</v>
       </c>
-      <c r="V16" s="38">
+      <c r="V16" s="35">
         <f t="shared" si="11"/>
         <v>101.35899844109895</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B17" s="19" t="str">
+      <c r="B17" s="17" t="str">
         <f t="shared" si="6"/>
         <v>CWC4</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>200</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="18">
         <f t="shared" ref="D17:E17" si="12">D5+D11</f>
         <v>-2492.793273499391</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="18">
         <f t="shared" si="12"/>
         <v>6330.3972695333287</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="16">
         <f t="shared" si="8"/>
         <v>6205.7576058583591</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="16">
         <f t="shared" si="8"/>
         <v>6081.1179421833895</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="16">
         <f t="shared" si="8"/>
         <v>5956.4782785084199</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="16">
         <f t="shared" si="8"/>
         <v>5831.8386148334503</v>
       </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="38">
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="35">
         <f t="shared" ref="Q17:V20" si="13">Q$14*$P8+Q$15</f>
         <v>60.322930143457057</v>
       </c>
-      <c r="R17" s="38">
+      <c r="R17" s="35">
         <f t="shared" si="13"/>
         <v>66.43823451785957</v>
       </c>
-      <c r="S17" s="38">
+      <c r="S17" s="35">
         <f t="shared" si="13"/>
         <v>70.413272706890794</v>
       </c>
-      <c r="T17" s="38">
+      <c r="T17" s="35">
         <f t="shared" si="13"/>
         <v>76.068012202374931</v>
       </c>
-      <c r="U17" s="38">
+      <c r="U17" s="35">
         <f t="shared" si="13"/>
         <v>91.212578961209246</v>
       </c>
-      <c r="V17" s="38">
+      <c r="V17" s="35">
         <f t="shared" si="13"/>
         <v>99.754589984645364</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B18" s="19" t="str">
+      <c r="B18" s="17" t="str">
         <f t="shared" si="6"/>
         <v>CWC5</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="17">
         <v>200</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="18">
         <f t="shared" ref="D18:E18" si="14">D6+D12</f>
         <v>-4207.6771074422359</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="18">
         <f t="shared" si="14"/>
         <v>7718.918329429689</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="16">
         <f t="shared" si="8"/>
         <v>7508.5344740575774</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="16">
         <f t="shared" si="8"/>
         <v>7298.1506186854658</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="16">
         <f t="shared" si="8"/>
         <v>7087.7667633133533</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="16">
         <f t="shared" si="8"/>
         <v>6877.3829079412417</v>
       </c>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="38">
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="35">
         <f t="shared" si="13"/>
         <v>58.988159665927704</v>
       </c>
-      <c r="R18" s="38">
+      <c r="R18" s="35">
         <f t="shared" si="13"/>
         <v>64.774326317982812</v>
       </c>
-      <c r="S18" s="38">
+      <c r="S18" s="35">
         <f t="shared" si="13"/>
         <v>68.440675193391428</v>
       </c>
-      <c r="T18" s="38">
+      <c r="T18" s="35">
         <f t="shared" si="13"/>
         <v>73.658955314638774</v>
       </c>
-      <c r="U18" s="38">
+      <c r="U18" s="35">
         <f t="shared" si="13"/>
         <v>87.599866755040509</v>
       </c>
-      <c r="V18" s="38">
+      <c r="V18" s="35">
         <f t="shared" si="13"/>
         <v>95.342466729398012</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B19" s="19" t="str">
+      <c r="B19" s="17" t="str">
         <f t="shared" si="6"/>
         <v>CWC6</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="17">
         <v>200</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="18">
         <f t="shared" ref="D19:E19" si="15">D7+D13</f>
         <v>-4823.9907169982953</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="18">
         <f t="shared" si="15"/>
         <v>8427.3329515460518</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="16">
         <f t="shared" si="8"/>
         <v>8186.1334156961375</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="16">
         <f t="shared" si="8"/>
         <v>7944.9338798462222</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="16">
         <f t="shared" si="8"/>
         <v>7703.7343439963079</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="16">
         <f t="shared" si="8"/>
         <v>7462.5348081463926</v>
       </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="38">
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="35">
         <f t="shared" si="13"/>
         <v>58.38144581250527</v>
       </c>
-      <c r="R19" s="38">
+      <c r="R19" s="35">
         <f t="shared" si="13"/>
         <v>64.018004408947931</v>
       </c>
-      <c r="S19" s="38">
+      <c r="S19" s="35">
         <f t="shared" si="13"/>
         <v>67.544039959982612</v>
       </c>
-      <c r="T19" s="38">
+      <c r="T19" s="35">
         <f t="shared" si="13"/>
         <v>72.563929456576901</v>
       </c>
-      <c r="U19" s="38">
+      <c r="U19" s="35">
         <f t="shared" si="13"/>
         <v>85.957724843145641</v>
       </c>
-      <c r="V19" s="38">
+      <c r="V19" s="35">
         <f t="shared" si="13"/>
         <v>93.336956158831043</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B20" s="19" t="str">
+      <c r="B20" s="17" t="str">
         <f>B8</f>
         <v>CWC1</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="17">
         <v>300</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="42">
         <f>$C20/$C14*D14</f>
         <v>-3782.0203732004793</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="42">
         <f>$C20/$C14*E14</f>
         <v>7247.4585360201836</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="16">
         <f t="shared" si="8"/>
         <v>7058.3575173601594</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="16">
         <f t="shared" si="8"/>
         <v>6869.256498700136</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="16">
         <f t="shared" si="8"/>
         <v>6680.1554800401118</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="16">
         <f t="shared" si="8"/>
         <v>6491.0544613800876</v>
       </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="38">
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="35">
         <f t="shared" si="13"/>
         <v>55.954590398815533</v>
       </c>
-      <c r="R20" s="38">
+      <c r="R20" s="35">
         <f t="shared" si="13"/>
         <v>60.992716772808372</v>
       </c>
-      <c r="S20" s="38">
+      <c r="S20" s="35">
         <f t="shared" si="13"/>
         <v>63.957499026347385</v>
       </c>
-      <c r="T20" s="38">
+      <c r="T20" s="35">
         <f t="shared" si="13"/>
         <v>68.183826024329349</v>
       </c>
-      <c r="U20" s="38">
+      <c r="U20" s="35">
         <f t="shared" si="13"/>
         <v>79.389157195566114</v>
       </c>
-      <c r="V20" s="38">
+      <c r="V20" s="35">
         <f t="shared" si="13"/>
         <v>85.314913876563125</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B21" s="19" t="str">
+      <c r="B21" s="17" t="str">
         <f t="shared" si="6"/>
         <v>CWC2</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="17">
         <v>300</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="42">
         <f t="shared" ref="D21:E21" si="16">$C21/$C15*D15</f>
         <v>-2612.4017778836005</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="42">
         <f t="shared" si="16"/>
         <v>8021.7350511450659</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="16">
         <f t="shared" si="8"/>
         <v>7891.1149622508856</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="16">
         <f t="shared" si="8"/>
         <v>7760.4948733567062</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="16">
         <f t="shared" si="8"/>
         <v>7629.8747844625259</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="16">
         <f t="shared" si="8"/>
         <v>7499.2546955683456</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B22" s="19" t="str">
+      <c r="B22" s="17" t="str">
         <f t="shared" si="6"/>
         <v>CWC3</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="17">
         <v>300</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="42">
         <f t="shared" ref="D22:E22" si="17">$C22/$C16*D16</f>
         <v>-3074.9959338693743</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="42">
         <f t="shared" si="17"/>
         <v>8694.4235444275037</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="16">
         <f t="shared" si="8"/>
         <v>8540.6737477340357</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="16">
         <f t="shared" si="8"/>
         <v>8386.923951040566</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="16">
         <f t="shared" si="8"/>
         <v>8233.174154347098</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="16">
         <f t="shared" si="8"/>
         <v>8079.4243576536282</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="19" t="str">
+      <c r="B23" s="17" t="str">
         <f t="shared" si="6"/>
         <v>CWC4</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="17">
         <v>300</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="42">
         <f t="shared" ref="D23:E23" si="18">$C23/$C17*D17</f>
         <v>-3739.1899102490866</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="42">
         <f t="shared" si="18"/>
         <v>9495.595904299993</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <f t="shared" si="8"/>
         <v>9308.636408787539</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="16">
         <f t="shared" si="8"/>
         <v>9121.6769132750851</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="16">
         <f t="shared" si="8"/>
         <v>8934.7174177626293</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="16">
         <f t="shared" si="8"/>
         <v>8747.7579222501754</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B24" s="19" t="str">
+      <c r="B24" s="17" t="str">
         <f t="shared" si="6"/>
         <v>CWC5</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="17">
         <v>300</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="42">
         <f t="shared" ref="D24:E24" si="19">$C24/$C18*D18</f>
         <v>-6311.5156611633538</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="42">
         <f t="shared" si="19"/>
         <v>11578.377494144534</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <f t="shared" si="8"/>
         <v>11262.801711086366</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="16">
         <f t="shared" si="8"/>
         <v>10947.225928028198</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="16">
         <f t="shared" si="8"/>
         <v>10631.65014497003</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="16">
         <f t="shared" si="8"/>
         <v>10316.074361911862</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B25" s="19" t="str">
+      <c r="B25" s="17" t="str">
         <f t="shared" si="6"/>
         <v>CWC6</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="17">
         <v>300</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="42">
         <f t="shared" ref="D25:E25" si="20">$C25/$C19*D19</f>
         <v>-7235.9860754974434</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="42">
         <f t="shared" si="20"/>
         <v>12640.999427319079</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="16">
         <f t="shared" si="8"/>
         <v>12279.200123544206</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="16">
         <f t="shared" si="8"/>
         <v>11917.400819769335</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="16">
         <f t="shared" si="8"/>
         <v>11555.601515994462</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="16">
         <f t="shared" si="8"/>
         <v>11193.802212219591</v>
       </c>
     </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C30" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="L30" s="34" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>262</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="N31" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="O31" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="P31" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q31" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="R31" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C32" s="17">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>6986.7903156711445</v>
+      </c>
+      <c r="E32">
+        <v>7558.3654190903089</v>
+      </c>
+      <c r="F32">
+        <v>7952.5935020381576</v>
+      </c>
+      <c r="G32">
+        <v>8664.7752526713557</v>
+      </c>
+      <c r="H32">
+        <v>9970.6230202013594</v>
+      </c>
+      <c r="I32">
+        <v>10985.367179559473</v>
+      </c>
+      <c r="L32" s="34">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>61.302528341787323</v>
+      </c>
+      <c r="N32">
+        <v>67.775194005951221</v>
+      </c>
+      <c r="O32">
+        <v>71.970961080436737</v>
+      </c>
+      <c r="P32">
+        <v>77.968544352784122</v>
+      </c>
+      <c r="Q32">
+        <v>94.169058891645932</v>
+      </c>
+      <c r="R32">
+        <v>103.07282791177303</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C33" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="D33">
+        <v>6843.108841416396</v>
+      </c>
+      <c r="E33">
+        <v>7477.0984324135088</v>
+      </c>
+      <c r="F33">
+        <v>7857.531065717506</v>
+      </c>
+      <c r="G33">
+        <v>8545.1633937679126</v>
+      </c>
+      <c r="H33">
+        <v>9790.3593283403497</v>
+      </c>
+      <c r="I33">
+        <v>10763.31452153694</v>
+      </c>
+      <c r="L33" s="34">
+        <v>0.02</v>
+      </c>
+      <c r="M33">
+        <v>60.537388583682542</v>
+      </c>
+      <c r="N33">
+        <v>66.753499830227014</v>
+      </c>
+      <c r="O33">
+        <v>70.770764666036172</v>
+      </c>
+      <c r="P33">
+        <v>76.497450849801709</v>
+      </c>
+      <c r="Q33">
+        <v>91.881041688994586</v>
+      </c>
+      <c r="R33">
+        <v>100.2876054651894</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C34" s="17">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D34">
+        <v>6701.3020418562</v>
+      </c>
+      <c r="E34">
+        <v>7285.3648671357159</v>
+      </c>
+      <c r="F34">
+        <v>7608.4347912342137</v>
+      </c>
+      <c r="G34">
+        <v>8091.7847200854958</v>
+      </c>
+      <c r="H34">
+        <v>9455.0848118075046</v>
+      </c>
+      <c r="I34">
+        <v>10095.794148411251</v>
+      </c>
+      <c r="L34" s="34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M34">
+        <v>58.7946431968398</v>
+      </c>
+      <c r="N34">
+        <v>64.347306962647608</v>
+      </c>
+      <c r="O34">
+        <v>67.813730252868439</v>
+      </c>
+      <c r="P34">
+        <v>72.928726031037726</v>
+      </c>
+      <c r="Q34">
+        <v>87.661940362931901</v>
+      </c>
+      <c r="R34">
+        <v>95.759495559138685</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C35" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D35">
+        <v>6701.2450453822303</v>
+      </c>
+      <c r="E35">
+        <v>7250.3091458590716</v>
+      </c>
+      <c r="F35">
+        <v>7558.4830062005722</v>
+      </c>
+      <c r="G35">
+        <v>8025.398856291893</v>
+      </c>
+      <c r="H35">
+        <v>9454.9895820496076</v>
+      </c>
+      <c r="I35">
+        <v>10095.691124404575</v>
+      </c>
+      <c r="L35" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="M35">
+        <v>58.794471017049482</v>
+      </c>
+      <c r="N35">
+        <v>64.286161033067287</v>
+      </c>
+      <c r="O35">
+        <v>67.776673200479891</v>
+      </c>
+      <c r="P35">
+        <v>72.865669695086993</v>
+      </c>
+      <c r="Q35">
+        <v>87.661525781087377</v>
+      </c>
+      <c r="R35">
+        <v>95.759001244663736</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C36" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="D36">
+        <v>6701.3020418562046</v>
+      </c>
+      <c r="E36">
+        <v>7250.3612855325709</v>
+      </c>
+      <c r="F36">
+        <v>7558.552531119647</v>
+      </c>
+      <c r="G36">
+        <v>7925.9137839375526</v>
+      </c>
+      <c r="H36">
+        <v>9455.0848118075101</v>
+      </c>
+      <c r="I36">
+        <v>10095.794148411251</v>
+      </c>
+      <c r="L36" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="M36">
+        <v>58.7946431968398</v>
+      </c>
+      <c r="N36">
+        <v>64.286310216269911</v>
+      </c>
+      <c r="O36">
+        <v>67.776923208545185</v>
+      </c>
+      <c r="P36">
+        <v>72.720193719804982</v>
+      </c>
+      <c r="Q36">
+        <v>87.661940362931901</v>
+      </c>
+      <c r="R36">
+        <v>95.759495559138685</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C37" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D37" s="44">
+        <f>SLOPE( D$32:D$36,$C$32:$C$36)</f>
+        <v>-1245.8248078720785</v>
+      </c>
+      <c r="E37" s="44">
+        <f t="shared" ref="E37:I37" si="21">SLOPE( E$32:E$36,$C$32:$C$36)</f>
+        <v>-1525.0172230698106</v>
+      </c>
+      <c r="F37" s="44">
+        <f t="shared" si="21"/>
+        <v>-1973.0040011117987</v>
+      </c>
+      <c r="G37" s="44">
+        <f t="shared" si="21"/>
+        <v>-3766.3207185782558</v>
+      </c>
+      <c r="H37" s="44">
+        <f t="shared" si="21"/>
+        <v>-2437.9820613806437</v>
+      </c>
+      <c r="I37" s="44">
+        <f t="shared" si="21"/>
+        <v>-4418.2971385683086</v>
+      </c>
+      <c r="L37" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="M37" s="44">
+        <f>SLOPE( M$32:M$36,$L$32:$L$36)</f>
+        <v>-12.125242548355066</v>
+      </c>
+      <c r="N37" s="44">
+        <f t="shared" ref="N37:R37" si="22">SLOPE( N$32:N$36,$L$32:$L$36)</f>
+        <v>-16.97957801938189</v>
+      </c>
+      <c r="O37" s="44">
+        <f t="shared" si="22"/>
+        <v>-20.472123941098509</v>
+      </c>
+      <c r="P37" s="44">
+        <f t="shared" si="22"/>
+        <v>-25.594561016888299</v>
+      </c>
+      <c r="Q37" s="44">
+        <f t="shared" si="22"/>
+        <v>-30.741258993748659</v>
+      </c>
+      <c r="R37" s="44">
+        <f t="shared" si="22"/>
+        <v>-34.041987144201435</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C38" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D38" s="44">
+        <f>INTERCEPT( D$32:D$36,$C$32:$C$36)</f>
+        <v>6885.1698170583295</v>
+      </c>
+      <c r="E38" s="44">
+        <f t="shared" ref="E38:I38" si="23">INTERCEPT( E$32:E$36,$C$32:$C$36)</f>
+        <v>7484.7761906287496</v>
+      </c>
+      <c r="F38" s="44">
+        <f t="shared" si="23"/>
+        <v>7862.9862953498514</v>
+      </c>
+      <c r="G38" s="44">
+        <f t="shared" si="23"/>
+        <v>8548.1465381185244</v>
+      </c>
+      <c r="H38" s="44">
+        <f t="shared" si="23"/>
+        <v>9817.8288936903355</v>
+      </c>
+      <c r="I38" s="44">
+        <f t="shared" si="23"/>
+        <v>10756.237698411596</v>
+      </c>
+      <c r="L38" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="M38" s="44">
+        <f>INTERCEPT( M$32:M$36,$L$32:$L$36)</f>
+        <v>60.602629028559839</v>
+      </c>
+      <c r="N38" s="44">
+        <f t="shared" ref="N38:R38" si="24">INTERCEPT( N$32:N$36,$L$32:$L$36)</f>
+        <v>66.831081073163773</v>
+      </c>
+      <c r="O38" s="44">
+        <f t="shared" si="24"/>
+        <v>70.839108273020074</v>
+      </c>
+      <c r="P38" s="44">
+        <f t="shared" si="24"/>
+        <v>76.618087250037277</v>
+      </c>
+      <c r="Q38" s="44">
+        <f t="shared" si="24"/>
+        <v>92.23566087802449</v>
+      </c>
+      <c r="R38" s="44">
+        <f t="shared" si="24"/>
+        <v>100.81700213237262</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6874,85 +7295,85 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="8.88671875" style="37"/>
+    <col min="2" max="3" width="8.88671875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="29" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+      <c r="A2" s="27">
         <v>2020</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="27">
         <v>41</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="27">
         <v>56</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="28">
         <v>166</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="28">
         <v>226</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="32">
         <v>4.01</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="28">
         <v>1.9</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="28">
         <v>212</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="33">
         <v>337</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="33">
         <v>4.57</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="33">
         <v>24.6</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="27">
         <v>41</v>
       </c>
       <c r="M2">
@@ -6960,1232 +7381,1232 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
+      <c r="A3" s="27">
         <v>2021</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="27">
         <v>41</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="27">
         <v>56</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="30">
         <v>161.80000000000001</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="30">
         <v>220.9</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="36">
         <v>3.94</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="30">
         <v>0.3</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="30">
         <v>206.6</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="33">
         <v>329.7</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="33">
         <v>4.51</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="33">
         <v>21.7</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="27">
         <v>41</v>
       </c>
-      <c r="M3" s="37">
+      <c r="M3" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="30">
+      <c r="A4" s="27">
         <v>2022</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="27">
         <v>41</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="27">
         <v>56</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="30">
         <v>159.1</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="30">
         <v>217.3</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="36">
         <v>3.88</v>
       </c>
-      <c r="G4" s="33">
-        <v>0</v>
-      </c>
-      <c r="H4" s="33">
+      <c r="G4" s="30">
+        <v>0</v>
+      </c>
+      <c r="H4" s="30">
         <v>203.1</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="33">
         <v>324.39999999999998</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="33">
         <v>4.4400000000000004</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="33">
         <v>20.9</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="27">
         <v>41</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
+      <c r="A5" s="27">
         <v>2023</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="27">
         <v>41</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="27">
         <v>56</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="30">
         <v>156.4</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="30">
         <v>213.8</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="36">
         <v>3.83</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="30">
         <v>-0.5</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="30">
         <v>199.7</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="33">
         <v>319.2</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="33">
         <v>4.38</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="33">
         <v>20.2</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="27">
         <v>41</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
+      <c r="A6" s="27">
         <v>2024</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="27">
         <v>41</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="27">
         <v>56</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="30">
         <v>153.80000000000001</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="30">
         <v>210.3</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="36">
         <v>3.77</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="30">
         <v>-0.6</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="30">
         <v>196.3</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="33">
         <v>314</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="33">
         <v>4.3099999999999996</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="33">
         <v>19.5</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="27">
         <v>41</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
+      <c r="A7" s="27">
         <v>2025</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="27">
         <v>41</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="27">
         <v>56</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="30">
         <v>151.19999999999999</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="30">
         <v>206.9</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="36">
         <v>3.71</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="30">
         <v>-1</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="30">
         <v>193</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="33">
         <v>308.89999999999998</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="33">
         <v>4.25</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="33">
         <v>18.899999999999999</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="27">
         <v>41</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="27">
         <v>2026</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="27">
         <v>41</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="27">
         <v>56</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="30">
         <v>203.5</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="36">
         <v>3.65</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="30">
         <v>189.7</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="33">
         <v>4.18</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="33">
         <v>18.2</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="27">
         <v>41</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+      <c r="A9" s="27">
         <v>2027</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="27">
         <v>41</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="27">
         <v>56</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="30">
         <v>203.5</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="36">
         <v>3.65</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="30">
         <v>189.7</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="33">
         <v>4.18</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="33">
         <v>18.2</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="27">
         <v>41</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="A10" s="27">
         <v>2028</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="27">
         <v>41</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="27">
         <v>56</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="30">
         <v>203.5</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="36">
         <v>3.65</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="30">
         <v>189.7</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="33">
         <v>4.18</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="33">
         <v>18.2</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="27">
         <v>41</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+      <c r="A11" s="27">
         <v>2029</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="27">
         <v>41</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="27">
         <v>56</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="30">
         <v>203.5</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="36">
         <v>3.65</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="30">
         <v>189.7</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="33">
         <v>4.18</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="33">
         <v>18.2</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="27">
         <v>41</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="A12" s="27">
         <v>2030</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="27">
         <v>41</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="27">
         <v>56</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="30">
         <v>203.5</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="36">
         <v>3.65</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="30">
         <v>189.7</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="33">
         <v>4.18</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="33">
         <v>18.2</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="27">
         <v>41</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
+      <c r="A13" s="27">
         <v>2031</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="27">
         <v>41</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="27">
         <v>56</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="30">
         <v>203.5</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="36">
         <v>3.65</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="30">
         <v>189.7</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="33">
         <v>4.18</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="33">
         <v>18.2</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="27">
         <v>41</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="A14" s="27">
         <v>2032</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="27">
         <v>41</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="27">
         <v>56</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="30">
         <v>203.5</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="36">
         <v>3.65</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="30">
         <v>189.7</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="33">
         <v>4.18</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="33">
         <v>18.2</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="27">
         <v>41</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="30">
+      <c r="A15" s="27">
         <v>2033</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="27">
         <v>41</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="27">
         <v>56</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="30">
         <v>203.5</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="36">
         <v>3.65</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="30">
         <v>189.7</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="33">
         <v>4.18</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="33">
         <v>18.2</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="27">
         <v>41</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
+      <c r="A16" s="27">
         <v>2034</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="27">
         <v>41</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="27">
         <v>56</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="30">
         <v>203.5</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="36">
         <v>3.65</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="30">
         <v>189.7</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="33">
         <v>4.18</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="33">
         <v>18.2</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="27">
         <v>41</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="30">
+      <c r="A17" s="27">
         <v>2035</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="27">
         <v>41</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="27">
         <v>56</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="30">
         <v>203.5</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="36">
         <v>3.65</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="30">
         <v>189.7</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="33">
         <v>4.18</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="33">
         <v>18.2</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="27">
         <v>41</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
+      <c r="A18" s="27">
         <v>2036</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="27">
         <v>41</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="27">
         <v>56</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="30">
         <v>203.5</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="36">
         <v>3.65</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="30">
         <v>189.7</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="33">
         <v>4.18</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="33">
         <v>18.2</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="27">
         <v>41</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="30">
+      <c r="A19" s="27">
         <v>2037</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="27">
         <v>41</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="27">
         <v>56</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="30">
         <v>203.5</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="36">
         <v>3.65</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="30">
         <v>189.7</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="33">
         <v>4.18</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="33">
         <v>18.2</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="27">
         <v>41</v>
       </c>
-      <c r="M19" s="37">
+      <c r="M19" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
+      <c r="A20" s="27">
         <v>2038</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="27">
         <v>41</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="27">
         <v>56</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="30">
         <v>203.5</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="36">
         <v>3.65</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="30">
         <v>189.7</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="33">
         <v>4.18</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="33">
         <v>18.2</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="27">
         <v>41</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="30">
+      <c r="A21" s="27">
         <v>2039</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="27">
         <v>41</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="27">
         <v>56</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="30">
         <v>203.5</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="36">
         <v>3.65</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="30">
         <v>189.7</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="33">
         <v>4.18</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="33">
         <v>18.2</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="27">
         <v>41</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="30">
+      <c r="A22" s="27">
         <v>2040</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="27">
         <v>41</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="27">
         <v>56</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="30">
         <v>203.5</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="36">
         <v>3.65</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="30">
         <v>189.7</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="33">
         <v>4.18</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="33">
         <v>18.2</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="27">
         <v>41</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="30">
+      <c r="A23" s="27">
         <v>2041</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="27">
         <v>41</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="27">
         <v>56</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="30">
         <v>203.5</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="36">
         <v>3.65</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="30">
         <v>189.7</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="33">
         <v>4.18</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="33">
         <v>18.2</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="27">
         <v>41</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="30">
+      <c r="A24" s="27">
         <v>2042</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="27">
         <v>41</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="27">
         <v>56</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="30">
         <v>203.5</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="36">
         <v>3.65</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="30">
         <v>189.7</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="33">
         <v>4.18</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="33">
         <v>18.2</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L24" s="27">
         <v>41</v>
       </c>
-      <c r="M24" s="37">
+      <c r="M24" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="30">
+      <c r="A25" s="27">
         <v>2043</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="27">
         <v>41</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="27">
         <v>56</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="30">
         <v>203.5</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="36">
         <v>3.65</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="30">
         <v>189.7</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="33">
         <v>4.18</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="33">
         <v>18.2</v>
       </c>
-      <c r="L25" s="30">
+      <c r="L25" s="27">
         <v>41</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="30">
+      <c r="A26" s="27">
         <v>2044</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="27">
         <v>41</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="27">
         <v>56</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="30">
         <v>203.5</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="36">
         <v>3.65</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="30">
         <v>189.7</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="33">
         <v>4.18</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26" s="33">
         <v>18.2</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="27">
         <v>41</v>
       </c>
-      <c r="M26" s="37">
+      <c r="M26" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="30">
+      <c r="A27" s="27">
         <v>2045</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="27">
         <v>41</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="27">
         <v>56</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="30">
         <v>203.5</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="36">
         <v>3.65</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="30">
         <v>189.7</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="33">
         <v>4.18</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="33">
         <v>18.2</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="27">
         <v>41</v>
       </c>
-      <c r="M27" s="37">
+      <c r="M27" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="30">
+      <c r="A28" s="27">
         <v>2046</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="27">
         <v>41</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="27">
         <v>56</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="30">
         <v>203.5</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="36">
         <v>3.65</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="30">
         <v>189.7</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="33">
         <v>4.18</v>
       </c>
-      <c r="K28" s="36">
+      <c r="K28" s="33">
         <v>18.2</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="27">
         <v>41</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="30">
+      <c r="A29" s="27">
         <v>2047</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="27">
         <v>41</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="27">
         <v>56</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="30">
         <v>203.5</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="36">
         <v>3.65</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="30">
         <v>189.7</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="33">
         <v>4.18</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="33">
         <v>18.2</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="27">
         <v>41</v>
       </c>
-      <c r="M29" s="37">
+      <c r="M29" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="30">
+      <c r="A30" s="27">
         <v>2048</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="27">
         <v>41</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="27">
         <v>56</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="30">
         <v>203.5</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="36">
         <v>3.65</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="30">
         <v>189.7</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="33">
         <v>4.18</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="33">
         <v>18.2</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L30" s="27">
         <v>41</v>
       </c>
-      <c r="M30" s="37">
+      <c r="M30" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="30">
+      <c r="A31" s="27">
         <v>2049</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="27">
         <v>41</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="27">
         <v>56</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="30">
         <v>203.5</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="36">
         <v>3.65</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="30">
         <v>189.7</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="33">
         <v>4.18</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="33">
         <v>18.2</v>
       </c>
-      <c r="L31" s="30">
+      <c r="L31" s="27">
         <v>41</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="34">
         <v>68.3</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="30">
+      <c r="A32" s="27">
         <v>2050</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="27">
         <v>41</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="27">
         <v>56</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="30">
         <v>148.69999999999999</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="30">
         <v>203.5</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="36">
         <v>3.65</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="30">
         <v>189.7</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="33">
         <v>303.89999999999998</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="33">
         <v>4.18</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="33">
         <v>18.2</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="27">
         <v>41</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="34">
         <v>68.3</v>
       </c>
     </row>
@@ -8408,7 +8829,7 @@
       <c r="A6" t="s">
         <v>327</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="37">
         <v>2016</v>
       </c>
     </row>
@@ -8430,7 +8851,7 @@
     <col min="8" max="8" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="55.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" style="37" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -11819,7 +12240,7 @@
         <f>TRX10_*Markup</f>
         <v>1500</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="38">
         <f>inputs_workbook!C5</f>
         <v>2019</v>
       </c>

--- a/alpha_package_costs/alpha_package_costs_inputs/alpha_package_costs_module_inputs.xlsx
+++ b/alpha_package_costs/alpha_package_costs_inputs/alpha_package_costs_module_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSHERWOO\Documents\GitHub\EPA_OMEGA_Model\alpha_package_costs\alpha_package_costs_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6169C90A-4F60-4F25-9A82-6D58239630F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87026BE-454A-4D71-95FC-54F8C8D16B03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="719" firstSheet="1" activeTab="11" xr2:uid="{31AE0ECC-ADD6-46A3-9F50-4BA6582DDF8B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="719" firstSheet="1" activeTab="10" xr2:uid="{31AE0ECC-ADD6-46A3-9F50-4BA6582DDF8B}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs_code" sheetId="15" r:id="rId1"/>
@@ -23,12 +23,13 @@
     <sheet name="aero" sheetId="6" r:id="rId8"/>
     <sheet name="nonaero" sheetId="9" r:id="rId9"/>
     <sheet name="deac" sheetId="10" r:id="rId10"/>
-    <sheet name="et_dmc" sheetId="7" r:id="rId11"/>
-    <sheet name="bev" sheetId="11" r:id="rId12"/>
-    <sheet name="bev_curves_data" sheetId="13" r:id="rId13"/>
-    <sheet name="upstream" sheetId="12" r:id="rId14"/>
-    <sheet name="coefficients" sheetId="14" r:id="rId15"/>
-    <sheet name="gdp_deflators" sheetId="16" r:id="rId16"/>
+    <sheet name="ac" sheetId="17" r:id="rId11"/>
+    <sheet name="et_dmc" sheetId="7" r:id="rId12"/>
+    <sheet name="bev" sheetId="11" r:id="rId13"/>
+    <sheet name="bev_curves_data" sheetId="13" r:id="rId14"/>
+    <sheet name="upstream" sheetId="12" r:id="rId15"/>
+    <sheet name="coefficients" sheetId="14" r:id="rId16"/>
+    <sheet name="gdp_deflators" sheetId="16" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">aero!$A$1:$D$3</definedName>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="345">
   <si>
     <t>SOHC</t>
   </si>
@@ -1144,6 +1145,15 @@
   </si>
   <si>
     <t>kWh; BATTERY_SUMMARY_BP4_NMC622_BEV250-350_v1.xlsx; BEV300, 450k</t>
+  </si>
+  <si>
+    <t>deletes</t>
+  </si>
+  <si>
+    <t>PEVHEVcosting_20180220.xlsx</t>
+  </si>
+  <si>
+    <t>ac_cost</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1462,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1527,6 +1537,9 @@
     <xf numFmtId="166" fontId="19" fillId="0" borderId="3" xfId="33" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="3" xfId="33" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Accent1 2" xfId="20" xr:uid="{D9FD632B-EF7F-49B6-8440-0774D2DADADB}"/>
@@ -2099,6 +2112,65 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4F4307-4CCE-4E39-8D04-CE4F082A04BF}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4">
+        <f>C2*Markup</f>
+        <v>134.168240089752</v>
+      </c>
+      <c r="C2" s="1">
+        <v>89.445493393168007</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4">
+        <f>C3*Markup</f>
+        <v>134.168240089752</v>
+      </c>
+      <c r="C3" s="1">
+        <v>89.445493393168007</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1C16C4-514C-4855-AC00-5CBAF6F7CA67}">
   <dimension ref="A1:L62"/>
   <sheetViews>
@@ -4290,11 +4362,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B69F5C-798B-4A10-94D8-33D9607CBCCB}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4405,20 +4477,20 @@
         <v>3281</v>
       </c>
       <c r="H2" s="45" cm="1">
-        <f t="array" ref="H2">INDEX(bev_curves_data!$M$37:$R$37,,MATCH($D2,bev_curves_data!$M$31:$R$31,0))</f>
+        <f t="array" ref="H2">INDEX(bev_curves_data!$M$47:$R$47,,MATCH($D2,bev_curves_data!$M$31:$R$31,0))</f>
         <v>-12.125242548355066</v>
       </c>
       <c r="I2" s="45" cm="1">
-        <f t="array" ref="I2">INDEX(bev_curves_data!$M$38:$R$38,,MATCH($D2,bev_curves_data!$M$31:$R$31,0))</f>
+        <f t="array" ref="I2">INDEX(bev_curves_data!$M$48:$R$48,,MATCH($D2,bev_curves_data!$M$31:$R$31,0))</f>
         <v>60.602629028559839</v>
       </c>
       <c r="J2" s="45" cm="1">
-        <f t="array" ref="J2">INDEX(bev_curves_data!$D$37:$I$37,,MATCH($D2,bev_curves_data!$D$31:$I$31,0))</f>
-        <v>-1245.8248078720785</v>
+        <f t="array" ref="J2">INDEX(bev_curves_data!$D$47:$I$47,,MATCH($D2,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>-1190.4096392393747</v>
       </c>
       <c r="K2" s="45" cm="1">
-        <f t="array" ref="K2">INDEX(bev_curves_data!$D$38:$I$38,,MATCH($D2,bev_curves_data!$D$31:$I$31,0))</f>
-        <v>6885.1698170583295</v>
+        <f t="array" ref="K2">INDEX(bev_curves_data!$D$48:$I$48,,MATCH($D2,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>9759.2455429171187</v>
       </c>
       <c r="L2" s="9">
         <v>2019</v>
@@ -4441,11 +4513,11 @@
       </c>
       <c r="R2" s="22">
         <f>K2/I2</f>
-        <v>113.61173479476602</v>
+        <v>161.03666952002919</v>
       </c>
       <c r="S2" s="22">
         <f>(J2*0.2+K2)/(H2*0.2+I2)</f>
-        <v>114.06464133257255</v>
+        <v>163.65691955817854</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4473,20 +4545,20 @@
         <v>3510</v>
       </c>
       <c r="H3" s="45" cm="1">
-        <f t="array" ref="H3">INDEX(bev_curves_data!$M$37:$R$37,,MATCH($D3,bev_curves_data!$M$31:$R$31,0))</f>
+        <f t="array" ref="H3">INDEX(bev_curves_data!$M$47:$R$47,,MATCH($D3,bev_curves_data!$M$31:$R$31,0))</f>
         <v>-16.97957801938189</v>
       </c>
       <c r="I3" s="45" cm="1">
-        <f t="array" ref="I3">INDEX(bev_curves_data!$M$38:$R$38,,MATCH($D3,bev_curves_data!$M$31:$R$31,0))</f>
+        <f t="array" ref="I3">INDEX(bev_curves_data!$M$48:$R$48,,MATCH($D3,bev_curves_data!$M$31:$R$31,0))</f>
         <v>66.831081073163773</v>
       </c>
       <c r="J3" s="45" cm="1">
-        <f t="array" ref="J3">INDEX(bev_curves_data!$D$37:$I$37,,MATCH($D3,bev_curves_data!$D$31:$I$31,0))</f>
-        <v>-1525.0172230698106</v>
+        <f t="array" ref="J3">INDEX(bev_curves_data!$D$47:$I$47,,MATCH($D3,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>-1461.1214396077178</v>
       </c>
       <c r="K3" s="45" cm="1">
-        <f t="array" ref="K3">INDEX(bev_curves_data!$D$38:$I$38,,MATCH($D3,bev_curves_data!$D$31:$I$31,0))</f>
-        <v>7484.7761906287496</v>
+        <f t="array" ref="K3">INDEX(bev_curves_data!$D$48:$I$48,,MATCH($D3,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>11225.908358130564</v>
       </c>
       <c r="L3" s="9">
         <v>2019</v>
@@ -4509,11 +4581,11 @@
       </c>
       <c r="R3" s="22">
         <f t="shared" ref="R3:R7" si="2">K3/I3</f>
-        <v>111.99543790762176</v>
+        <v>167.97436429078448</v>
       </c>
       <c r="S3" s="22">
         <f t="shared" ref="S3:S7" si="3">(J3*0.2+K3)/(H3*0.2+I3)</f>
-        <v>113.18284886465578</v>
+        <v>172.3599834464473</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4541,20 +4613,20 @@
         <v>3838</v>
       </c>
       <c r="H4" s="45" cm="1">
-        <f t="array" ref="H4">INDEX(bev_curves_data!$M$37:$R$37,,MATCH($D4,bev_curves_data!$M$31:$R$31,0))</f>
+        <f t="array" ref="H4">INDEX(bev_curves_data!$M$47:$R$47,,MATCH($D4,bev_curves_data!$M$31:$R$31,0))</f>
         <v>-20.472123941098509</v>
       </c>
       <c r="I4" s="45" cm="1">
-        <f t="array" ref="I4">INDEX(bev_curves_data!$M$38:$R$38,,MATCH($D4,bev_curves_data!$M$31:$R$31,0))</f>
+        <f t="array" ref="I4">INDEX(bev_curves_data!$M$48:$R$48,,MATCH($D4,bev_curves_data!$M$31:$R$31,0))</f>
         <v>70.839108273020074</v>
       </c>
       <c r="J4" s="45" cm="1">
-        <f t="array" ref="J4">INDEX(bev_curves_data!$D$37:$I$37,,MATCH($D4,bev_curves_data!$D$31:$I$31,0))</f>
-        <v>-1973.0040011117987</v>
+        <f t="array" ref="J4">INDEX(bev_curves_data!$D$47:$I$47,,MATCH($D4,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>-1894.7707841858044</v>
       </c>
       <c r="K4" s="45" cm="1">
-        <f t="array" ref="K4">INDEX(bev_curves_data!$D$38:$I$38,,MATCH($D4,bev_curves_data!$D$31:$I$31,0))</f>
-        <v>7862.9862953498514</v>
+        <f t="array" ref="K4">INDEX(bev_curves_data!$D$48:$I$48,,MATCH($D4,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>12396.838036451736</v>
       </c>
       <c r="L4" s="9">
         <v>2019</v>
@@ -4577,11 +4649,11 @@
       </c>
       <c r="R4" s="22">
         <f t="shared" si="2"/>
-        <v>110.99781585399437</v>
+        <v>174.99991655277825</v>
       </c>
       <c r="S4" s="22">
         <f t="shared" si="3"/>
-        <v>111.89483723940725</v>
+        <v>180.05754544257272</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4609,20 +4681,20 @@
         <v>4294</v>
       </c>
       <c r="H5" s="45" cm="1">
-        <f t="array" ref="H5">INDEX(bev_curves_data!$M$37:$R$37,,MATCH($D5,bev_curves_data!$M$31:$R$31,0))</f>
+        <f t="array" ref="H5">INDEX(bev_curves_data!$M$47:$R$47,,MATCH($D5,bev_curves_data!$M$31:$R$31,0))</f>
         <v>-25.594561016888299</v>
       </c>
       <c r="I5" s="45" cm="1">
-        <f t="array" ref="I5">INDEX(bev_curves_data!$M$38:$R$38,,MATCH($D5,bev_curves_data!$M$31:$R$31,0))</f>
+        <f t="array" ref="I5">INDEX(bev_curves_data!$M$48:$R$48,,MATCH($D5,bev_curves_data!$M$31:$R$31,0))</f>
         <v>76.618087250037277</v>
       </c>
       <c r="J5" s="45" cm="1">
-        <f t="array" ref="J5">INDEX(bev_curves_data!$D$37:$I$37,,MATCH($D5,bev_curves_data!$D$31:$I$31,0))</f>
-        <v>-3766.3207185782558</v>
+        <f t="array" ref="J5">INDEX(bev_curves_data!$D$47:$I$47,,MATCH($D5,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>-3675.0674067380364</v>
       </c>
       <c r="K5" s="45" cm="1">
-        <f t="array" ref="K5">INDEX(bev_curves_data!$D$38:$I$38,,MATCH($D5,bev_curves_data!$D$31:$I$31,0))</f>
-        <v>8548.1465381185244</v>
+        <f t="array" ref="K5">INDEX(bev_curves_data!$D$48:$I$48,,MATCH($D5,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>13948.015781500824</v>
       </c>
       <c r="L5" s="9">
         <v>2019</v>
@@ -4645,11 +4717,11 @@
       </c>
       <c r="R5" s="22">
         <f t="shared" si="2"/>
-        <v>111.56825816105668</v>
+        <v>182.04599308231931</v>
       </c>
       <c r="S5" s="22">
         <f t="shared" si="3"/>
-        <v>109.02059204621612</v>
+        <v>184.79936714697126</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4677,20 +4749,20 @@
         <v>4454</v>
       </c>
       <c r="H6" s="45" cm="1">
-        <f t="array" ref="H6">INDEX(bev_curves_data!$M$37:$R$37,,MATCH($D6,bev_curves_data!$M$31:$R$31,0))</f>
+        <f t="array" ref="H6">INDEX(bev_curves_data!$M$47:$R$47,,MATCH($D6,bev_curves_data!$M$31:$R$31,0))</f>
         <v>-30.741258993748659</v>
       </c>
       <c r="I6" s="45" cm="1">
-        <f t="array" ref="I6">INDEX(bev_curves_data!$M$38:$R$38,,MATCH($D6,bev_curves_data!$M$31:$R$31,0))</f>
+        <f t="array" ref="I6">INDEX(bev_curves_data!$M$48:$R$48,,MATCH($D6,bev_curves_data!$M$31:$R$31,0))</f>
         <v>92.23566087802449</v>
       </c>
       <c r="J6" s="45" cm="1">
-        <f t="array" ref="J6">INDEX(bev_curves_data!$D$37:$I$37,,MATCH($D6,bev_curves_data!$D$31:$I$31,0))</f>
-        <v>-2437.9820613806437</v>
+        <f t="array" ref="J6">INDEX(bev_curves_data!$D$47:$I$47,,MATCH($D6,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>-2323.1666671980433</v>
       </c>
       <c r="K6" s="45" cm="1">
-        <f t="array" ref="K6">INDEX(bev_curves_data!$D$38:$I$38,,MATCH($D6,bev_curves_data!$D$31:$I$31,0))</f>
-        <v>9817.8288936903355</v>
+        <f t="array" ref="K6">INDEX(bev_curves_data!$D$48:$I$48,,MATCH($D6,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>15645.982809469857</v>
       </c>
       <c r="L6" s="9">
         <v>2019</v>
@@ -4713,11 +4785,11 @@
       </c>
       <c r="R6" s="22">
         <f t="shared" si="2"/>
-        <v>106.44287469977321</v>
+        <v>169.63051666275396</v>
       </c>
       <c r="S6" s="22">
         <f t="shared" si="3"/>
-        <v>108.38091866398645</v>
+        <v>176.34808200639765</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4745,20 +4817,20 @@
         <v>5310</v>
       </c>
       <c r="H7" s="45" cm="1">
-        <f t="array" ref="H7">INDEX(bev_curves_data!$M$37:$R$37,,MATCH($D7,bev_curves_data!$M$31:$R$31,0))</f>
+        <f t="array" ref="H7">INDEX(bev_curves_data!$M$47:$R$47,,MATCH($D7,bev_curves_data!$M$31:$R$31,0))</f>
         <v>-34.041987144201435</v>
       </c>
       <c r="I7" s="45" cm="1">
-        <f t="array" ref="I7">INDEX(bev_curves_data!$M$38:$R$38,,MATCH($D7,bev_curves_data!$M$31:$R$31,0))</f>
+        <f t="array" ref="I7">INDEX(bev_curves_data!$M$48:$R$48,,MATCH($D7,bev_curves_data!$M$31:$R$31,0))</f>
         <v>100.81700213237262</v>
       </c>
       <c r="J7" s="45" cm="1">
-        <f t="array" ref="J7">INDEX(bev_curves_data!$D$37:$I$37,,MATCH($D7,bev_curves_data!$D$31:$I$31,0))</f>
-        <v>-4418.2971385683086</v>
+        <f t="array" ref="J7">INDEX(bev_curves_data!$D$47:$I$47,,MATCH($D7,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>-4248.4001872690988</v>
       </c>
       <c r="K7" s="45" cm="1">
-        <f t="array" ref="K7">INDEX(bev_curves_data!$D$38:$I$38,,MATCH($D7,bev_curves_data!$D$31:$I$31,0))</f>
-        <v>10756.237698411596</v>
+        <f t="array" ref="K7">INDEX(bev_curves_data!$D$48:$I$48,,MATCH($D7,bev_curves_data!$D$31:$I$31,0))</f>
+        <v>16756.64388209338</v>
       </c>
       <c r="L7" s="9">
         <v>2019</v>
@@ -4781,11 +4853,11 @@
       </c>
       <c r="R7" s="22">
         <f t="shared" si="2"/>
-        <v>106.69071159533853</v>
+        <v>166.20851173586698</v>
       </c>
       <c r="S7" s="22">
         <f t="shared" si="3"/>
-        <v>105.01781514396816</v>
+        <v>169.20753046813238</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -5013,12 +5085,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F787BE-7CDC-4D53-B66A-224AC26D0702}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37:R38"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6324,43 +6396,43 @@
       <c r="C32" s="17">
         <v>0</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>6986.7903156711445</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>7558.3654190903089</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>7952.5935020381576</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>8664.7752526713557</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>9970.6230202013594</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>10985.367179559473</v>
       </c>
       <c r="L32" s="34">
         <v>0</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="1">
         <v>61.302528341787323</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="1">
         <v>67.775194005951221</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="1">
         <v>71.970961080436737</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="1">
         <v>77.968544352784122</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="1">
         <v>94.169058891645932</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="1">
         <v>103.07282791177303</v>
       </c>
     </row>
@@ -6368,43 +6440,43 @@
       <c r="C33" s="17">
         <v>0.02</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>6843.108841416396</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>7477.0984324135088</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>7857.531065717506</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>8545.1633937679126</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>9790.3593283403497</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>10763.31452153694</v>
       </c>
       <c r="L33" s="34">
         <v>0.02</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="1">
         <v>60.537388583682542</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="1">
         <v>66.753499830227014</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="1">
         <v>70.770764666036172</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="1">
         <v>76.497450849801709</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="1">
         <v>91.881041688994586</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="1">
         <v>100.2876054651894</v>
       </c>
     </row>
@@ -6412,43 +6484,43 @@
       <c r="C34" s="17">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>6701.3020418562</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>7285.3648671357159</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>7608.4347912342137</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>8091.7847200854958</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>9455.0848118075046</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1">
         <v>10095.794148411251</v>
       </c>
       <c r="L34" s="34">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="1">
         <v>58.7946431968398</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="1">
         <v>64.347306962647608</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="1">
         <v>67.813730252868439</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="1">
         <v>72.928726031037726</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="1">
         <v>87.661940362931901</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="1">
         <v>95.759495559138685</v>
       </c>
     </row>
@@ -6456,43 +6528,43 @@
       <c r="C35" s="17">
         <v>0.1</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>6701.2450453822303</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>7250.3091458590716</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>7558.4830062005722</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>8025.398856291893</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>9454.9895820496076</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="1">
         <v>10095.691124404575</v>
       </c>
       <c r="L35" s="34">
         <v>0.1</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="1">
         <v>58.794471017049482</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="1">
         <v>64.286161033067287</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="1">
         <v>67.776673200479891</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="1">
         <v>72.865669695086993</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="1">
         <v>87.661525781087377</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="1">
         <v>95.759001244663736</v>
       </c>
     </row>
@@ -6500,156 +6572,475 @@
       <c r="C36" s="17">
         <v>0.2</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>6701.3020418562046</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>7250.3612855325709</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>7558.552531119647</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>7925.9137839375526</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>9455.0848118075101</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>10095.794148411251</v>
       </c>
       <c r="L36" s="34">
         <v>0.2</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="1">
         <v>58.7946431968398</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="1">
         <v>64.286310216269911</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="1">
         <v>67.776923208545185</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="1">
         <v>72.720193719804982</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="1">
         <v>87.661940362931901</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="1">
         <v>95.759495559138685</v>
       </c>
     </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C37" s="17" t="s">
+    <row r="37" spans="3:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="34">
+        <v>0</v>
+      </c>
+      <c r="D37" s="34">
+        <f>($D$8*$C32+$E$8)+ABS(D$50)</f>
+        <v>2874.0757258587901</v>
+      </c>
+      <c r="E37" s="34">
+        <f>($D$9*$C32+$E$9)+ABS(E$50)</f>
+        <v>3741.1321675018125</v>
+      </c>
+      <c r="F37" s="34">
+        <f>($D$10*$C32+$E$10)+ABS(F$50)</f>
+        <v>4533.8517411018856</v>
+      </c>
+      <c r="G37" s="34">
+        <f>($D$11*$C32+$E$11)+ABS(G$50)</f>
+        <v>5399.8692433822989</v>
+      </c>
+      <c r="H37" s="34">
+        <f>($D$12*$C32+$E$12)+ABS(H$50)</f>
+        <v>5828.1539157795196</v>
+      </c>
+      <c r="I37" s="34">
+        <f>($D$13*$C32+$E$13)+ABS(I$50)</f>
+        <v>6000.4061836817873</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="34">
+        <v>0.02</v>
+      </c>
+      <c r="D38" s="34">
+        <f t="shared" ref="D38:D41" si="21">($D$8*$C33+$E$8)+ABS(D$50)</f>
+        <v>2875.1840292314441</v>
+      </c>
+      <c r="E38" s="34">
+        <f t="shared" ref="E38:E41" si="22">($D$9*$C33+$E$9)+ABS(E$50)</f>
+        <v>3742.4100831710548</v>
+      </c>
+      <c r="F38" s="34">
+        <f t="shared" ref="F38:F41" si="23">($D$10*$C33+$E$10)+ABS(F$50)</f>
+        <v>4535.4164054404055</v>
+      </c>
+      <c r="G38" s="34">
+        <f t="shared" ref="G38:G41" si="24">($D$11*$C33+$E$11)+ABS(G$50)</f>
+        <v>5401.6943096191026</v>
+      </c>
+      <c r="H38" s="34">
+        <f t="shared" ref="H38:H41" si="25">($D$12*$C33+$E$12)+ABS(H$50)</f>
+        <v>5830.4502236631715</v>
+      </c>
+      <c r="I38" s="34">
+        <f t="shared" ref="I38:I41" si="26">($D$13*$C33+$E$13)+ABS(I$50)</f>
+        <v>6003.804122707772</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D39" s="34">
+        <f t="shared" si="21"/>
+        <v>2878.2318635062425</v>
+      </c>
+      <c r="E39" s="34">
+        <f t="shared" si="22"/>
+        <v>3745.9243512614703</v>
+      </c>
+      <c r="F39" s="34">
+        <f t="shared" si="23"/>
+        <v>4539.7192323713352</v>
+      </c>
+      <c r="G39" s="34">
+        <f t="shared" si="24"/>
+        <v>5406.7132417703151</v>
+      </c>
+      <c r="H39" s="34">
+        <f t="shared" si="25"/>
+        <v>5836.7650703432146</v>
+      </c>
+      <c r="I39" s="34">
+        <f t="shared" si="26"/>
+        <v>6013.1484550292289</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="34">
+        <f t="shared" si="21"/>
+        <v>2879.6172427220599</v>
+      </c>
+      <c r="E40" s="34">
+        <f t="shared" si="22"/>
+        <v>3747.5217458480224</v>
+      </c>
+      <c r="F40" s="34">
+        <f t="shared" si="23"/>
+        <v>4541.6750627944848</v>
+      </c>
+      <c r="G40" s="34">
+        <f t="shared" si="24"/>
+        <v>5408.9945745663208</v>
+      </c>
+      <c r="H40" s="34">
+        <f t="shared" si="25"/>
+        <v>5839.6354551977793</v>
+      </c>
+      <c r="I40" s="34">
+        <f t="shared" si="26"/>
+        <v>6017.3958788117088</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="D41" s="34">
+        <f t="shared" si="21"/>
+        <v>2885.1587595853298</v>
+      </c>
+      <c r="E41" s="34">
+        <f t="shared" si="22"/>
+        <v>3753.9113241942323</v>
+      </c>
+      <c r="F41" s="34">
+        <f t="shared" si="23"/>
+        <v>4549.498384487084</v>
+      </c>
+      <c r="G41" s="34">
+        <f t="shared" si="24"/>
+        <v>5418.1199057503427</v>
+      </c>
+      <c r="H41" s="34">
+        <f t="shared" si="25"/>
+        <v>5851.116994616038</v>
+      </c>
+      <c r="I41" s="34">
+        <f t="shared" si="26"/>
+        <v>6034.3855739416304</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="34">
+        <v>0</v>
+      </c>
+      <c r="D42" s="34">
+        <f>SUM(D32,D37)</f>
+        <v>9860.8660415299346</v>
+      </c>
+      <c r="E42" s="34">
+        <f>SUM(E32,E37)</f>
+        <v>11299.497586592122</v>
+      </c>
+      <c r="F42" s="34">
+        <f t="shared" ref="F42:I42" si="27">SUM(F32,F37)</f>
+        <v>12486.445243140042</v>
+      </c>
+      <c r="G42" s="34">
+        <f t="shared" si="27"/>
+        <v>14064.644496053654</v>
+      </c>
+      <c r="H42" s="34">
+        <f t="shared" si="27"/>
+        <v>15798.776935980879</v>
+      </c>
+      <c r="I42" s="34">
+        <f t="shared" si="27"/>
+        <v>16985.77336324126</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="34">
+        <v>0.02</v>
+      </c>
+      <c r="D43" s="34">
+        <f t="shared" ref="D43:E46" si="28">SUM(D33,D38)</f>
+        <v>9718.2928706478397</v>
+      </c>
+      <c r="E43" s="34">
+        <f>SUM(E33,E38)</f>
+        <v>11219.508515584563</v>
+      </c>
+      <c r="F43" s="34">
+        <f t="shared" ref="F43:I43" si="29">SUM(F33,F38)</f>
+        <v>12392.947471157911</v>
+      </c>
+      <c r="G43" s="34">
+        <f t="shared" si="29"/>
+        <v>13946.857703387015</v>
+      </c>
+      <c r="H43" s="34">
+        <f t="shared" si="29"/>
+        <v>15620.80955200352</v>
+      </c>
+      <c r="I43" s="34">
+        <f t="shared" si="29"/>
+        <v>16767.118644244714</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D44" s="34">
+        <f t="shared" si="28"/>
+        <v>9579.533905362443</v>
+      </c>
+      <c r="E44" s="34">
+        <f t="shared" si="28"/>
+        <v>11031.289218397185</v>
+      </c>
+      <c r="F44" s="34">
+        <f t="shared" ref="F44:I44" si="30">SUM(F34,F39)</f>
+        <v>12148.154023605548</v>
+      </c>
+      <c r="G44" s="34">
+        <f t="shared" si="30"/>
+        <v>13498.49796185581</v>
+      </c>
+      <c r="H44" s="34">
+        <f t="shared" si="30"/>
+        <v>15291.84988215072</v>
+      </c>
+      <c r="I44" s="34">
+        <f t="shared" si="30"/>
+        <v>16108.942603440479</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="D45" s="34">
+        <f t="shared" si="28"/>
+        <v>9580.8622881042902</v>
+      </c>
+      <c r="E45" s="34">
+        <f t="shared" si="28"/>
+        <v>10997.830891707094</v>
+      </c>
+      <c r="F45" s="34">
+        <f t="shared" ref="F45:I45" si="31">SUM(F35,F40)</f>
+        <v>12100.158068995057</v>
+      </c>
+      <c r="G45" s="34">
+        <f t="shared" si="31"/>
+        <v>13434.393430858214</v>
+      </c>
+      <c r="H45" s="34">
+        <f t="shared" si="31"/>
+        <v>15294.625037247388</v>
+      </c>
+      <c r="I45" s="34">
+        <f t="shared" si="31"/>
+        <v>16113.087003216284</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="D46" s="34">
+        <f t="shared" si="28"/>
+        <v>9586.4608014415353</v>
+      </c>
+      <c r="E46" s="34">
+        <f t="shared" si="28"/>
+        <v>11004.272609726802</v>
+      </c>
+      <c r="F46" s="34">
+        <f t="shared" ref="F46:I46" si="32">SUM(F36,F41)</f>
+        <v>12108.050915606731</v>
+      </c>
+      <c r="G46" s="34">
+        <f t="shared" si="32"/>
+        <v>13344.033689687894</v>
+      </c>
+      <c r="H46" s="34">
+        <f t="shared" si="32"/>
+        <v>15306.201806423549</v>
+      </c>
+      <c r="I46" s="34">
+        <f t="shared" si="32"/>
+        <v>16130.179722352881</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C47" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="D37" s="44">
-        <f>SLOPE( D$32:D$36,$C$32:$C$36)</f>
-        <v>-1245.8248078720785</v>
-      </c>
-      <c r="E37" s="44">
-        <f t="shared" ref="E37:I37" si="21">SLOPE( E$32:E$36,$C$32:$C$36)</f>
-        <v>-1525.0172230698106</v>
-      </c>
-      <c r="F37" s="44">
-        <f t="shared" si="21"/>
-        <v>-1973.0040011117987</v>
-      </c>
-      <c r="G37" s="44">
-        <f t="shared" si="21"/>
-        <v>-3766.3207185782558</v>
-      </c>
-      <c r="H37" s="44">
-        <f t="shared" si="21"/>
-        <v>-2437.9820613806437</v>
-      </c>
-      <c r="I37" s="44">
-        <f t="shared" si="21"/>
-        <v>-4418.2971385683086</v>
-      </c>
-      <c r="L37" s="34" t="s">
+      <c r="D47" s="44">
+        <f t="shared" ref="D47:I47" si="33">SLOPE( D$42:D$46,$C$42:$C$46)</f>
+        <v>-1190.4096392393747</v>
+      </c>
+      <c r="E47" s="44">
+        <f t="shared" si="33"/>
+        <v>-1461.1214396077178</v>
+      </c>
+      <c r="F47" s="44">
+        <f t="shared" si="33"/>
+        <v>-1894.7707841858044</v>
+      </c>
+      <c r="G47" s="44">
+        <f t="shared" si="33"/>
+        <v>-3675.0674067380364</v>
+      </c>
+      <c r="H47" s="44">
+        <f t="shared" si="33"/>
+        <v>-2323.1666671980433</v>
+      </c>
+      <c r="I47" s="44">
+        <f t="shared" si="33"/>
+        <v>-4248.4001872690988</v>
+      </c>
+      <c r="L47" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="M37" s="44">
+      <c r="M47" s="44">
         <f>SLOPE( M$32:M$36,$L$32:$L$36)</f>
         <v>-12.125242548355066</v>
       </c>
-      <c r="N37" s="44">
-        <f t="shared" ref="N37:R37" si="22">SLOPE( N$32:N$36,$L$32:$L$36)</f>
+      <c r="N47" s="44">
+        <f t="shared" ref="N47:R47" si="34">SLOPE( N$32:N$36,$L$32:$L$36)</f>
         <v>-16.97957801938189</v>
       </c>
-      <c r="O37" s="44">
-        <f t="shared" si="22"/>
+      <c r="O47" s="44">
+        <f t="shared" si="34"/>
         <v>-20.472123941098509</v>
       </c>
-      <c r="P37" s="44">
-        <f t="shared" si="22"/>
+      <c r="P47" s="44">
+        <f t="shared" si="34"/>
         <v>-25.594561016888299</v>
       </c>
-      <c r="Q37" s="44">
-        <f t="shared" si="22"/>
+      <c r="Q47" s="44">
+        <f t="shared" si="34"/>
         <v>-30.741258993748659</v>
       </c>
-      <c r="R37" s="44">
-        <f t="shared" si="22"/>
+      <c r="R47" s="44">
+        <f t="shared" si="34"/>
         <v>-34.041987144201435</v>
       </c>
     </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C38" s="17" t="s">
+    <row r="48" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C48" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="D38" s="44">
-        <f>INTERCEPT( D$32:D$36,$C$32:$C$36)</f>
-        <v>6885.1698170583295</v>
-      </c>
-      <c r="E38" s="44">
-        <f t="shared" ref="E38:I38" si="23">INTERCEPT( E$32:E$36,$C$32:$C$36)</f>
-        <v>7484.7761906287496</v>
-      </c>
-      <c r="F38" s="44">
-        <f t="shared" si="23"/>
-        <v>7862.9862953498514</v>
-      </c>
-      <c r="G38" s="44">
-        <f t="shared" si="23"/>
-        <v>8548.1465381185244</v>
-      </c>
-      <c r="H38" s="44">
-        <f t="shared" si="23"/>
-        <v>9817.8288936903355</v>
-      </c>
-      <c r="I38" s="44">
-        <f t="shared" si="23"/>
-        <v>10756.237698411596</v>
-      </c>
-      <c r="L38" s="34" t="s">
+      <c r="D48" s="44">
+        <f t="shared" ref="D48:I48" si="35">INTERCEPT( D$42:D$46,$C$42:$C$46)</f>
+        <v>9759.2455429171187</v>
+      </c>
+      <c r="E48" s="44">
+        <f t="shared" si="35"/>
+        <v>11225.908358130564</v>
+      </c>
+      <c r="F48" s="44">
+        <f t="shared" si="35"/>
+        <v>12396.838036451736</v>
+      </c>
+      <c r="G48" s="44">
+        <f t="shared" si="35"/>
+        <v>13948.015781500824</v>
+      </c>
+      <c r="H48" s="44">
+        <f t="shared" si="35"/>
+        <v>15645.982809469857</v>
+      </c>
+      <c r="I48" s="44">
+        <f t="shared" si="35"/>
+        <v>16756.64388209338</v>
+      </c>
+      <c r="L48" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="M38" s="44">
+      <c r="M48" s="44">
         <f>INTERCEPT( M$32:M$36,$L$32:$L$36)</f>
         <v>60.602629028559839</v>
       </c>
-      <c r="N38" s="44">
-        <f t="shared" ref="N38:R38" si="24">INTERCEPT( N$32:N$36,$L$32:$L$36)</f>
+      <c r="N48" s="44">
+        <f t="shared" ref="N48:R48" si="36">INTERCEPT( N$32:N$36,$L$32:$L$36)</f>
         <v>66.831081073163773</v>
       </c>
-      <c r="O38" s="44">
-        <f t="shared" si="24"/>
+      <c r="O48" s="44">
+        <f t="shared" si="36"/>
         <v>70.839108273020074</v>
       </c>
-      <c r="P38" s="44">
-        <f t="shared" si="24"/>
+      <c r="P48" s="44">
+        <f t="shared" si="36"/>
         <v>76.618087250037277</v>
       </c>
-      <c r="Q38" s="44">
-        <f t="shared" si="24"/>
+      <c r="Q48" s="44">
+        <f t="shared" si="36"/>
         <v>92.23566087802449</v>
       </c>
-      <c r="R38" s="44">
-        <f t="shared" si="24"/>
+      <c r="R48" s="44">
+        <f t="shared" si="36"/>
         <v>100.81700213237262</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D50" s="46">
+        <v>-3644.8139166666665</v>
+      </c>
+      <c r="E50" s="46">
+        <v>-4324.6949999999997</v>
+      </c>
+      <c r="F50" s="46">
+        <v>-4910.8609166666665</v>
+      </c>
+      <c r="G50" s="46">
+        <v>-5585.3516666666674</v>
+      </c>
+      <c r="H50" s="46">
+        <v>-5625.3516666666674</v>
+      </c>
+      <c r="I50" s="48">
+        <f>H50</f>
+        <v>-5625.3516666666674</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="47" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -6659,7 +7050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C4D92A-6996-4221-BCA6-9F7B1FEA98B2}">
   <dimension ref="A1:E41"/>
   <sheetViews>
@@ -7287,7 +7678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E34BFD-9265-45F1-BE2F-2D62A03D848B}">
   <dimension ref="A1:M32"/>
   <sheetViews>
@@ -8616,7 +9007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B101427-E0F5-4F9E-AF35-E5B072DEE02C}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -8842,8 +9233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6B2318-32F9-4ECB-8F5A-79536977FADD}">
   <dimension ref="A1:AI31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12762,7 +13153,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/alpha_package_costs/alpha_package_costs_inputs/alpha_package_costs_module_inputs.xlsx
+++ b/alpha_package_costs/alpha_package_costs_inputs/alpha_package_costs_module_inputs.xlsx
@@ -8,33 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSHERWOO\Documents\GitHub\EPA_OMEGA_Model\alpha_package_costs\alpha_package_costs_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87026BE-454A-4D71-95FC-54F8C8D16B03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6D59AA-FB7B-49F4-ABEA-49911446DFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="719" firstSheet="1" activeTab="10" xr2:uid="{31AE0ECC-ADD6-46A3-9F50-4BA6582DDF8B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="768" xr2:uid="{31AE0ECC-ADD6-46A3-9F50-4BA6582DDF8B}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs_code" sheetId="15" r:id="rId1"/>
     <sheet name="inputs_workbook" sheetId="8" r:id="rId2"/>
-    <sheet name="engine" sheetId="1" r:id="rId3"/>
-    <sheet name="trans" sheetId="2" r:id="rId4"/>
-    <sheet name="accessories" sheetId="3" r:id="rId5"/>
-    <sheet name="start-stop" sheetId="5" r:id="rId6"/>
-    <sheet name="weight" sheetId="4" r:id="rId7"/>
-    <sheet name="aero" sheetId="6" r:id="rId8"/>
-    <sheet name="nonaero" sheetId="9" r:id="rId9"/>
-    <sheet name="deac" sheetId="10" r:id="rId10"/>
-    <sheet name="ac" sheetId="17" r:id="rId11"/>
-    <sheet name="et_dmc" sheetId="7" r:id="rId12"/>
-    <sheet name="bev" sheetId="11" r:id="rId13"/>
-    <sheet name="bev_curves_data" sheetId="13" r:id="rId14"/>
-    <sheet name="upstream" sheetId="12" r:id="rId15"/>
-    <sheet name="coefficients" sheetId="14" r:id="rId16"/>
-    <sheet name="gdp_deflators" sheetId="16" r:id="rId17"/>
+    <sheet name="engine" sheetId="18" r:id="rId3"/>
+    <sheet name="engine_tech" sheetId="1" r:id="rId4"/>
+    <sheet name="trans" sheetId="2" r:id="rId5"/>
+    <sheet name="accessories" sheetId="3" r:id="rId6"/>
+    <sheet name="start-stop" sheetId="5" r:id="rId7"/>
+    <sheet name="weight" sheetId="4" r:id="rId8"/>
+    <sheet name="aero" sheetId="6" r:id="rId9"/>
+    <sheet name="nonaero" sheetId="9" r:id="rId10"/>
+    <sheet name="deac" sheetId="10" r:id="rId11"/>
+    <sheet name="ac" sheetId="17" r:id="rId12"/>
+    <sheet name="et_dmc" sheetId="7" r:id="rId13"/>
+    <sheet name="bev" sheetId="11" r:id="rId14"/>
+    <sheet name="bev_curves_data" sheetId="13" r:id="rId15"/>
+    <sheet name="upstream" sheetId="12" r:id="rId16"/>
+    <sheet name="coefficients" sheetId="14" r:id="rId17"/>
+    <sheet name="gdp_deflators" sheetId="16" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">aero!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">engine!$A$1:$AI$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">nonaero!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">aero!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">engine_tech!$A$1:$AI$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">nonaero!$A$1:$C$4</definedName>
     <definedName name="Markup">inputs_workbook!$B$1</definedName>
     <definedName name="Null_4cyl_DMC">inputs_workbook!$B$4</definedName>
     <definedName name="Null_6cyl_DMC">inputs_workbook!$B$3</definedName>
@@ -119,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="352">
   <si>
     <t>SOHC</t>
   </si>
@@ -784,9 +785,6 @@
     <t>CEGR</t>
   </si>
   <si>
-    <t>engine_cost</t>
-  </si>
-  <si>
     <t>trans_cost</t>
   </si>
   <si>
@@ -1154,6 +1152,30 @@
   </si>
   <si>
     <t>ac_cost</t>
+  </si>
+  <si>
+    <t>boost_multiplier</t>
+  </si>
+  <si>
+    <t>item_cost</t>
+  </si>
+  <si>
+    <t>dollars_per_cyl_8</t>
+  </si>
+  <si>
+    <t>dollars_per_cyl_6</t>
+  </si>
+  <si>
+    <t>dollars_per_cyl_4</t>
+  </si>
+  <si>
+    <t>dollars_per_liter</t>
+  </si>
+  <si>
+    <t>engine_tech_cost</t>
+  </si>
+  <si>
+    <t>dollars_per_cyl_3</t>
   </si>
 </sst>
 </file>
@@ -1592,20 +1614,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{046D2098-7ED5-4FD1-9252-DA736D36E254}" name="et_dmc" displayName="et_dmc" ref="A1:L62" totalsRowShown="0">
-  <autoFilter ref="A1:L62" xr:uid="{FC23E305-CC0C-448F-8C6F-468416C8658D}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ATK1-I3"/>
-        <filter val="ATK1-I4"/>
-        <filter val="ATK1-V6"/>
-        <filter val="ATK1-V8"/>
-        <filter val="ATK2-I3"/>
-        <filter val="ATK2-I4"/>
-        <filter val="ATK2-V6"/>
-        <filter val="ATK2-V8"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L62" xr:uid="{FC23E305-CC0C-448F-8C6F-468416C8658D}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{809B6FC5-91F1-4455-B7C1-3CD73723C495}" name="Tech_#"/>
     <tableColumn id="2" xr3:uid="{0496EB90-A038-4080-8E29-2F166E1AFC3F}" name="Tech"/>
@@ -1921,10 +1930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF58B9CD-C45C-4464-97D6-845ECC18E560}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1934,15 +1943,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" t="s">
         <v>314</v>
-      </c>
-      <c r="B1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" s="1">
         <v>2020</v>
@@ -1950,7 +1959,7 @@
     </row>
     <row r="3" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B3" s="1">
         <v>2050</v>
@@ -1958,7 +1967,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B4" s="1">
         <v>5.0000000000000001E-3</v>
@@ -1966,7 +1975,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="1">
         <v>0.01</v>
@@ -1974,7 +1983,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B6" s="1">
         <v>1.4999999999999999E-2</v>
@@ -1982,18 +1991,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B7" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2002,6 +2019,192 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B9F0F9-D24F-4187-97FF-36498970686A}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2">
+        <v>99</v>
+      </c>
+      <c r="C2" s="8">
+        <f t="shared" ref="C2:C9" si="0">D2*Markup</f>
+        <v>82.5</v>
+      </c>
+      <c r="D2" s="9">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="6">
+        <v>99</v>
+      </c>
+      <c r="C3" s="8">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="D3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="7">
+        <v>99</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D4" s="9">
+        <f>4*10</f>
+        <v>40</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D7" s="9">
+        <f>4*10</f>
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="7">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D8" s="9">
+        <f>D2+D3</f>
+        <v>60</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="7">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>142.5</v>
+      </c>
+      <c r="D9" s="9">
+        <f>D2+D4</f>
+        <v>95</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C4" xr:uid="{C53A1DC7-378E-419F-B9C5-4907A7B2017F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4112A2B6-BB18-4E85-8175-B61206919176}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2019,21 +2222,21 @@
         <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D1" t="s">
         <v>213</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -2111,11 +2314,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4F4307-4CCE-4E39-8D04-CE4F082A04BF}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -2126,13 +2329,13 @@
         <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C1" t="s">
         <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2170,7 +2373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1C16C4-514C-4855-AC00-5CBAF6F7CA67}">
   <dimension ref="A1:L62"/>
   <sheetViews>
@@ -2209,7 +2412,7 @@
         <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G1" t="s">
         <v>53</v>
@@ -2382,7 +2585,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>193</v>
       </c>
@@ -2417,7 +2620,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>194</v>
       </c>
@@ -2452,7 +2655,7 @@
         <v>159.27502634351916</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>195</v>
       </c>
@@ -2487,7 +2690,7 @@
         <v>179.18440463645993</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>197</v>
       </c>
@@ -2522,7 +2725,7 @@
         <v>243.88499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>198</v>
       </c>
@@ -2557,7 +2760,7 @@
         <v>243.88499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>199</v>
       </c>
@@ -2592,7 +2795,7 @@
         <v>367.54500000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>200</v>
       </c>
@@ -2627,12 +2830,12 @@
         <v>442.06851256369526</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>205</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C13" t="s">
         <v>90</v>
@@ -2662,10 +2865,10 @@
         <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>215</v>
       </c>
@@ -2703,7 +2906,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>216</v>
       </c>
@@ -2738,7 +2941,7 @@
         <v>113.57755999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>229</v>
       </c>
@@ -2773,7 +2976,7 @@
         <v>-97.21050000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>230</v>
       </c>
@@ -2808,7 +3011,7 @@
         <v>-220.98500000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>241</v>
       </c>
@@ -2843,7 +3046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>265</v>
       </c>
@@ -2878,7 +3081,7 @@
         <v>462.58</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>266</v>
       </c>
@@ -2913,7 +3116,7 @@
         <v>779.745</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>267</v>
       </c>
@@ -2951,7 +3154,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>268</v>
       </c>
@@ -2989,7 +3192,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>269</v>
       </c>
@@ -3028,7 +3231,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>271</v>
       </c>
@@ -3063,7 +3266,7 @@
         <v>-847.59770000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>272</v>
       </c>
@@ -3098,7 +3301,7 @@
         <v>-626.61270000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>273</v>
       </c>
@@ -3133,7 +3336,7 @@
         <v>88.164999999999964</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>274</v>
       </c>
@@ -3168,7 +3371,7 @@
         <v>309.14999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>275</v>
       </c>
@@ -3203,7 +3406,7 @@
         <v>-658.79864999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>276</v>
       </c>
@@ -3238,7 +3441,7 @@
         <v>-437.81365</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>277</v>
       </c>
@@ -3273,7 +3476,7 @@
         <v>541.10772384767472</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>278</v>
       </c>
@@ -3308,7 +3511,7 @@
         <v>188.79966055354828</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>279</v>
       </c>
@@ -3343,7 +3546,7 @@
         <v>-940.23964999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>280</v>
       </c>
@@ -3378,7 +3581,7 @@
         <v>-313.62695000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>281</v>
       </c>
@@ -3413,7 +3616,7 @@
         <v>-265.93770000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>282</v>
       </c>
@@ -3448,7 +3651,7 @@
         <v>360.67500000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>283</v>
       </c>
@@ -3483,7 +3686,7 @@
         <v>592.64179278554764</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>284</v>
       </c>
@@ -3518,7 +3721,7 @@
         <v>-804.40830000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>285</v>
       </c>
@@ -3553,7 +3756,7 @@
         <v>-177.79560000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>286</v>
       </c>
@@ -3588,7 +3791,7 @@
         <v>135.83591145034848</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>287</v>
       </c>
@@ -3623,7 +3826,7 @@
         <v>-722.52935000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>288</v>
       </c>
@@ -3658,7 +3861,7 @@
         <v>-95.91664999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>289</v>
       </c>
@@ -3693,7 +3896,7 @@
         <v>217.71486145034851</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>294</v>
       </c>
@@ -3728,7 +3931,7 @@
         <v>132.72918861960008</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>295</v>
       </c>
@@ -3763,7 +3966,7 @@
         <v>192.45732349841887</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>296</v>
       </c>
@@ -3798,7 +4001,7 @@
         <v>274.95</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>297</v>
       </c>
@@ -3836,7 +4039,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>298</v>
       </c>
@@ -3874,7 +4077,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>300</v>
       </c>
@@ -3912,7 +4115,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>301</v>
       </c>
@@ -3950,7 +4153,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>302</v>
       </c>
@@ -4116,7 +4319,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>320</v>
       </c>
@@ -4148,7 +4351,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>321</v>
       </c>
@@ -4180,7 +4383,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>337</v>
       </c>
@@ -4209,7 +4412,7 @@
         <v>462.58</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>338</v>
       </c>
@@ -4238,7 +4441,7 @@
         <v>779.745</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>339</v>
       </c>
@@ -4267,7 +4470,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>358</v>
       </c>
@@ -4296,7 +4499,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>359</v>
       </c>
@@ -4325,7 +4528,7 @@
         <v>11.875</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>360</v>
       </c>
@@ -4362,7 +4565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B69F5C-798B-4A10-94D8-33D9607CBCCB}">
   <dimension ref="A1:S28"/>
   <sheetViews>
@@ -4395,61 +4598,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="M1" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="N1" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="O1" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="I1" s="26" t="s">
+      <c r="P1" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q1" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="K1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>332</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4458,17 +4661,17 @@
         <v>bev_300_LPW_LRL</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C2" s="11">
         <f>bev_curves_data!C20</f>
         <v>300</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F2" s="10">
         <v>48</v>
@@ -4526,17 +4729,17 @@
         <v>bev_300_MPW_LRL</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="20">
         <f>bev_curves_data!C21</f>
         <v>300</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F3" s="10">
         <v>50</v>
@@ -4594,17 +4797,17 @@
         <v>bev_300_LPW_HRL</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="20">
         <f>bev_curves_data!C22</f>
         <v>300</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F4" s="10">
         <v>53</v>
@@ -4662,17 +4865,17 @@
         <v>bev_300_HPW</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C5" s="20">
         <f>bev_curves_data!C23</f>
         <v>300</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F5" s="12">
         <v>55</v>
@@ -4730,17 +4933,17 @@
         <v>bev_300_MPW_HRL</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C6" s="20">
         <f>bev_curves_data!C24</f>
         <v>300</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F6" s="12">
         <v>58</v>
@@ -4798,17 +5001,17 @@
         <v>bev_300_Truck</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="20">
         <f>bev_curves_data!C25</f>
         <v>300</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F7" s="12">
         <v>60</v>
@@ -5085,7 +5288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F787BE-7CDC-4D53-B66A-224AC26D0702}">
   <dimension ref="A1:V51"/>
   <sheetViews>
@@ -5105,13 +5308,13 @@
   <sheetData>
     <row r="1" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>279</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>280</v>
       </c>
       <c r="F1" s="17">
         <v>0.05</v>
@@ -5126,37 +5329,37 @@
         <v>0.2</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O1" s="19"/>
       <c r="P1" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q1" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="R1" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="T1" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>266</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14">
@@ -5169,7 +5372,7 @@
         <v>200</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P2" s="19">
         <v>0</v>
@@ -5195,10 +5398,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="14">
@@ -5212,7 +5415,7 @@
         <v>200</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P3" s="19">
         <v>0.02</v>
@@ -5238,10 +5441,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14">
@@ -5255,7 +5458,7 @@
         <v>200</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P4" s="19">
         <v>7.4999999999999997E-2</v>
@@ -5281,10 +5484,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="14">
@@ -5298,7 +5501,7 @@
         <v>200</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P5" s="19">
         <v>0.1</v>
@@ -5324,10 +5527,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="14">
@@ -5341,7 +5544,7 @@
         <v>200</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P6" s="19">
         <v>0.2</v>
@@ -5367,10 +5570,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="14">
@@ -5384,7 +5587,7 @@
         <v>300</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P7" s="19">
         <v>0</v>
@@ -5416,10 +5619,10 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14">
@@ -5433,7 +5636,7 @@
         <v>300</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P8" s="19">
         <v>0.02</v>
@@ -5465,10 +5668,10 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14">
@@ -5483,7 +5686,7 @@
         <v>300</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P9" s="19">
         <v>7.4999999999999997E-2</v>
@@ -5515,10 +5718,10 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="14">
@@ -5533,7 +5736,7 @@
         <v>300</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P10" s="19">
         <v>0.1</v>
@@ -5565,10 +5768,10 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="14">
@@ -5583,7 +5786,7 @@
         <v>300</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P11" s="19">
         <v>0.2</v>
@@ -5615,10 +5818,10 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="14">
@@ -5633,10 +5836,10 @@
         <v>200</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q12" s="21">
         <f>SLOPE(Q$2:Q$6,$P2:$P6)</f>
@@ -5665,10 +5868,10 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="14">
@@ -5683,10 +5886,10 @@
         <v>200</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="21">
         <f>INTERCEPT(Q$2:Q$6,$P2:$P6)</f>
@@ -5715,7 +5918,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B14" t="str">
         <f>B2</f>
@@ -5752,10 +5955,10 @@
         <v>300</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="43">
         <f>SLOPE(Q$7:Q$11,$P7:$P11)</f>
@@ -5784,7 +5987,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B15" s="17" t="str">
         <f t="shared" ref="B15:B25" si="6">B3</f>
@@ -5821,10 +6024,10 @@
         <v>300</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q15" s="43">
         <f>INTERCEPT(Q$7:Q$11,$P7:$P11)</f>
@@ -5853,7 +6056,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B16" s="17" t="str">
         <f t="shared" si="6"/>
@@ -5916,7 +6119,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B17" s="17" t="str">
         <f t="shared" si="6"/>
@@ -5979,7 +6182,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B18" s="17" t="str">
         <f t="shared" si="6"/>
@@ -6042,7 +6245,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B19" s="17" t="str">
         <f t="shared" si="6"/>
@@ -6105,7 +6308,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B20" s="17" t="str">
         <f>B8</f>
@@ -6168,7 +6371,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B21" s="17" t="str">
         <f t="shared" si="6"/>
@@ -6204,7 +6407,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B22" s="17" t="str">
         <f t="shared" si="6"/>
@@ -6240,7 +6443,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B23" s="17" t="str">
         <f t="shared" si="6"/>
@@ -6276,7 +6479,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B24" s="17" t="str">
         <f t="shared" si="6"/>
@@ -6312,7 +6515,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B25" s="17" t="str">
         <f t="shared" si="6"/>
@@ -6348,48 +6551,48 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C30" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="L30" s="34" t="s">
         <v>340</v>
-      </c>
-      <c r="L30" s="34" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
+        <v>261</v>
+      </c>
+      <c r="E31" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="F31" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="G31" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="H31" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="H31" s="34" t="s">
+      <c r="I31" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="I31" s="34" t="s">
-        <v>267</v>
-      </c>
       <c r="M31" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="N31" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="N31" s="34" t="s">
+      <c r="O31" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="O31" s="34" t="s">
+      <c r="P31" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="P31" s="34" t="s">
+      <c r="Q31" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="Q31" s="34" t="s">
+      <c r="R31" s="34" t="s">
         <v>266</v>
-      </c>
-      <c r="R31" s="34" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
@@ -6904,7 +7107,7 @@
     </row>
     <row r="47" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C47" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D47" s="44">
         <f t="shared" ref="D47:I47" si="33">SLOPE( D$42:D$46,$C$42:$C$46)</f>
@@ -6931,7 +7134,7 @@
         <v>-4248.4001872690988</v>
       </c>
       <c r="L47" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M47" s="44">
         <f>SLOPE( M$32:M$36,$L$32:$L$36)</f>
@@ -6960,7 +7163,7 @@
     </row>
     <row r="48" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C48" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D48" s="44">
         <f t="shared" ref="D48:I48" si="35">INTERCEPT( D$42:D$46,$C$42:$C$46)</f>
@@ -6987,7 +7190,7 @@
         <v>16756.64388209338</v>
       </c>
       <c r="L48" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M48" s="44">
         <f>INTERCEPT( M$32:M$36,$L$32:$L$36)</f>
@@ -7016,7 +7219,7 @@
     </row>
     <row r="50" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C50" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D50" s="46">
         <v>-3644.8139166666665</v>
@@ -7040,7 +7243,7 @@
     </row>
     <row r="51" spans="3:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C51" s="47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -7050,7 +7253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C4D92A-6996-4221-BCA6-9F7B1FEA98B2}">
   <dimension ref="A1:E41"/>
   <sheetViews>
@@ -7062,19 +7265,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" t="s">
         <v>272</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>273</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" t="s">
         <v>274</v>
-      </c>
-      <c r="D1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -7678,7 +7881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E34BFD-9265-45F1-BE2F-2D62A03D848B}">
   <dimension ref="A1:M32"/>
   <sheetViews>
@@ -7691,43 +7894,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="L1" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" s="29" t="s">
+      <c r="M1" s="29" t="s">
         <v>309</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -9007,7 +9210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B101427-E0F5-4F9E-AF35-E5B072DEE02C}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -9019,10 +9222,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" t="s">
         <v>322</v>
-      </c>
-      <c r="B1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -9139,7 +9342,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -9153,12 +9356,12 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -9169,7 +9372,7 @@
         <v>1.5</v>
       </c>
       <c r="C1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -9177,7 +9380,7 @@
         <v>201</v>
       </c>
       <c r="B2" s="1">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>2019</v>
@@ -9188,7 +9391,7 @@
         <v>202</v>
       </c>
       <c r="B3" s="1">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>2019</v>
@@ -9199,7 +9402,7 @@
         <v>203</v>
       </c>
       <c r="B4" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>2019</v>
@@ -9218,7 +9421,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B6" s="37">
         <v>2016</v>
@@ -9230,11 +9433,120 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790C9274-B2D0-4CB1-A413-BFF03ACE11B8}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="4">
+        <f>Markup*C2</f>
+        <v>750</v>
+      </c>
+      <c r="C2" s="1">
+        <v>500</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="4">
+        <f>Markup*C3</f>
+        <v>825</v>
+      </c>
+      <c r="C3" s="1">
+        <v>550</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="4">
+        <f>Markup*C4</f>
+        <v>900</v>
+      </c>
+      <c r="C4" s="1">
+        <v>600</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="4">
+        <f>Markup*C5</f>
+        <v>975</v>
+      </c>
+      <c r="C5" s="1">
+        <v>650</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="4">
+        <f>Markup*C6</f>
+        <v>600</v>
+      </c>
+      <c r="C6" s="1">
+        <v>400</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6B2318-32F9-4ECB-8F5A-79536977FADD}">
   <dimension ref="A1:AI31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9243,6 +9555,8 @@
     <col min="9" max="9" width="55.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.109375" style="34" customWidth="1"/>
+    <col min="24" max="24" width="10" customWidth="1"/>
+    <col min="25" max="25" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9274,10 +9588,10 @@
         <v>12</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>221</v>
+        <v>350</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>204</v>
@@ -9371,50 +9685,50 @@
       </c>
       <c r="J2" s="5">
         <f t="shared" ref="J2:J31" si="0">(IF(B2=8,Null_8cyl_DMC,IF(B2=6,Null_6cyl_DMC,Null_4cyl_DMC))+SUM(L2:W2))*Markup</f>
-        <v>7816.6797754480431</v>
+        <v>316.6797754480429</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ref="K2:K31" si="1">workbook_dollar_basis</f>
         <v>2016</v>
       </c>
       <c r="L2" s="5">
-        <f>IF(X2="",0,INDEX(et_dmc[dmc_base],MATCH(X2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X2="",0,INDEX(et_dmc[dmc_base],MATCH(X2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M2" s="5">
-        <f>IF(Y2="",0,INDEX(et_dmc[dmc_base],MATCH(Y2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y2="",0,INDEX(et_dmc[dmc_base],MATCH(Y2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N2" s="5">
-        <f>IF(Z2="",0,INDEX(et_dmc[dmc_base],MATCH(Z2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z2="",0,INDEX(et_dmc[dmc_base],MATCH(Z2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="O2" s="5">
-        <f>IF(AA2="",0,INDEX(et_dmc[dmc_base],MATCH(AA2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA2="",0,INDEX(et_dmc[dmc_base],MATCH(AA2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P2" s="5">
-        <f>IF(AB2="",0,INDEX(et_dmc[dmc_base],MATCH(AB2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB2="",0,INDEX(et_dmc[dmc_base],MATCH(AB2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q2" s="5">
-        <f>IF(AC2="",0,INDEX(et_dmc[dmc_base],MATCH(AC2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC2="",0,INDEX(et_dmc[dmc_base],MATCH(AC2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>85.474381017881697</v>
       </c>
       <c r="R2" s="5">
-        <f>IF(AD2="",0,INDEX(et_dmc[dmc_base],MATCH(AD2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD2="",0,INDEX(et_dmc[dmc_base],MATCH(AD2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S2" s="5">
-        <f>IF(AE2="",0,INDEX(et_dmc[dmc_base],MATCH(AE2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE2="",0,INDEX(et_dmc[dmc_base],MATCH(AE2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T2" s="5">
-        <f>IF(AF2="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF2,3),et_dmc[Tech],0),)*RIGHT(AF2,1)*C2*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF2,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF2="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF2,3),et_dmc[Tech],0),)*RIGHT(AF2,1)*C2*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF2,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>122.12269911406177</v>
       </c>
       <c r="U2" s="5">
-        <f>IF(AG2="",0,INDEX(et_dmc[dmc_base],MATCH(AG2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG2="",0,INDEX(et_dmc[dmc_base],MATCH(AG2,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K2,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG2,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V2" s="5">
@@ -9438,7 +9752,7 @@
         <v>103</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
@@ -9475,50 +9789,50 @@
       </c>
       <c r="J3" s="5">
         <f t="shared" si="0"/>
-        <v>8518.0435740559733</v>
+        <v>1018.0435740559737</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L3" s="5">
-        <f>IF(X3="",0,INDEX(et_dmc[dmc_base],MATCH(X3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X3="",0,INDEX(et_dmc[dmc_base],MATCH(X3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M3" s="5">
-        <f>IF(Y3="",0,INDEX(et_dmc[dmc_base],MATCH(Y3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y3="",0,INDEX(et_dmc[dmc_base],MATCH(Y3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N3" s="5">
-        <f>IF(Z3="",0,INDEX(et_dmc[dmc_base],MATCH(Z3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z3="",0,INDEX(et_dmc[dmc_base],MATCH(Z3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>467.57586573862051</v>
       </c>
       <c r="O3" s="5">
-        <f>IF(AA3="",0,INDEX(et_dmc[dmc_base],MATCH(AA3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA3="",0,INDEX(et_dmc[dmc_base],MATCH(AA3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P3" s="5">
-        <f>IF(AB3="",0,INDEX(et_dmc[dmc_base],MATCH(AB3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB3="",0,INDEX(et_dmc[dmc_base],MATCH(AB3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q3" s="5">
-        <f>IF(AC3="",0,INDEX(et_dmc[dmc_base],MATCH(AC3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC3="",0,INDEX(et_dmc[dmc_base],MATCH(AC3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>85.474381017881697</v>
       </c>
       <c r="R3" s="5">
-        <f>IF(AD3="",0,INDEX(et_dmc[dmc_base],MATCH(AD3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD3="",0,INDEX(et_dmc[dmc_base],MATCH(AD3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S3" s="5">
-        <f>IF(AE3="",0,INDEX(et_dmc[dmc_base],MATCH(AE3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE3="",0,INDEX(et_dmc[dmc_base],MATCH(AE3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T3" s="5">
-        <f>IF(AF3="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF3,3),et_dmc[Tech],0),)*RIGHT(AF3,1)*C3*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF3,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF3="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF3,3),et_dmc[Tech],0),)*RIGHT(AF3,1)*C3*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF3,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>122.12269911406177</v>
       </c>
       <c r="U3" s="5">
-        <f>IF(AG3="",0,INDEX(et_dmc[dmc_base],MATCH(AG3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG3="",0,INDEX(et_dmc[dmc_base],MATCH(AG3,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K3,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG3,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V3" s="5">
@@ -9544,7 +9858,7 @@
         <v>103</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
@@ -9581,50 +9895,50 @@
       </c>
       <c r="J4" s="5">
         <f t="shared" si="0"/>
-        <v>9530.9895808065103</v>
+        <v>1142.0268916281884</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L4" s="5">
-        <f>IF(X4="",0,INDEX(et_dmc[dmc_base],MATCH(X4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>592.64179278554764</v>
+        <f>IF(X4="",0,INDEX(et_dmc[dmc_base],MATCH(X4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="M4" s="5">
-        <f>IF(Y4="",0,INDEX(et_dmc[dmc_base],MATCH(Y4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y4="",0,INDEX(et_dmc[dmc_base],MATCH(Y4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N4" s="5">
-        <f>IF(Z4="",0,INDEX(et_dmc[dmc_base],MATCH(Z4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z4="",0,INDEX(et_dmc[dmc_base],MATCH(Z4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>467.57586573862051</v>
       </c>
       <c r="O4" s="5">
-        <f>IF(AA4="",0,INDEX(et_dmc[dmc_base],MATCH(AA4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA4="",0,INDEX(et_dmc[dmc_base],MATCH(AA4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P4" s="5">
-        <f>IF(AB4="",0,INDEX(et_dmc[dmc_base],MATCH(AB4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB4="",0,INDEX(et_dmc[dmc_base],MATCH(AB4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q4" s="5">
-        <f>IF(AC4="",0,INDEX(et_dmc[dmc_base],MATCH(AC4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC4="",0,INDEX(et_dmc[dmc_base],MATCH(AC4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>168.12992606602478</v>
       </c>
       <c r="R4" s="5">
-        <f>IF(AD4="",0,INDEX(et_dmc[dmc_base],MATCH(AD4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD4="",0,INDEX(et_dmc[dmc_base],MATCH(AD4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S4" s="5">
-        <f>IF(AE4="",0,INDEX(et_dmc[dmc_base],MATCH(AE4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE4="",0,INDEX(et_dmc[dmc_base],MATCH(AE4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T4" s="5">
-        <f>IF(AF4="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF4,3),et_dmc[Tech],0),)*RIGHT(AF4,1)*C4*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF4,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF4="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF4,3),et_dmc[Tech],0),)*RIGHT(AF4,1)*C4*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF4,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>122.12269911406177</v>
       </c>
       <c r="U4" s="5">
-        <f>IF(AG4="",0,INDEX(et_dmc[dmc_base],MATCH(AG4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG4="",0,INDEX(et_dmc[dmc_base],MATCH(AG4,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K4,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG4,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V4" s="5">
@@ -9635,8 +9949,9 @@
         <f>IF(AI4="",0,INDEX(et_dmc[dmc_base],MATCH(AI4,et_dmc[Tech],0),))</f>
         <v>0</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>141</v>
+      <c r="X4" s="1" t="str">
+        <f>IF(Null_8cyl_DMC=0,"","V8 OHV to V8 DOHC")</f>
+        <v/>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1" t="s">
@@ -9652,7 +9967,7 @@
         <v>103</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
@@ -9689,50 +10004,50 @@
       </c>
       <c r="J5" s="5">
         <f t="shared" si="0"/>
-        <v>10256.112530352484</v>
+        <v>2215.1000303524843</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L5" s="5">
-        <f>IF(X5="",0,INDEX(et_dmc[dmc_base],MATCH(X5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X5="",0,INDEX(et_dmc[dmc_base],MATCH(X5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M5" s="5">
-        <f>IF(Y5="",0,INDEX(et_dmc[dmc_base],MATCH(Y5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>360.67499999999995</v>
+        <f>IF(Y5="",0,INDEX(et_dmc[dmc_base],MATCH(Y5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="N5" s="5">
-        <f>IF(Z5="",0,INDEX(et_dmc[dmc_base],MATCH(Z5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z5="",0,INDEX(et_dmc[dmc_base],MATCH(Z5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>388.75234649999999</v>
       </c>
       <c r="O5" s="5">
-        <f>IF(AA5="",0,INDEX(et_dmc[dmc_base],MATCH(AA5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA5="",0,INDEX(et_dmc[dmc_base],MATCH(AA5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>824.73628650000001</v>
       </c>
       <c r="P5" s="5">
-        <f>IF(AB5="",0,INDEX(et_dmc[dmc_base],MATCH(AB5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB5="",0,INDEX(et_dmc[dmc_base],MATCH(AB5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q5" s="5">
-        <f>IF(AC5="",0,INDEX(et_dmc[dmc_base],MATCH(AC5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC5="",0,INDEX(et_dmc[dmc_base],MATCH(AC5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>168.12992606602478</v>
       </c>
       <c r="R5" s="5">
-        <f>IF(AD5="",0,INDEX(et_dmc[dmc_base],MATCH(AD5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD5="",0,INDEX(et_dmc[dmc_base],MATCH(AD5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S5" s="5">
-        <f>IF(AE5="",0,INDEX(et_dmc[dmc_base],MATCH(AE5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE5="",0,INDEX(et_dmc[dmc_base],MATCH(AE5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T5" s="5">
-        <f>IF(AF5="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF5,3),et_dmc[Tech],0),)*RIGHT(AF5,1)*C5*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF5,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF5="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF5,3),et_dmc[Tech],0),)*RIGHT(AF5,1)*C5*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF5,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>91.592024335546327</v>
       </c>
       <c r="U5" s="5">
-        <f>IF(AG5="",0,INDEX(et_dmc[dmc_base],MATCH(AG5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG5="",0,INDEX(et_dmc[dmc_base],MATCH(AG5,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K5,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG5,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V5" s="5">
@@ -9744,8 +10059,9 @@
         <v>0</v>
       </c>
       <c r="X5" s="1"/>
-      <c r="Y5" s="1" t="s">
-        <v>139</v>
+      <c r="Y5" s="1" t="str">
+        <f>IF(Null_8cyl_DMC=0,"","V8 OHV to V6 DOHC wT")</f>
+        <v/>
       </c>
       <c r="Z5" s="1" t="s">
         <v>86</v>
@@ -9762,7 +10078,7 @@
         <v>103</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
@@ -9799,50 +10115,50 @@
       </c>
       <c r="J6" s="5">
         <f t="shared" si="0"/>
-        <v>10256.112530352484</v>
+        <v>2215.1000303524843</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L6" s="5">
-        <f>IF(X6="",0,INDEX(et_dmc[dmc_base],MATCH(X6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X6="",0,INDEX(et_dmc[dmc_base],MATCH(X6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M6" s="5">
-        <f>IF(Y6="",0,INDEX(et_dmc[dmc_base],MATCH(Y6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>360.67499999999995</v>
+        <f>IF(Y6="",0,INDEX(et_dmc[dmc_base],MATCH(Y6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="N6" s="5">
-        <f>IF(Z6="",0,INDEX(et_dmc[dmc_base],MATCH(Z6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z6="",0,INDEX(et_dmc[dmc_base],MATCH(Z6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>388.75234649999999</v>
       </c>
       <c r="O6" s="5">
-        <f>IF(AA6="",0,INDEX(et_dmc[dmc_base],MATCH(AA6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA6="",0,INDEX(et_dmc[dmc_base],MATCH(AA6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>824.73628650000001</v>
       </c>
       <c r="P6" s="5">
-        <f>IF(AB6="",0,INDEX(et_dmc[dmc_base],MATCH(AB6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB6="",0,INDEX(et_dmc[dmc_base],MATCH(AB6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q6" s="5">
-        <f>IF(AC6="",0,INDEX(et_dmc[dmc_base],MATCH(AC6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC6="",0,INDEX(et_dmc[dmc_base],MATCH(AC6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>168.12992606602478</v>
       </c>
       <c r="R6" s="5">
-        <f>IF(AD6="",0,INDEX(et_dmc[dmc_base],MATCH(AD6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD6="",0,INDEX(et_dmc[dmc_base],MATCH(AD6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S6" s="5">
-        <f>IF(AE6="",0,INDEX(et_dmc[dmc_base],MATCH(AE6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE6="",0,INDEX(et_dmc[dmc_base],MATCH(AE6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T6" s="5">
-        <f>IF(AF6="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF6,3),et_dmc[Tech],0),)*RIGHT(AF6,1)*C6*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF6,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF6="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF6,3),et_dmc[Tech],0),)*RIGHT(AF6,1)*C6*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF6,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>91.592024335546327</v>
       </c>
       <c r="U6" s="5">
-        <f>IF(AG6="",0,INDEX(et_dmc[dmc_base],MATCH(AG6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG6="",0,INDEX(et_dmc[dmc_base],MATCH(AG6,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K6,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG6,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V6" s="5">
@@ -9854,8 +10170,9 @@
         <v>0</v>
       </c>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1" t="s">
-        <v>139</v>
+      <c r="Y6" s="1" t="str">
+        <f>IF(Null_8cyl_DMC=0,"","V8 OHV to V6 DOHC wT")</f>
+        <v/>
       </c>
       <c r="Z6" s="1" t="s">
         <v>86</v>
@@ -9872,7 +10189,7 @@
         <v>103</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -9909,50 +10226,50 @@
       </c>
       <c r="J7" s="5">
         <f t="shared" si="0"/>
-        <v>9360.1873845834307</v>
+        <v>2357.7722221059312</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L7" s="5">
-        <f>IF(X7="",0,INDEX(et_dmc[dmc_base],MATCH(X7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X7="",0,INDEX(et_dmc[dmc_base],MATCH(X7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M7" s="5">
-        <f>IF(Y7="",0,INDEX(et_dmc[dmc_base],MATCH(Y7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>-331.72322501499997</v>
+        <f>IF(Y7="",0,INDEX(et_dmc[dmc_base],MATCH(Y7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="N7" s="5">
-        <f>IF(Z7="",0,INDEX(et_dmc[dmc_base],MATCH(Z7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z7="",0,INDEX(et_dmc[dmc_base],MATCH(Z7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>388.75234649999999</v>
       </c>
       <c r="O7" s="5">
-        <f>IF(AA7="",0,INDEX(et_dmc[dmc_base],MATCH(AA7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA7="",0,INDEX(et_dmc[dmc_base],MATCH(AA7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>824.73628650000001</v>
       </c>
       <c r="P7" s="5">
-        <f>IF(AB7="",0,INDEX(et_dmc[dmc_base],MATCH(AB7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB7="",0,INDEX(et_dmc[dmc_base],MATCH(AB7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q7" s="5">
-        <f>IF(AC7="",0,INDEX(et_dmc[dmc_base],MATCH(AC7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC7="",0,INDEX(et_dmc[dmc_base],MATCH(AC7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>168.12992606602478</v>
       </c>
       <c r="R7" s="5">
-        <f>IF(AD7="",0,INDEX(et_dmc[dmc_base],MATCH(AD7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD7="",0,INDEX(et_dmc[dmc_base],MATCH(AD7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S7" s="5">
-        <f>IF(AE7="",0,INDEX(et_dmc[dmc_base],MATCH(AE7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE7="",0,INDEX(et_dmc[dmc_base],MATCH(AE7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>7.0455403335035642</v>
       </c>
       <c r="T7" s="5">
-        <f>IF(AF7="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF7,3),et_dmc[Tech],0),)*RIGHT(AF7,1)*C7*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF7,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF7="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF7,3),et_dmc[Tech],0),)*RIGHT(AF7,1)*C7*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF7,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>183.18404867109265</v>
       </c>
       <c r="U7" s="5">
-        <f>IF(AG7="",0,INDEX(et_dmc[dmc_base],MATCH(AG7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG7="",0,INDEX(et_dmc[dmc_base],MATCH(AG7,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K7,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG7,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V7" s="5">
@@ -9964,8 +10281,9 @@
         <v>0</v>
       </c>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1" t="s">
-        <v>135</v>
+      <c r="Y7" s="1" t="str">
+        <f>IF(Null_8cyl_DMC=0,"","V8 DOHC to V6 DOHC wT")</f>
+        <v/>
       </c>
       <c r="Z7" s="1" t="s">
         <v>86</v>
@@ -9982,7 +10300,7 @@
         <v>24</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -10019,50 +10337,50 @@
       </c>
       <c r="J8" s="5">
         <f t="shared" si="0"/>
-        <v>7144.8670808524839</v>
+        <v>394.86708085248426</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L8" s="5">
-        <f>IF(X8="",0,INDEX(et_dmc[dmc_base],MATCH(X8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X8="",0,INDEX(et_dmc[dmc_base],MATCH(X8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M8" s="5">
-        <f>IF(Y8="",0,INDEX(et_dmc[dmc_base],MATCH(Y8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y8="",0,INDEX(et_dmc[dmc_base],MATCH(Y8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N8" s="5">
-        <f>IF(Z8="",0,INDEX(et_dmc[dmc_base],MATCH(Z8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z8="",0,INDEX(et_dmc[dmc_base],MATCH(Z8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <f>IF(AA8="",0,INDEX(et_dmc[dmc_base],MATCH(AA8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA8="",0,INDEX(et_dmc[dmc_base],MATCH(AA8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P8" s="5">
-        <f>IF(AB8="",0,INDEX(et_dmc[dmc_base],MATCH(AB8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB8="",0,INDEX(et_dmc[dmc_base],MATCH(AB8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q8" s="5">
-        <f>IF(AC8="",0,INDEX(et_dmc[dmc_base],MATCH(AC8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC8="",0,INDEX(et_dmc[dmc_base],MATCH(AC8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>168.12992606602478</v>
       </c>
       <c r="R8" s="5">
-        <f>IF(AD8="",0,INDEX(et_dmc[dmc_base],MATCH(AD8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD8="",0,INDEX(et_dmc[dmc_base],MATCH(AD8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S8" s="5">
-        <f>IF(AE8="",0,INDEX(et_dmc[dmc_base],MATCH(AE8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE8="",0,INDEX(et_dmc[dmc_base],MATCH(AE8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T8" s="5">
-        <f>IF(AF8="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF8,3),et_dmc[Tech],0),)*RIGHT(AF8,1)*C8*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF8,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF8="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF8,3),et_dmc[Tech],0),)*RIGHT(AF8,1)*C8*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF8,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>91.592024335546327</v>
       </c>
       <c r="U8" s="5">
-        <f>IF(AG8="",0,INDEX(et_dmc[dmc_base],MATCH(AG8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG8="",0,INDEX(et_dmc[dmc_base],MATCH(AG8,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K8,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG8,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V8" s="5">
@@ -10086,7 +10404,7 @@
         <v>103</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -10123,50 +10441,50 @@
       </c>
       <c r="J9" s="5">
         <f t="shared" si="0"/>
-        <v>7727.995600602485</v>
+        <v>977.99560060248427</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L9" s="5">
-        <f>IF(X9="",0,INDEX(et_dmc[dmc_base],MATCH(X9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X9="",0,INDEX(et_dmc[dmc_base],MATCH(X9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M9" s="5">
-        <f>IF(Y9="",0,INDEX(et_dmc[dmc_base],MATCH(Y9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y9="",0,INDEX(et_dmc[dmc_base],MATCH(Y9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N9" s="5">
-        <f>IF(Z9="",0,INDEX(et_dmc[dmc_base],MATCH(Z9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z9="",0,INDEX(et_dmc[dmc_base],MATCH(Z9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>388.75234649999999</v>
       </c>
       <c r="O9" s="5">
-        <f>IF(AA9="",0,INDEX(et_dmc[dmc_base],MATCH(AA9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA9="",0,INDEX(et_dmc[dmc_base],MATCH(AA9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P9" s="5">
-        <f>IF(AB9="",0,INDEX(et_dmc[dmc_base],MATCH(AB9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB9="",0,INDEX(et_dmc[dmc_base],MATCH(AB9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q9" s="5">
-        <f>IF(AC9="",0,INDEX(et_dmc[dmc_base],MATCH(AC9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC9="",0,INDEX(et_dmc[dmc_base],MATCH(AC9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>168.12992606602478</v>
       </c>
       <c r="R9" s="5">
-        <f>IF(AD9="",0,INDEX(et_dmc[dmc_base],MATCH(AD9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD9="",0,INDEX(et_dmc[dmc_base],MATCH(AD9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S9" s="5">
-        <f>IF(AE9="",0,INDEX(et_dmc[dmc_base],MATCH(AE9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE9="",0,INDEX(et_dmc[dmc_base],MATCH(AE9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T9" s="5">
-        <f>IF(AF9="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF9,3),et_dmc[Tech],0),)*RIGHT(AF9,1)*C9*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF9,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF9="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF9,3),et_dmc[Tech],0),)*RIGHT(AF9,1)*C9*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF9,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>91.592024335546327</v>
       </c>
       <c r="U9" s="5">
-        <f>IF(AG9="",0,INDEX(et_dmc[dmc_base],MATCH(AG9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG9="",0,INDEX(et_dmc[dmc_base],MATCH(AG9,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K9,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG9,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V9" s="5">
@@ -10192,7 +10510,7 @@
         <v>103</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
@@ -10229,50 +10547,50 @@
       </c>
       <c r="J10" s="5">
         <f t="shared" si="0"/>
-        <v>7444.4071823037157</v>
+        <v>394.86708085248426</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L10" s="5">
-        <f>IF(X10="",0,INDEX(et_dmc[dmc_base],MATCH(X10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>199.693400967488</v>
+        <f>IF(X10="",0,INDEX(et_dmc[dmc_base],MATCH(X10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="M10" s="5">
-        <f>IF(Y10="",0,INDEX(et_dmc[dmc_base],MATCH(Y10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y10="",0,INDEX(et_dmc[dmc_base],MATCH(Y10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N10" s="5">
-        <f>IF(Z10="",0,INDEX(et_dmc[dmc_base],MATCH(Z10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z10="",0,INDEX(et_dmc[dmc_base],MATCH(Z10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="O10" s="5">
-        <f>IF(AA10="",0,INDEX(et_dmc[dmc_base],MATCH(AA10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA10="",0,INDEX(et_dmc[dmc_base],MATCH(AA10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P10" s="5">
-        <f>IF(AB10="",0,INDEX(et_dmc[dmc_base],MATCH(AB10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB10="",0,INDEX(et_dmc[dmc_base],MATCH(AB10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q10" s="5">
-        <f>IF(AC10="",0,INDEX(et_dmc[dmc_base],MATCH(AC10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC10="",0,INDEX(et_dmc[dmc_base],MATCH(AC10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>168.12992606602478</v>
       </c>
       <c r="R10" s="5">
-        <f>IF(AD10="",0,INDEX(et_dmc[dmc_base],MATCH(AD10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD10="",0,INDEX(et_dmc[dmc_base],MATCH(AD10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S10" s="5">
-        <f>IF(AE10="",0,INDEX(et_dmc[dmc_base],MATCH(AE10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE10="",0,INDEX(et_dmc[dmc_base],MATCH(AE10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T10" s="5">
-        <f>IF(AF10="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF10,3),et_dmc[Tech],0),)*RIGHT(AF10,1)*C10*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF10,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF10="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF10,3),et_dmc[Tech],0),)*RIGHT(AF10,1)*C10*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF10,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>91.592024335546327</v>
       </c>
       <c r="U10" s="5">
-        <f>IF(AG10="",0,INDEX(et_dmc[dmc_base],MATCH(AG10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG10="",0,INDEX(et_dmc[dmc_base],MATCH(AG10,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K10,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG10,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V10" s="5">
@@ -10283,8 +10601,9 @@
         <f>IF(AI10="",0,INDEX(et_dmc[dmc_base],MATCH(AI10,et_dmc[Tech],0),))</f>
         <v>0</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>131</v>
+      <c r="X10" s="1" t="str">
+        <f>IF(Null_6cyl_DMC=0,"","V6 SOHC to V6 DOHC")</f>
+        <v/>
       </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -10298,7 +10617,7 @@
         <v>103</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
@@ -10335,50 +10654,50 @@
       </c>
       <c r="J11" s="5">
         <f t="shared" si="0"/>
-        <v>8027.5357020537167</v>
+        <v>977.99560060248427</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L11" s="5">
-        <f>IF(X11="",0,INDEX(et_dmc[dmc_base],MATCH(X11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>199.693400967488</v>
+        <f>IF(X11="",0,INDEX(et_dmc[dmc_base],MATCH(X11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="M11" s="5">
-        <f>IF(Y11="",0,INDEX(et_dmc[dmc_base],MATCH(Y11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y11="",0,INDEX(et_dmc[dmc_base],MATCH(Y11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N11" s="5">
-        <f>IF(Z11="",0,INDEX(et_dmc[dmc_base],MATCH(Z11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z11="",0,INDEX(et_dmc[dmc_base],MATCH(Z11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>388.75234649999999</v>
       </c>
       <c r="O11" s="5">
-        <f>IF(AA11="",0,INDEX(et_dmc[dmc_base],MATCH(AA11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA11="",0,INDEX(et_dmc[dmc_base],MATCH(AA11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P11" s="5">
-        <f>IF(AB11="",0,INDEX(et_dmc[dmc_base],MATCH(AB11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB11="",0,INDEX(et_dmc[dmc_base],MATCH(AB11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q11" s="5">
-        <f>IF(AC11="",0,INDEX(et_dmc[dmc_base],MATCH(AC11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC11="",0,INDEX(et_dmc[dmc_base],MATCH(AC11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>168.12992606602478</v>
       </c>
       <c r="R11" s="5">
-        <f>IF(AD11="",0,INDEX(et_dmc[dmc_base],MATCH(AD11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD11="",0,INDEX(et_dmc[dmc_base],MATCH(AD11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S11" s="5">
-        <f>IF(AE11="",0,INDEX(et_dmc[dmc_base],MATCH(AE11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE11="",0,INDEX(et_dmc[dmc_base],MATCH(AE11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T11" s="5">
-        <f>IF(AF11="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF11,3),et_dmc[Tech],0),)*RIGHT(AF11,1)*C11*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF11,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF11="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF11,3),et_dmc[Tech],0),)*RIGHT(AF11,1)*C11*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF11,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>91.592024335546327</v>
       </c>
       <c r="U11" s="5">
-        <f>IF(AG11="",0,INDEX(et_dmc[dmc_base],MATCH(AG11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG11="",0,INDEX(et_dmc[dmc_base],MATCH(AG11,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K11,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG11,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V11" s="5">
@@ -10389,8 +10708,9 @@
         <f>IF(AI11="",0,INDEX(et_dmc[dmc_base],MATCH(AI11,et_dmc[Tech],0),))</f>
         <v>0</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>131</v>
+      <c r="X11" s="1" t="str">
+        <f>IF(Null_6cyl_DMC=0,"","V6 SOHC to V6 DOHC")</f>
+        <v/>
       </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1" t="s">
@@ -10406,7 +10726,7 @@
         <v>103</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
@@ -10443,50 +10763,50 @@
       </c>
       <c r="J12" s="5">
         <f t="shared" si="0"/>
-        <v>7390.6322528277615</v>
+        <v>1335.2454992352611</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L12" s="5">
-        <f>IF(X12="",0,INDEX(et_dmc[dmc_base],MATCH(X12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X12="",0,INDEX(et_dmc[dmc_base],MATCH(X12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M12" s="5">
-        <f>IF(Y12="",0,INDEX(et_dmc[dmc_base],MATCH(Y12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>-463.07549760500001</v>
+        <f>IF(Y12="",0,INDEX(et_dmc[dmc_base],MATCH(Y12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="N12" s="5">
-        <f>IF(Z12="",0,INDEX(et_dmc[dmc_base],MATCH(Z12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z12="",0,INDEX(et_dmc[dmc_base],MATCH(Z12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>257.95716449999998</v>
       </c>
       <c r="O12" s="5">
-        <f>IF(AA12="",0,INDEX(et_dmc[dmc_base],MATCH(AA12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA12="",0,INDEX(et_dmc[dmc_base],MATCH(AA12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>489.27086599999996</v>
       </c>
       <c r="P12" s="5">
-        <f>IF(AB12="",0,INDEX(et_dmc[dmc_base],MATCH(AB12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB12="",0,INDEX(et_dmc[dmc_base],MATCH(AB12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q12" s="5">
-        <f>IF(AC12="",0,INDEX(et_dmc[dmc_base],MATCH(AC12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC12="",0,INDEX(et_dmc[dmc_base],MATCH(AC12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>78.351515933058238</v>
       </c>
       <c r="R12" s="5">
-        <f>IF(AD12="",0,INDEX(et_dmc[dmc_base],MATCH(AD12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD12="",0,INDEX(et_dmc[dmc_base],MATCH(AD12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S12" s="5">
-        <f>IF(AE12="",0,INDEX(et_dmc[dmc_base],MATCH(AE12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE12="",0,INDEX(et_dmc[dmc_base],MATCH(AE12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T12" s="5">
-        <f>IF(AF12="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF12,3),et_dmc[Tech],0),)*RIGHT(AF12,1)*C12*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF12,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF12="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF12,3),et_dmc[Tech],0),)*RIGHT(AF12,1)*C12*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF12,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>61.061349557030887</v>
       </c>
       <c r="U12" s="5">
-        <f>IF(AG12="",0,INDEX(et_dmc[dmc_base],MATCH(AG12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG12="",0,INDEX(et_dmc[dmc_base],MATCH(AG12,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K12,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG12,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V12" s="5">
@@ -10498,8 +10818,9 @@
         <v>0</v>
       </c>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1" t="s">
-        <v>127</v>
+      <c r="Y12" s="1" t="str">
+        <f>IF(Null_6cyl_DMC=0,"","V6 SOHC to I4 wT")</f>
+        <v/>
       </c>
       <c r="Z12" s="1" t="s">
         <v>81</v>
@@ -10516,7 +10837,7 @@
         <v>103</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
@@ -10553,50 +10874,50 @@
       </c>
       <c r="J13" s="5">
         <f t="shared" si="0"/>
-        <v>7074.1495181513747</v>
+        <v>1312.3474931513747</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L13" s="5">
-        <f>IF(X13="",0,INDEX(et_dmc[dmc_base],MATCH(X13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X13="",0,INDEX(et_dmc[dmc_base],MATCH(X13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M13" s="5">
-        <f>IF(Y13="",0,INDEX(et_dmc[dmc_base],MATCH(Y13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>-658.79864999999995</v>
+        <f>IF(Y13="",0,INDEX(et_dmc[dmc_base],MATCH(Y13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="N13" s="5">
-        <f>IF(Z13="",0,INDEX(et_dmc[dmc_base],MATCH(Z13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z13="",0,INDEX(et_dmc[dmc_base],MATCH(Z13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>257.95716449999998</v>
       </c>
       <c r="O13" s="5">
-        <f>IF(AA13="",0,INDEX(et_dmc[dmc_base],MATCH(AA13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA13="",0,INDEX(et_dmc[dmc_base],MATCH(AA13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>489.27086599999996</v>
       </c>
       <c r="P13" s="5">
-        <f>IF(AB13="",0,INDEX(et_dmc[dmc_base],MATCH(AB13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB13="",0,INDEX(et_dmc[dmc_base],MATCH(AB13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q13" s="5">
-        <f>IF(AC13="",0,INDEX(et_dmc[dmc_base],MATCH(AC13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC13="",0,INDEX(et_dmc[dmc_base],MATCH(AC13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>78.351515933058238</v>
       </c>
       <c r="R13" s="5">
-        <f>IF(AD13="",0,INDEX(et_dmc[dmc_base],MATCH(AD13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD13="",0,INDEX(et_dmc[dmc_base],MATCH(AD13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S13" s="5">
-        <f>IF(AE13="",0,INDEX(et_dmc[dmc_base],MATCH(AE13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE13="",0,INDEX(et_dmc[dmc_base],MATCH(AE13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T13" s="5">
-        <f>IF(AF13="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF13,3),et_dmc[Tech],0),)*RIGHT(AF13,1)*C13*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF13,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF13="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF13,3),et_dmc[Tech],0),)*RIGHT(AF13,1)*C13*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF13,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>45.796012167773164</v>
       </c>
       <c r="U13" s="5">
-        <f>IF(AG13="",0,INDEX(et_dmc[dmc_base],MATCH(AG13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG13="",0,INDEX(et_dmc[dmc_base],MATCH(AG13,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K13,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG13,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V13" s="5">
@@ -10608,8 +10929,9 @@
         <v>0</v>
       </c>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1" t="s">
-        <v>125</v>
+      <c r="Y13" s="1" t="str">
+        <f>IF(Null_6cyl_DMC=0,"","V6 SOHC to I3 DOHC wT")</f>
+        <v/>
       </c>
       <c r="Z13" s="1" t="s">
         <v>84</v>
@@ -10626,7 +10948,7 @@
         <v>103</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
@@ -10663,50 +10985,50 @@
       </c>
       <c r="J14" s="5">
         <f t="shared" si="0"/>
-        <v>8027.5357020537167</v>
+        <v>977.99560060248427</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L14" s="5">
-        <f>IF(X14="",0,INDEX(et_dmc[dmc_base],MATCH(X14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>199.693400967488</v>
+        <f>IF(X14="",0,INDEX(et_dmc[dmc_base],MATCH(X14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="M14" s="5">
-        <f>IF(Y14="",0,INDEX(et_dmc[dmc_base],MATCH(Y14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y14="",0,INDEX(et_dmc[dmc_base],MATCH(Y14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N14" s="5">
-        <f>IF(Z14="",0,INDEX(et_dmc[dmc_base],MATCH(Z14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z14="",0,INDEX(et_dmc[dmc_base],MATCH(Z14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>388.75234649999999</v>
       </c>
       <c r="O14" s="5">
-        <f>IF(AA14="",0,INDEX(et_dmc[dmc_base],MATCH(AA14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA14="",0,INDEX(et_dmc[dmc_base],MATCH(AA14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P14" s="5">
-        <f>IF(AB14="",0,INDEX(et_dmc[dmc_base],MATCH(AB14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB14="",0,INDEX(et_dmc[dmc_base],MATCH(AB14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q14" s="5">
-        <f>IF(AC14="",0,INDEX(et_dmc[dmc_base],MATCH(AC14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC14="",0,INDEX(et_dmc[dmc_base],MATCH(AC14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>168.12992606602478</v>
       </c>
       <c r="R14" s="5">
-        <f>IF(AD14="",0,INDEX(et_dmc[dmc_base],MATCH(AD14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD14="",0,INDEX(et_dmc[dmc_base],MATCH(AD14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S14" s="5">
-        <f>IF(AE14="",0,INDEX(et_dmc[dmc_base],MATCH(AE14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE14="",0,INDEX(et_dmc[dmc_base],MATCH(AE14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T14" s="5">
-        <f>IF(AF14="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF14,3),et_dmc[Tech],0),)*RIGHT(AF14,1)*C14*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF14,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF14="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF14,3),et_dmc[Tech],0),)*RIGHT(AF14,1)*C14*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF14,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>91.592024335546327</v>
       </c>
       <c r="U14" s="5">
-        <f>IF(AG14="",0,INDEX(et_dmc[dmc_base],MATCH(AG14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG14="",0,INDEX(et_dmc[dmc_base],MATCH(AG14,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K14,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG14,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V14" s="5">
@@ -10717,8 +11039,9 @@
         <f>IF(AI14="",0,INDEX(et_dmc[dmc_base],MATCH(AI14,et_dmc[Tech],0),))</f>
         <v>0</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>131</v>
+      <c r="X14" s="1" t="str">
+        <f>IF(Null_6cyl_DMC=0,"","V6 SOHC to V6 DOHC")</f>
+        <v/>
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1" t="s">
@@ -10736,7 +11059,7 @@
         <v>103</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
@@ -10773,50 +11096,50 @@
       </c>
       <c r="J15" s="5">
         <f t="shared" si="0"/>
-        <v>7444.4071823037157</v>
+        <v>394.86708085248426</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L15" s="5">
-        <f>IF(X15="",0,INDEX(et_dmc[dmc_base],MATCH(X15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>199.693400967488</v>
+        <f>IF(X15="",0,INDEX(et_dmc[dmc_base],MATCH(X15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="M15" s="5">
-        <f>IF(Y15="",0,INDEX(et_dmc[dmc_base],MATCH(Y15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y15="",0,INDEX(et_dmc[dmc_base],MATCH(Y15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N15" s="5">
-        <f>IF(Z15="",0,INDEX(et_dmc[dmc_base],MATCH(Z15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z15="",0,INDEX(et_dmc[dmc_base],MATCH(Z15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="O15" s="5">
-        <f>IF(AA15="",0,INDEX(et_dmc[dmc_base],MATCH(AA15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA15="",0,INDEX(et_dmc[dmc_base],MATCH(AA15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P15" s="5">
-        <f>IF(AB15="",0,INDEX(et_dmc[dmc_base],MATCH(AB15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB15="",0,INDEX(et_dmc[dmc_base],MATCH(AB15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q15" s="5">
-        <f>IF(AC15="",0,INDEX(et_dmc[dmc_base],MATCH(AC15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC15="",0,INDEX(et_dmc[dmc_base],MATCH(AC15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>168.12992606602478</v>
       </c>
       <c r="R15" s="5">
-        <f>IF(AD15="",0,INDEX(et_dmc[dmc_base],MATCH(AD15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD15="",0,INDEX(et_dmc[dmc_base],MATCH(AD15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S15" s="5">
-        <f>IF(AE15="",0,INDEX(et_dmc[dmc_base],MATCH(AE15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE15="",0,INDEX(et_dmc[dmc_base],MATCH(AE15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T15" s="5">
-        <f>IF(AF15="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF15,3),et_dmc[Tech],0),)*RIGHT(AF15,1)*C15*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF15,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF15="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF15,3),et_dmc[Tech],0),)*RIGHT(AF15,1)*C15*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF15,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>91.592024335546327</v>
       </c>
       <c r="U15" s="5">
-        <f>IF(AG15="",0,INDEX(et_dmc[dmc_base],MATCH(AG15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG15="",0,INDEX(et_dmc[dmc_base],MATCH(AG15,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K15,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG15,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V15" s="5">
@@ -10827,8 +11150,9 @@
         <f>IF(AI15="",0,INDEX(et_dmc[dmc_base],MATCH(AI15,et_dmc[Tech],0),))</f>
         <v>0</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>131</v>
+      <c r="X15" s="1" t="str">
+        <f>IF(Null_6cyl_DMC=0,"","V6 SOHC to V6 DOHC")</f>
+        <v/>
       </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
@@ -10842,7 +11166,7 @@
         <v>103</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
@@ -10879,50 +11203,50 @@
       </c>
       <c r="J16" s="5">
         <f t="shared" si="0"/>
-        <v>7727.995600602485</v>
+        <v>977.99560060248427</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L16" s="5">
-        <f>IF(X16="",0,INDEX(et_dmc[dmc_base],MATCH(X16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X16="",0,INDEX(et_dmc[dmc_base],MATCH(X16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M16" s="5">
-        <f>IF(Y16="",0,INDEX(et_dmc[dmc_base],MATCH(Y16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y16="",0,INDEX(et_dmc[dmc_base],MATCH(Y16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N16" s="5">
-        <f>IF(Z16="",0,INDEX(et_dmc[dmc_base],MATCH(Z16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z16="",0,INDEX(et_dmc[dmc_base],MATCH(Z16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>388.75234649999999</v>
       </c>
       <c r="O16" s="5">
-        <f>IF(AA16="",0,INDEX(et_dmc[dmc_base],MATCH(AA16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA16="",0,INDEX(et_dmc[dmc_base],MATCH(AA16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P16" s="5">
-        <f>IF(AB16="",0,INDEX(et_dmc[dmc_base],MATCH(AB16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB16="",0,INDEX(et_dmc[dmc_base],MATCH(AB16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q16" s="5">
-        <f>IF(AC16="",0,INDEX(et_dmc[dmc_base],MATCH(AC16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC16="",0,INDEX(et_dmc[dmc_base],MATCH(AC16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>168.12992606602478</v>
       </c>
       <c r="R16" s="5">
-        <f>IF(AD16="",0,INDEX(et_dmc[dmc_base],MATCH(AD16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD16="",0,INDEX(et_dmc[dmc_base],MATCH(AD16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S16" s="5">
-        <f>IF(AE16="",0,INDEX(et_dmc[dmc_base],MATCH(AE16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE16="",0,INDEX(et_dmc[dmc_base],MATCH(AE16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T16" s="5">
-        <f>IF(AF16="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF16,3),et_dmc[Tech],0),)*RIGHT(AF16,1)*C16*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF16,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF16="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF16,3),et_dmc[Tech],0),)*RIGHT(AF16,1)*C16*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF16,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>91.592024335546327</v>
       </c>
       <c r="U16" s="5">
-        <f>IF(AG16="",0,INDEX(et_dmc[dmc_base],MATCH(AG16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG16="",0,INDEX(et_dmc[dmc_base],MATCH(AG16,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K16,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG16,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V16" s="5">
@@ -10948,7 +11272,7 @@
         <v>103</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
@@ -10985,50 +11309,50 @@
       </c>
       <c r="J17" s="5">
         <f t="shared" si="0"/>
-        <v>8563.3552399101318</v>
+        <v>1513.8151384588996</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L17" s="5">
-        <f>IF(X17="",0,INDEX(et_dmc[dmc_base],MATCH(X17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>199.693400967488</v>
+        <f>IF(X17="",0,INDEX(et_dmc[dmc_base],MATCH(X17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="M17" s="5">
-        <f>IF(Y17="",0,INDEX(et_dmc[dmc_base],MATCH(Y17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y17="",0,INDEX(et_dmc[dmc_base],MATCH(Y17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N17" s="5">
-        <f>IF(Z17="",0,INDEX(et_dmc[dmc_base],MATCH(Z17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z17="",0,INDEX(et_dmc[dmc_base],MATCH(Z17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>388.75234649999999</v>
       </c>
       <c r="O17" s="5">
-        <f>IF(AA17="",0,INDEX(et_dmc[dmc_base],MATCH(AA17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA17="",0,INDEX(et_dmc[dmc_base],MATCH(AA17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P17" s="5">
-        <f>IF(AB17="",0,INDEX(et_dmc[dmc_base],MATCH(AB17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB17="",0,INDEX(et_dmc[dmc_base],MATCH(AB17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>141.96724552331207</v>
       </c>
       <c r="Q17" s="5">
-        <f>IF(AC17="",0,INDEX(et_dmc[dmc_base],MATCH(AC17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC17="",0,INDEX(et_dmc[dmc_base],MATCH(AC17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>168.12992606602478</v>
       </c>
       <c r="R17" s="5">
-        <f>IF(AD17="",0,INDEX(et_dmc[dmc_base],MATCH(AD17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD17="",0,INDEX(et_dmc[dmc_base],MATCH(AD17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S17" s="5">
-        <f>IF(AE17="",0,INDEX(et_dmc[dmc_base],MATCH(AE17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE17="",0,INDEX(et_dmc[dmc_base],MATCH(AE17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>7.0455403335035642</v>
       </c>
       <c r="T17" s="5">
-        <f>IF(AF17="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF17,3),et_dmc[Tech],0),)*RIGHT(AF17,1)*C17*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF17,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF17="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF17,3),et_dmc[Tech],0),)*RIGHT(AF17,1)*C17*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF17,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>183.18404867109265</v>
       </c>
       <c r="U17" s="5">
-        <f>IF(AG17="",0,INDEX(et_dmc[dmc_base],MATCH(AG17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG17="",0,INDEX(et_dmc[dmc_base],MATCH(AG17,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K17,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG17,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>120.13098521199998</v>
       </c>
       <c r="V17" s="5">
@@ -11039,8 +11363,9 @@
         <f>IF(AI17="",0,INDEX(et_dmc[dmc_base],MATCH(AI17,et_dmc[Tech],0),))</f>
         <v>0</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>131</v>
+      <c r="X17" s="1" t="str">
+        <f>IF(Null_6cyl_DMC=0,"","V6 SOHC to V6 DOHC")</f>
+        <v/>
       </c>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1" t="s">
@@ -11058,7 +11383,7 @@
         <v>24</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG17" s="1" t="s">
         <v>97</v>
@@ -11097,50 +11422,50 @@
       </c>
       <c r="J18" s="5">
         <f t="shared" si="0"/>
-        <v>8383.1587620921309</v>
+        <v>1333.6186606408999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L18" s="5">
-        <f>IF(X18="",0,INDEX(et_dmc[dmc_base],MATCH(X18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>199.693400967488</v>
+        <f>IF(X18="",0,INDEX(et_dmc[dmc_base],MATCH(X18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="M18" s="5">
-        <f>IF(Y18="",0,INDEX(et_dmc[dmc_base],MATCH(Y18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y18="",0,INDEX(et_dmc[dmc_base],MATCH(Y18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N18" s="5">
-        <f>IF(Z18="",0,INDEX(et_dmc[dmc_base],MATCH(Z18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z18="",0,INDEX(et_dmc[dmc_base],MATCH(Z18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>388.75234649999999</v>
       </c>
       <c r="O18" s="5">
-        <f>IF(AA18="",0,INDEX(et_dmc[dmc_base],MATCH(AA18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA18="",0,INDEX(et_dmc[dmc_base],MATCH(AA18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P18" s="5">
-        <f>IF(AB18="",0,INDEX(et_dmc[dmc_base],MATCH(AB18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB18="",0,INDEX(et_dmc[dmc_base],MATCH(AB18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>141.96724552331207</v>
       </c>
       <c r="Q18" s="5">
-        <f>IF(AC18="",0,INDEX(et_dmc[dmc_base],MATCH(AC18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC18="",0,INDEX(et_dmc[dmc_base],MATCH(AC18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>168.12992606602478</v>
       </c>
       <c r="R18" s="5">
-        <f>IF(AD18="",0,INDEX(et_dmc[dmc_base],MATCH(AD18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD18="",0,INDEX(et_dmc[dmc_base],MATCH(AD18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S18" s="5">
-        <f>IF(AE18="",0,INDEX(et_dmc[dmc_base],MATCH(AE18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE18="",0,INDEX(et_dmc[dmc_base],MATCH(AE18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>7.0455403335035642</v>
       </c>
       <c r="T18" s="5">
-        <f>IF(AF18="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF18,3),et_dmc[Tech],0),)*RIGHT(AF18,1)*C18*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF18,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF18="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF18,3),et_dmc[Tech],0),)*RIGHT(AF18,1)*C18*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF18,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>183.18404867109265</v>
       </c>
       <c r="U18" s="5">
-        <f>IF(AG18="",0,INDEX(et_dmc[dmc_base],MATCH(AG18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG18="",0,INDEX(et_dmc[dmc_base],MATCH(AG18,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K18,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG18,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V18" s="5">
@@ -11151,8 +11476,9 @@
         <f>IF(AI18="",0,INDEX(et_dmc[dmc_base],MATCH(AI18,et_dmc[Tech],0),))</f>
         <v>0</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>131</v>
+      <c r="X18" s="1" t="str">
+        <f>IF(Null_6cyl_DMC=0,"","V6 SOHC to V6 DOHC")</f>
+        <v/>
       </c>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1" t="s">
@@ -11170,7 +11496,7 @@
         <v>24</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -11207,50 +11533,50 @@
       </c>
       <c r="J19" s="5">
         <f t="shared" si="0"/>
-        <v>6214.4034534852608</v>
+        <v>214.40345348526137</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L19" s="5">
-        <f>IF(X19="",0,INDEX(et_dmc[dmc_base],MATCH(X19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X19="",0,INDEX(et_dmc[dmc_base],MATCH(X19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M19" s="5">
-        <f>IF(Y19="",0,INDEX(et_dmc[dmc_base],MATCH(Y19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y19="",0,INDEX(et_dmc[dmc_base],MATCH(Y19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N19" s="5">
-        <f>IF(Z19="",0,INDEX(et_dmc[dmc_base],MATCH(Z19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z19="",0,INDEX(et_dmc[dmc_base],MATCH(Z19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="O19" s="5">
-        <f>IF(AA19="",0,INDEX(et_dmc[dmc_base],MATCH(AA19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA19="",0,INDEX(et_dmc[dmc_base],MATCH(AA19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P19" s="5">
-        <f>IF(AB19="",0,INDEX(et_dmc[dmc_base],MATCH(AB19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB19="",0,INDEX(et_dmc[dmc_base],MATCH(AB19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q19" s="5">
-        <f>IF(AC19="",0,INDEX(et_dmc[dmc_base],MATCH(AC19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC19="",0,INDEX(et_dmc[dmc_base],MATCH(AC19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>78.351515933058238</v>
       </c>
       <c r="R19" s="5">
-        <f>IF(AD19="",0,INDEX(et_dmc[dmc_base],MATCH(AD19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD19="",0,INDEX(et_dmc[dmc_base],MATCH(AD19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S19" s="5">
-        <f>IF(AE19="",0,INDEX(et_dmc[dmc_base],MATCH(AE19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE19="",0,INDEX(et_dmc[dmc_base],MATCH(AE19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T19" s="5">
-        <f>IF(AF19="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF19,3),et_dmc[Tech],0),)*RIGHT(AF19,1)*C19*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF19,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF19="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF19,3),et_dmc[Tech],0),)*RIGHT(AF19,1)*C19*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF19,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>61.061349557030887</v>
       </c>
       <c r="U19" s="5">
-        <f>IF(AG19="",0,INDEX(et_dmc[dmc_base],MATCH(AG19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG19="",0,INDEX(et_dmc[dmc_base],MATCH(AG19,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K19,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG19,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V19" s="5">
@@ -11274,7 +11600,7 @@
         <v>103</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
@@ -11311,50 +11637,50 @@
       </c>
       <c r="J20" s="5">
         <f t="shared" si="0"/>
-        <v>6601.3392002352612</v>
+        <v>601.33920023526139</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L20" s="5">
-        <f>IF(X20="",0,INDEX(et_dmc[dmc_base],MATCH(X20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X20="",0,INDEX(et_dmc[dmc_base],MATCH(X20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M20" s="5">
-        <f>IF(Y20="",0,INDEX(et_dmc[dmc_base],MATCH(Y20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y20="",0,INDEX(et_dmc[dmc_base],MATCH(Y20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N20" s="5">
-        <f>IF(Z20="",0,INDEX(et_dmc[dmc_base],MATCH(Z20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z20="",0,INDEX(et_dmc[dmc_base],MATCH(Z20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>257.95716449999998</v>
       </c>
       <c r="O20" s="5">
-        <f>IF(AA20="",0,INDEX(et_dmc[dmc_base],MATCH(AA20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA20="",0,INDEX(et_dmc[dmc_base],MATCH(AA20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P20" s="5">
-        <f>IF(AB20="",0,INDEX(et_dmc[dmc_base],MATCH(AB20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB20="",0,INDEX(et_dmc[dmc_base],MATCH(AB20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q20" s="5">
-        <f>IF(AC20="",0,INDEX(et_dmc[dmc_base],MATCH(AC20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC20="",0,INDEX(et_dmc[dmc_base],MATCH(AC20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>78.351515933058238</v>
       </c>
       <c r="R20" s="5">
-        <f>IF(AD20="",0,INDEX(et_dmc[dmc_base],MATCH(AD20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD20="",0,INDEX(et_dmc[dmc_base],MATCH(AD20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S20" s="5">
-        <f>IF(AE20="",0,INDEX(et_dmc[dmc_base],MATCH(AE20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE20="",0,INDEX(et_dmc[dmc_base],MATCH(AE20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T20" s="5">
-        <f>IF(AF20="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF20,3),et_dmc[Tech],0),)*RIGHT(AF20,1)*C20*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF20,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF20="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF20,3),et_dmc[Tech],0),)*RIGHT(AF20,1)*C20*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF20,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>61.061349557030887</v>
       </c>
       <c r="U20" s="5">
-        <f>IF(AG20="",0,INDEX(et_dmc[dmc_base],MATCH(AG20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG20="",0,INDEX(et_dmc[dmc_base],MATCH(AG20,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K20,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG20,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V20" s="5">
@@ -11380,7 +11706,7 @@
         <v>103</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
@@ -11417,50 +11743,50 @@
       </c>
       <c r="J21" s="5">
         <f t="shared" si="0"/>
-        <v>6214.4034534852608</v>
+        <v>214.40345348526137</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L21" s="5">
-        <f>IF(X21="",0,INDEX(et_dmc[dmc_base],MATCH(X21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X21="",0,INDEX(et_dmc[dmc_base],MATCH(X21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M21" s="5">
-        <f>IF(Y21="",0,INDEX(et_dmc[dmc_base],MATCH(Y21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y21="",0,INDEX(et_dmc[dmc_base],MATCH(Y21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N21" s="5">
-        <f>IF(Z21="",0,INDEX(et_dmc[dmc_base],MATCH(Z21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z21="",0,INDEX(et_dmc[dmc_base],MATCH(Z21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="O21" s="5">
-        <f>IF(AA21="",0,INDEX(et_dmc[dmc_base],MATCH(AA21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA21="",0,INDEX(et_dmc[dmc_base],MATCH(AA21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P21" s="5">
-        <f>IF(AB21="",0,INDEX(et_dmc[dmc_base],MATCH(AB21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB21="",0,INDEX(et_dmc[dmc_base],MATCH(AB21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q21" s="5">
-        <f>IF(AC21="",0,INDEX(et_dmc[dmc_base],MATCH(AC21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC21="",0,INDEX(et_dmc[dmc_base],MATCH(AC21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>78.351515933058238</v>
       </c>
       <c r="R21" s="5">
-        <f>IF(AD21="",0,INDEX(et_dmc[dmc_base],MATCH(AD21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD21="",0,INDEX(et_dmc[dmc_base],MATCH(AD21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S21" s="5">
-        <f>IF(AE21="",0,INDEX(et_dmc[dmc_base],MATCH(AE21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE21="",0,INDEX(et_dmc[dmc_base],MATCH(AE21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T21" s="5">
-        <f>IF(AF21="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF21,3),et_dmc[Tech],0),)*RIGHT(AF21,1)*C21*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF21,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF21="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF21,3),et_dmc[Tech],0),)*RIGHT(AF21,1)*C21*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF21,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>61.061349557030887</v>
       </c>
       <c r="U21" s="5">
-        <f>IF(AG21="",0,INDEX(et_dmc[dmc_base],MATCH(AG21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG21="",0,INDEX(et_dmc[dmc_base],MATCH(AG21,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K21,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG21,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V21" s="5">
@@ -11484,7 +11810,7 @@
         <v>103</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
@@ -11521,50 +11847,50 @@
       </c>
       <c r="J22" s="5">
         <f t="shared" si="0"/>
-        <v>6601.3392002352612</v>
+        <v>601.33920023526139</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L22" s="5">
-        <f>IF(X22="",0,INDEX(et_dmc[dmc_base],MATCH(X22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X22="",0,INDEX(et_dmc[dmc_base],MATCH(X22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M22" s="5">
-        <f>IF(Y22="",0,INDEX(et_dmc[dmc_base],MATCH(Y22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y22="",0,INDEX(et_dmc[dmc_base],MATCH(Y22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N22" s="5">
-        <f>IF(Z22="",0,INDEX(et_dmc[dmc_base],MATCH(Z22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z22="",0,INDEX(et_dmc[dmc_base],MATCH(Z22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>257.95716449999998</v>
       </c>
       <c r="O22" s="5">
-        <f>IF(AA22="",0,INDEX(et_dmc[dmc_base],MATCH(AA22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA22="",0,INDEX(et_dmc[dmc_base],MATCH(AA22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P22" s="5">
-        <f>IF(AB22="",0,INDEX(et_dmc[dmc_base],MATCH(AB22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB22="",0,INDEX(et_dmc[dmc_base],MATCH(AB22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q22" s="5">
-        <f>IF(AC22="",0,INDEX(et_dmc[dmc_base],MATCH(AC22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC22="",0,INDEX(et_dmc[dmc_base],MATCH(AC22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>78.351515933058238</v>
       </c>
       <c r="R22" s="5">
-        <f>IF(AD22="",0,INDEX(et_dmc[dmc_base],MATCH(AD22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD22="",0,INDEX(et_dmc[dmc_base],MATCH(AD22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S22" s="5">
-        <f>IF(AE22="",0,INDEX(et_dmc[dmc_base],MATCH(AE22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE22="",0,INDEX(et_dmc[dmc_base],MATCH(AE22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T22" s="5">
-        <f>IF(AF22="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF22,3),et_dmc[Tech],0),)*RIGHT(AF22,1)*C22*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF22,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF22="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF22,3),et_dmc[Tech],0),)*RIGHT(AF22,1)*C22*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF22,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>61.061349557030887</v>
       </c>
       <c r="U22" s="5">
-        <f>IF(AG22="",0,INDEX(et_dmc[dmc_base],MATCH(AG22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG22="",0,INDEX(et_dmc[dmc_base],MATCH(AG22,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K22,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG22,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V22" s="5">
@@ -11590,7 +11916,7 @@
         <v>103</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
@@ -11627,50 +11953,50 @@
       </c>
       <c r="J23" s="5">
         <f t="shared" si="0"/>
-        <v>7181.0161804602612</v>
+        <v>1335.2454992352611</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L23" s="5">
-        <f>IF(X23="",0,INDEX(et_dmc[dmc_base],MATCH(X23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X23="",0,INDEX(et_dmc[dmc_base],MATCH(X23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M23" s="5">
-        <f>IF(Y23="",0,INDEX(et_dmc[dmc_base],MATCH(Y23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>-102.81954585000001</v>
+        <f>IF(Y23="",0,INDEX(et_dmc[dmc_base],MATCH(Y23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="N23" s="5">
-        <f>IF(Z23="",0,INDEX(et_dmc[dmc_base],MATCH(Z23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z23="",0,INDEX(et_dmc[dmc_base],MATCH(Z23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>257.95716449999998</v>
       </c>
       <c r="O23" s="5">
-        <f>IF(AA23="",0,INDEX(et_dmc[dmc_base],MATCH(AA23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA23="",0,INDEX(et_dmc[dmc_base],MATCH(AA23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>489.27086599999996</v>
       </c>
       <c r="P23" s="5">
-        <f>IF(AB23="",0,INDEX(et_dmc[dmc_base],MATCH(AB23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB23="",0,INDEX(et_dmc[dmc_base],MATCH(AB23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q23" s="5">
-        <f>IF(AC23="",0,INDEX(et_dmc[dmc_base],MATCH(AC23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC23="",0,INDEX(et_dmc[dmc_base],MATCH(AC23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>78.351515933058238</v>
       </c>
       <c r="R23" s="5">
-        <f>IF(AD23="",0,INDEX(et_dmc[dmc_base],MATCH(AD23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD23="",0,INDEX(et_dmc[dmc_base],MATCH(AD23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S23" s="5">
-        <f>IF(AE23="",0,INDEX(et_dmc[dmc_base],MATCH(AE23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE23="",0,INDEX(et_dmc[dmc_base],MATCH(AE23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T23" s="5">
-        <f>IF(AF23="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF23,3),et_dmc[Tech],0),)*RIGHT(AF23,1)*C23*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF23,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF23="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF23,3),et_dmc[Tech],0),)*RIGHT(AF23,1)*C23*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF23,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>61.061349557030887</v>
       </c>
       <c r="U23" s="5">
-        <f>IF(AG23="",0,INDEX(et_dmc[dmc_base],MATCH(AG23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG23="",0,INDEX(et_dmc[dmc_base],MATCH(AG23,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K23,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG23,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V23" s="5">
@@ -11682,8 +12008,9 @@
         <v>0</v>
       </c>
       <c r="X23" s="1"/>
-      <c r="Y23" s="1" t="s">
-        <v>99</v>
+      <c r="Y23" s="1" t="str">
+        <f>IF(Null_4cyl_DMC=0,"","I4 DOHC to I4 DOHC wT")</f>
+        <v/>
       </c>
       <c r="Z23" s="1" t="s">
         <v>81</v>
@@ -11700,7 +12027,7 @@
         <v>103</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
@@ -11737,50 +12064,50 @@
       </c>
       <c r="J24" s="5">
         <f t="shared" si="0"/>
-        <v>6961.7437414013739</v>
+        <v>1312.3474931513747</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L24" s="5">
-        <f>IF(X24="",0,INDEX(et_dmc[dmc_base],MATCH(X24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X24="",0,INDEX(et_dmc[dmc_base],MATCH(X24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M24" s="5">
-        <f>IF(Y24="",0,INDEX(et_dmc[dmc_base],MATCH(Y24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>-233.73583450000001</v>
+        <f>IF(Y24="",0,INDEX(et_dmc[dmc_base],MATCH(Y24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="N24" s="5">
-        <f>IF(Z24="",0,INDEX(et_dmc[dmc_base],MATCH(Z24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z24="",0,INDEX(et_dmc[dmc_base],MATCH(Z24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>257.95716449999998</v>
       </c>
       <c r="O24" s="5">
-        <f>IF(AA24="",0,INDEX(et_dmc[dmc_base],MATCH(AA24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA24="",0,INDEX(et_dmc[dmc_base],MATCH(AA24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>489.27086599999996</v>
       </c>
       <c r="P24" s="5">
-        <f>IF(AB24="",0,INDEX(et_dmc[dmc_base],MATCH(AB24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB24="",0,INDEX(et_dmc[dmc_base],MATCH(AB24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q24" s="5">
-        <f>IF(AC24="",0,INDEX(et_dmc[dmc_base],MATCH(AC24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC24="",0,INDEX(et_dmc[dmc_base],MATCH(AC24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>78.351515933058238</v>
       </c>
       <c r="R24" s="5">
-        <f>IF(AD24="",0,INDEX(et_dmc[dmc_base],MATCH(AD24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD24="",0,INDEX(et_dmc[dmc_base],MATCH(AD24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S24" s="5">
-        <f>IF(AE24="",0,INDEX(et_dmc[dmc_base],MATCH(AE24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE24="",0,INDEX(et_dmc[dmc_base],MATCH(AE24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T24" s="5">
-        <f>IF(AF24="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF24,3),et_dmc[Tech],0),)*RIGHT(AF24,1)*C24*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF24,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF24="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF24,3),et_dmc[Tech],0),)*RIGHT(AF24,1)*C24*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF24,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>45.796012167773164</v>
       </c>
       <c r="U24" s="5">
-        <f>IF(AG24="",0,INDEX(et_dmc[dmc_base],MATCH(AG24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG24="",0,INDEX(et_dmc[dmc_base],MATCH(AG24,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K24,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG24,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V24" s="5">
@@ -11792,8 +12119,9 @@
         <v>0</v>
       </c>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1" t="s">
-        <v>101</v>
+      <c r="Y24" s="1" t="str">
+        <f>IF(Null_4cyl_DMC=0,"","I4 to I3 wT")</f>
+        <v/>
       </c>
       <c r="Z24" s="1" t="s">
         <v>81</v>
@@ -11810,7 +12138,7 @@
         <v>103</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
@@ -11847,50 +12175,50 @@
       </c>
       <c r="J25" s="5">
         <f t="shared" si="0"/>
-        <v>6601.3392002352612</v>
+        <v>601.33920023526139</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L25" s="5">
-        <f>IF(X25="",0,INDEX(et_dmc[dmc_base],MATCH(X25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X25="",0,INDEX(et_dmc[dmc_base],MATCH(X25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M25" s="5">
-        <f>IF(Y25="",0,INDEX(et_dmc[dmc_base],MATCH(Y25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y25="",0,INDEX(et_dmc[dmc_base],MATCH(Y25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N25" s="5">
-        <f>IF(Z25="",0,INDEX(et_dmc[dmc_base],MATCH(Z25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z25="",0,INDEX(et_dmc[dmc_base],MATCH(Z25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>257.95716449999998</v>
       </c>
       <c r="O25" s="5">
-        <f>IF(AA25="",0,INDEX(et_dmc[dmc_base],MATCH(AA25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA25="",0,INDEX(et_dmc[dmc_base],MATCH(AA25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P25" s="5">
-        <f>IF(AB25="",0,INDEX(et_dmc[dmc_base],MATCH(AB25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB25="",0,INDEX(et_dmc[dmc_base],MATCH(AB25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q25" s="5">
-        <f>IF(AC25="",0,INDEX(et_dmc[dmc_base],MATCH(AC25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC25="",0,INDEX(et_dmc[dmc_base],MATCH(AC25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>78.351515933058238</v>
       </c>
       <c r="R25" s="5">
-        <f>IF(AD25="",0,INDEX(et_dmc[dmc_base],MATCH(AD25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD25="",0,INDEX(et_dmc[dmc_base],MATCH(AD25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S25" s="5">
-        <f>IF(AE25="",0,INDEX(et_dmc[dmc_base],MATCH(AE25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE25="",0,INDEX(et_dmc[dmc_base],MATCH(AE25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>3.5227701667517821</v>
       </c>
       <c r="T25" s="5">
-        <f>IF(AF25="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF25,3),et_dmc[Tech],0),)*RIGHT(AF25,1)*C25*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF25,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF25="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF25,3),et_dmc[Tech],0),)*RIGHT(AF25,1)*C25*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF25,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>61.061349557030887</v>
       </c>
       <c r="U25" s="5">
-        <f>IF(AG25="",0,INDEX(et_dmc[dmc_base],MATCH(AG25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG25="",0,INDEX(et_dmc[dmc_base],MATCH(AG25,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K25,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG25,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V25" s="5">
@@ -11918,7 +12246,7 @@
         <v>103</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
@@ -11955,50 +12283,50 @@
       </c>
       <c r="J26" s="5">
         <f t="shared" si="0"/>
-        <v>7277.8923600459357</v>
+        <v>1432.1216788209354</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L26" s="5">
-        <f>IF(X26="",0,INDEX(et_dmc[dmc_base],MATCH(X26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X26="",0,INDEX(et_dmc[dmc_base],MATCH(X26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M26" s="5">
-        <f>IF(Y26="",0,INDEX(et_dmc[dmc_base],MATCH(Y26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>-102.81954585000001</v>
+        <f>IF(Y26="",0,INDEX(et_dmc[dmc_base],MATCH(Y26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="N26" s="5">
-        <f>IF(Z26="",0,INDEX(et_dmc[dmc_base],MATCH(Z26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z26="",0,INDEX(et_dmc[dmc_base],MATCH(Z26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>257.95716449999998</v>
       </c>
       <c r="O26" s="5">
-        <f>IF(AA26="",0,INDEX(et_dmc[dmc_base],MATCH(AA26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA26="",0,INDEX(et_dmc[dmc_base],MATCH(AA26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>489.27086599999996</v>
       </c>
       <c r="P26" s="5">
-        <f>IF(AB26="",0,INDEX(et_dmc[dmc_base],MATCH(AB26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB26="",0,INDEX(et_dmc[dmc_base],MATCH(AB26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q26" s="5">
-        <f>IF(AC26="",0,INDEX(et_dmc[dmc_base],MATCH(AC26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC26="",0,INDEX(et_dmc[dmc_base],MATCH(AC26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>78.351515933058238</v>
       </c>
       <c r="R26" s="5">
-        <f>IF(AD26="",0,INDEX(et_dmc[dmc_base],MATCH(AD26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD26="",0,INDEX(et_dmc[dmc_base],MATCH(AD26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S26" s="5">
-        <f>IF(AE26="",0,INDEX(et_dmc[dmc_base],MATCH(AE26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE26="",0,INDEX(et_dmc[dmc_base],MATCH(AE26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>7.0455403335035642</v>
       </c>
       <c r="T26" s="5">
-        <f>IF(AF26="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF26,3),et_dmc[Tech],0),)*RIGHT(AF26,1)*C26*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF26,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF26="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF26,3),et_dmc[Tech],0),)*RIGHT(AF26,1)*C26*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF26,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>122.12269911406177</v>
       </c>
       <c r="U26" s="5">
-        <f>IF(AG26="",0,INDEX(et_dmc[dmc_base],MATCH(AG26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG26="",0,INDEX(et_dmc[dmc_base],MATCH(AG26,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K26,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG26,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V26" s="5">
@@ -12010,8 +12338,9 @@
         <v>0</v>
       </c>
       <c r="X26" s="1"/>
-      <c r="Y26" s="1" t="s">
-        <v>99</v>
+      <c r="Y26" s="1" t="str">
+        <f>IF(Null_4cyl_DMC=0,"","I4 DOHC to I4 DOHC wT")</f>
+        <v/>
       </c>
       <c r="Z26" s="1" t="s">
         <v>81</v>
@@ -12028,7 +12357,7 @@
         <v>24</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
@@ -12065,50 +12394,50 @@
       </c>
       <c r="J27" s="5">
         <f t="shared" si="0"/>
-        <v>7035.7219149031616</v>
+        <v>1386.325666653162</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L27" s="5">
-        <f>IF(X27="",0,INDEX(et_dmc[dmc_base],MATCH(X27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X27="",0,INDEX(et_dmc[dmc_base],MATCH(X27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M27" s="5">
-        <f>IF(Y27="",0,INDEX(et_dmc[dmc_base],MATCH(Y27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>-233.73583450000001</v>
+        <f>IF(Y27="",0,INDEX(et_dmc[dmc_base],MATCH(Y27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="N27" s="5">
-        <f>IF(Z27="",0,INDEX(et_dmc[dmc_base],MATCH(Z27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z27="",0,INDEX(et_dmc[dmc_base],MATCH(Z27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>257.95716449999998</v>
       </c>
       <c r="O27" s="5">
-        <f>IF(AA27="",0,INDEX(et_dmc[dmc_base],MATCH(AA27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA27="",0,INDEX(et_dmc[dmc_base],MATCH(AA27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>489.27086599999996</v>
       </c>
       <c r="P27" s="5">
-        <f>IF(AB27="",0,INDEX(et_dmc[dmc_base],MATCH(AB27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB27="",0,INDEX(et_dmc[dmc_base],MATCH(AB27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q27" s="5">
-        <f>IF(AC27="",0,INDEX(et_dmc[dmc_base],MATCH(AC27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC27="",0,INDEX(et_dmc[dmc_base],MATCH(AC27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>78.351515933058238</v>
       </c>
       <c r="R27" s="5">
-        <f>IF(AD27="",0,INDEX(et_dmc[dmc_base],MATCH(AD27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD27="",0,INDEX(et_dmc[dmc_base],MATCH(AD27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S27" s="5">
-        <f>IF(AE27="",0,INDEX(et_dmc[dmc_base],MATCH(AE27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE27="",0,INDEX(et_dmc[dmc_base],MATCH(AE27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>7.0455403335035642</v>
       </c>
       <c r="T27" s="5">
-        <f>IF(AF27="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF27,3),et_dmc[Tech],0),)*RIGHT(AF27,1)*C27*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF27,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF27="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF27,3),et_dmc[Tech],0),)*RIGHT(AF27,1)*C27*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF27,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>91.592024335546327</v>
       </c>
       <c r="U27" s="5">
-        <f>IF(AG27="",0,INDEX(et_dmc[dmc_base],MATCH(AG27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG27="",0,INDEX(et_dmc[dmc_base],MATCH(AG27,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K27,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG27,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V27" s="5">
@@ -12120,8 +12449,9 @@
         <v>0</v>
       </c>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1" t="s">
-        <v>101</v>
+      <c r="Y27" s="1" t="str">
+        <f>IF(Null_4cyl_DMC=0,"","I4 to I3 wT")</f>
+        <v/>
       </c>
       <c r="Z27" s="1" t="s">
         <v>84</v>
@@ -12138,7 +12468,7 @@
         <v>24</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
@@ -12175,50 +12505,50 @@
       </c>
       <c r="J28" s="5">
         <f t="shared" si="0"/>
-        <v>7020.3791031622468</v>
+        <v>1020.3791031622475</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L28" s="5">
-        <f>IF(X28="",0,INDEX(et_dmc[dmc_base],MATCH(X28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X28="",0,INDEX(et_dmc[dmc_base],MATCH(X28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M28" s="5">
-        <f>IF(Y28="",0,INDEX(et_dmc[dmc_base],MATCH(Y28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y28="",0,INDEX(et_dmc[dmc_base],MATCH(Y28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N28" s="5">
-        <f>IF(Z28="",0,INDEX(et_dmc[dmc_base],MATCH(Z28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z28="",0,INDEX(et_dmc[dmc_base],MATCH(Z28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>257.95716449999998</v>
       </c>
       <c r="O28" s="5">
-        <f>IF(AA28="",0,INDEX(et_dmc[dmc_base],MATCH(AA28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA28="",0,INDEX(et_dmc[dmc_base],MATCH(AA28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P28" s="5">
-        <f>IF(AB28="",0,INDEX(et_dmc[dmc_base],MATCH(AB28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB28="",0,INDEX(et_dmc[dmc_base],MATCH(AB28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>94.64483034887472</v>
       </c>
       <c r="Q28" s="5">
-        <f>IF(AC28="",0,INDEX(et_dmc[dmc_base],MATCH(AC28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC28="",0,INDEX(et_dmc[dmc_base],MATCH(AC28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>78.351515933058238</v>
       </c>
       <c r="R28" s="5">
-        <f>IF(AD28="",0,INDEX(et_dmc[dmc_base],MATCH(AD28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD28="",0,INDEX(et_dmc[dmc_base],MATCH(AD28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S28" s="5">
-        <f>IF(AE28="",0,INDEX(et_dmc[dmc_base],MATCH(AE28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE28="",0,INDEX(et_dmc[dmc_base],MATCH(AE28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>7.0455403335035642</v>
       </c>
       <c r="T28" s="5">
-        <f>IF(AF28="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF28,3),et_dmc[Tech],0),)*RIGHT(AF28,1)*C28*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF28,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF28="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF28,3),et_dmc[Tech],0),)*RIGHT(AF28,1)*C28*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF28,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>122.12269911406177</v>
       </c>
       <c r="U28" s="5">
-        <f>IF(AG28="",0,INDEX(et_dmc[dmc_base],MATCH(AG28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG28="",0,INDEX(et_dmc[dmc_base],MATCH(AG28,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K28,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG28,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>120.13098521199998</v>
       </c>
       <c r="V28" s="5">
@@ -12246,7 +12576,7 @@
         <v>24</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG28" s="1" t="s">
         <v>93</v>
@@ -12285,50 +12615,50 @@
       </c>
       <c r="J29" s="5">
         <f t="shared" si="0"/>
-        <v>7036.3753983442475</v>
+        <v>1036.3753983442475</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L29" s="5">
-        <f>IF(X29="",0,INDEX(et_dmc[dmc_base],MATCH(X29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X29="",0,INDEX(et_dmc[dmc_base],MATCH(X29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M29" s="5">
-        <f>IF(Y29="",0,INDEX(et_dmc[dmc_base],MATCH(Y29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Y29="",0,INDEX(et_dmc[dmc_base],MATCH(Y29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="N29" s="5">
-        <f>IF(Z29="",0,INDEX(et_dmc[dmc_base],MATCH(Z29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z29="",0,INDEX(et_dmc[dmc_base],MATCH(Z29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>388.75234649999999</v>
       </c>
       <c r="O29" s="5">
-        <f>IF(AA29="",0,INDEX(et_dmc[dmc_base],MATCH(AA29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA29="",0,INDEX(et_dmc[dmc_base],MATCH(AA29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="P29" s="5">
-        <f>IF(AB29="",0,INDEX(et_dmc[dmc_base],MATCH(AB29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB29="",0,INDEX(et_dmc[dmc_base],MATCH(AB29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>94.64483034887472</v>
       </c>
       <c r="Q29" s="5">
-        <f>IF(AC29="",0,INDEX(et_dmc[dmc_base],MATCH(AC29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC29="",0,INDEX(et_dmc[dmc_base],MATCH(AC29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>78.351515933058238</v>
       </c>
       <c r="R29" s="5">
-        <f>IF(AD29="",0,INDEX(et_dmc[dmc_base],MATCH(AD29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD29="",0,INDEX(et_dmc[dmc_base],MATCH(AD29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S29" s="5">
-        <f>IF(AE29="",0,INDEX(et_dmc[dmc_base],MATCH(AE29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE29="",0,INDEX(et_dmc[dmc_base],MATCH(AE29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>7.0455403335035642</v>
       </c>
       <c r="T29" s="5">
-        <f>IF(AF29="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF29,3),et_dmc[Tech],0),)*RIGHT(AF29,1)*C29*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF29,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF29="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF29,3),et_dmc[Tech],0),)*RIGHT(AF29,1)*C29*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF29,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>122.12269911406177</v>
       </c>
       <c r="U29" s="5">
-        <f>IF(AG29="",0,INDEX(et_dmc[dmc_base],MATCH(AG29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG29="",0,INDEX(et_dmc[dmc_base],MATCH(AG29,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K29,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG29,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="V29" s="5">
@@ -12356,7 +12686,7 @@
         <v>24</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
@@ -12393,50 +12723,50 @@
       </c>
       <c r="J30" s="5">
         <f t="shared" si="0"/>
-        <v>7458.0888378639347</v>
+        <v>1612.3181566389353</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L30" s="5">
-        <f>IF(X30="",0,INDEX(et_dmc[dmc_base],MATCH(X30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X30="",0,INDEX(et_dmc[dmc_base],MATCH(X30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M30" s="5">
-        <f>IF(Y30="",0,INDEX(et_dmc[dmc_base],MATCH(Y30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>-102.81954585000001</v>
+        <f>IF(Y30="",0,INDEX(et_dmc[dmc_base],MATCH(Y30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="N30" s="5">
-        <f>IF(Z30="",0,INDEX(et_dmc[dmc_base],MATCH(Z30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z30="",0,INDEX(et_dmc[dmc_base],MATCH(Z30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>257.95716449999998</v>
       </c>
       <c r="O30" s="5">
-        <f>IF(AA30="",0,INDEX(et_dmc[dmc_base],MATCH(AA30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA30="",0,INDEX(et_dmc[dmc_base],MATCH(AA30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>489.27086599999996</v>
       </c>
       <c r="P30" s="5">
-        <f>IF(AB30="",0,INDEX(et_dmc[dmc_base],MATCH(AB30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB30="",0,INDEX(et_dmc[dmc_base],MATCH(AB30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q30" s="5">
-        <f>IF(AC30="",0,INDEX(et_dmc[dmc_base],MATCH(AC30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC30="",0,INDEX(et_dmc[dmc_base],MATCH(AC30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>78.351515933058238</v>
       </c>
       <c r="R30" s="5">
-        <f>IF(AD30="",0,INDEX(et_dmc[dmc_base],MATCH(AD30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD30="",0,INDEX(et_dmc[dmc_base],MATCH(AD30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S30" s="5">
-        <f>IF(AE30="",0,INDEX(et_dmc[dmc_base],MATCH(AE30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE30="",0,INDEX(et_dmc[dmc_base],MATCH(AE30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>7.0455403335035642</v>
       </c>
       <c r="T30" s="5">
-        <f>IF(AF30="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF30,3),et_dmc[Tech],0),)*RIGHT(AF30,1)*C30*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF30,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF30="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF30,3),et_dmc[Tech],0),)*RIGHT(AF30,1)*C30*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF30,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>122.12269911406177</v>
       </c>
       <c r="U30" s="5">
-        <f>IF(AG30="",0,INDEX(et_dmc[dmc_base],MATCH(AG30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG30="",0,INDEX(et_dmc[dmc_base],MATCH(AG30,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K30,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG30,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>120.13098521199998</v>
       </c>
       <c r="V30" s="5">
@@ -12448,8 +12778,9 @@
         <v>0</v>
       </c>
       <c r="X30" s="1"/>
-      <c r="Y30" s="1" t="s">
-        <v>99</v>
+      <c r="Y30" s="1" t="str">
+        <f>IF(Null_4cyl_DMC=0,"","I4 DOHC to I4 DOHC wT")</f>
+        <v/>
       </c>
       <c r="Z30" s="1" t="s">
         <v>81</v>
@@ -12466,7 +12797,7 @@
         <v>24</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG30" s="1" t="s">
         <v>93</v>
@@ -12505,50 +12836,50 @@
       </c>
       <c r="J31" s="5">
         <f t="shared" si="0"/>
-        <v>7215.9183927211616</v>
+        <v>1566.5221444711619</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="L31" s="5">
-        <f>IF(X31="",0,INDEX(et_dmc[dmc_base],MATCH(X31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(X31="",0,INDEX(et_dmc[dmc_base],MATCH(X31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(X31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="M31" s="5">
-        <f>IF(Y31="",0,INDEX(et_dmc[dmc_base],MATCH(Y31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
-        <v>-233.73583450000001</v>
+        <f>IF(Y31="",0,INDEX(et_dmc[dmc_base],MATCH(Y31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Y31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <v>0</v>
       </c>
       <c r="N31" s="5">
-        <f>IF(Z31="",0,INDEX(et_dmc[dmc_base],MATCH(Z31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(Z31="",0,INDEX(et_dmc[dmc_base],MATCH(Z31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(Z31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>257.95716449999998</v>
       </c>
       <c r="O31" s="5">
-        <f>IF(AA31="",0,INDEX(et_dmc[dmc_base],MATCH(AA31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AA31="",0,INDEX(et_dmc[dmc_base],MATCH(AA31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AA31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>489.27086599999996</v>
       </c>
       <c r="P31" s="5">
-        <f>IF(AB31="",0,INDEX(et_dmc[dmc_base],MATCH(AB31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AB31="",0,INDEX(et_dmc[dmc_base],MATCH(AB31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AB31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="Q31" s="5">
-        <f>IF(AC31="",0,INDEX(et_dmc[dmc_base],MATCH(AC31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AC31="",0,INDEX(et_dmc[dmc_base],MATCH(AC31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AC31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>78.351515933058238</v>
       </c>
       <c r="R31" s="5">
-        <f>IF(AD31="",0,INDEX(et_dmc[dmc_base],MATCH(AD31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AD31="",0,INDEX(et_dmc[dmc_base],MATCH(AD31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AD31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>0</v>
       </c>
       <c r="S31" s="5">
-        <f>IF(AE31="",0,INDEX(et_dmc[dmc_base],MATCH(AE31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AE31="",0,INDEX(et_dmc[dmc_base],MATCH(AE31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AE31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>7.0455403335035642</v>
       </c>
       <c r="T31" s="5">
-        <f>IF(AF31="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF31,3),et_dmc[Tech],0),)*RIGHT(AF31,1)*C31*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF31,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AF31="",0,INDEX(et_dmc[dmc_base],MATCH(LEFT(AF31,3),et_dmc[Tech],0),)*RIGHT(AF31,1)*C31*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(LEFT(AF31,3),et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>91.592024335546327</v>
       </c>
       <c r="U31" s="5">
-        <f>IF(AG31="",0,INDEX(et_dmc[dmc_base],MATCH(AG31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
+        <f>IF(AG31="",0,INDEX(et_dmc[dmc_base],MATCH(AG31,et_dmc[Tech],0),)*INDEX(gdp_deflators!$B$2:$B$15,MATCH(engine_tech!$K31,gdp_deflators!$A$2:$A$15,0),)/INDEX(gdp_deflators!$B$2:$B$15,MATCH(INDEX(et_dmc[dmc_basis],MATCH(AG31,et_dmc[Tech],0),),gdp_deflators!$A$2:$A$15,0),))</f>
         <v>120.13098521199998</v>
       </c>
       <c r="V31" s="5">
@@ -12560,8 +12891,9 @@
         <v>0</v>
       </c>
       <c r="X31" s="1"/>
-      <c r="Y31" s="1" t="s">
-        <v>101</v>
+      <c r="Y31" s="1" t="str">
+        <f>IF(Null_4cyl_DMC=0,"","I4 to I3 wT")</f>
+        <v/>
       </c>
       <c r="Z31" s="1" t="s">
         <v>84</v>
@@ -12578,7 +12910,7 @@
         <v>24</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG31" s="1" t="s">
         <v>93</v>
@@ -12596,7 +12928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24394527-83C9-43E1-99B9-F6C50D02F0E0}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -12611,16 +12943,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" t="s">
         <v>213</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12701,7 +13033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC79EF4-77A1-48AD-8822-597C66753CF5}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -12717,16 +13049,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C1" t="s">
         <v>213</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -12776,7 +13108,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
@@ -12791,7 +13123,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
@@ -12806,7 +13138,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
@@ -12821,7 +13153,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
@@ -12836,7 +13168,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
@@ -12851,7 +13183,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
@@ -12866,7 +13198,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
@@ -12881,7 +13213,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
@@ -12896,7 +13228,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
@@ -12911,7 +13243,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="0"/>
@@ -12926,7 +13258,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="0"/>
@@ -12941,7 +13273,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="0"/>
@@ -12956,7 +13288,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="0"/>
@@ -12972,7 +13304,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="0"/>
@@ -12988,7 +13320,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="0"/>
@@ -13004,7 +13336,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="0"/>
@@ -13020,7 +13352,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="0"/>
@@ -13036,7 +13368,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
@@ -13055,7 +13387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978F0E61-D55E-4846-92CF-DA7BB2817A97}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -13077,13 +13409,13 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D1" t="s">
         <v>213</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -13148,7 +13480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC19E309-23D5-4D0A-B316-FCB0CC8B49A8}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -13181,7 +13513,7 @@
         <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -13232,7 +13564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FE94D6-2983-4058-A10D-F319D379B239}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -13250,16 +13582,16 @@
         <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E1" t="s">
         <v>213</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -13267,7 +13599,7 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -13372,7 +13704,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -13477,190 +13809,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B9F0F9-D24F-4187-97FF-36498970686A}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2">
-        <v>99</v>
-      </c>
-      <c r="C2" s="8">
-        <f t="shared" ref="C2:C9" si="0">D2*Markup</f>
-        <v>82.5</v>
-      </c>
-      <c r="D2" s="9">
-        <v>55</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" s="6">
-        <v>99</v>
-      </c>
-      <c r="C3" s="8">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="D3" s="9">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" s="7">
-        <v>99</v>
-      </c>
-      <c r="C4" s="8">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D4" s="9">
-        <f>4*10</f>
-        <v>40</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B6" s="7">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="D6" s="9">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B7" s="7">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D7" s="9">
-        <f>4*10</f>
-        <v>40</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B8" s="7">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="D8" s="9">
-        <f>D2+D3</f>
-        <v>60</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B9" s="7">
-        <v>20</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
-        <v>142.5</v>
-      </c>
-      <c r="D9" s="9">
-        <f>D2+D4</f>
-        <v>95</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2009</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C4" xr:uid="{C53A1DC7-378E-419F-B9C5-4907A7B2017F}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/alpha_package_costs/alpha_package_costs_inputs/alpha_package_costs_module_inputs.xlsx
+++ b/alpha_package_costs/alpha_package_costs_inputs/alpha_package_costs_module_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSHERWOO\Documents\GitHub\EPA_OMEGA_Model\alpha_package_costs\alpha_package_costs_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2A3BD7-F7A4-4D15-A31F-4DD3B03EFC3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544DDC08-F045-4A15-8AB6-69678B9CCCDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="826" firstSheet="2" activeTab="13" xr2:uid="{31AE0ECC-ADD6-46A3-9F50-4BA6582DDF8B}"/>
   </bookViews>
@@ -5112,7 +5112,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5228,7 +5228,7 @@
         <v>251</v>
       </c>
       <c r="B8" s="1">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
